--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="87">
   <si>
     <t>角色名</t>
   </si>
@@ -86,6 +86,9 @@
     <t>描述（人话）</t>
   </si>
   <si>
+    <t>触发时点</t>
+  </si>
+  <si>
     <t>描述（程序语言）</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>以自身攻击力330%对目标造成伤害，再使自身攻击力增加20%（3回合）</t>
   </si>
   <si>
+    <t>释放必杀</t>
+  </si>
+  <si>
     <t>对目标330%技能伤害,自身攻击力+20%</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
     <t xml:space="preserve">使全体风属性角色最大hp增加35% </t>
   </si>
   <si>
+    <t>游戏开始时</t>
+  </si>
+  <si>
     <t>没做</t>
   </si>
   <si>
@@ -170,49 +179,58 @@
     <t>必杀后 触发目标受到伤害增加20% 3回合 效果</t>
   </si>
   <si>
-    <t>必杀后,目标受到伤害+20%(3回合)</t>
+    <t>释放必杀后</t>
+  </si>
+  <si>
+    <t>目标受到伤害+20%(3回合)</t>
   </si>
   <si>
     <t>被动</t>
   </si>
   <si>
-    <t>1星</t>
+    <t>一星</t>
   </si>
   <si>
     <t>普攻时，触发 使目标受到我方攻击者伤害增加6%(最多4层) 且受到精灵王赛露西亚伤害增加6%（最多4层）效果</t>
   </si>
   <si>
-    <t>普攻后,目标受到攻击者伤害+6%(最多4层),目标受到精灵王伤害+6%(最多4层)</t>
-  </si>
-  <si>
-    <t>3星</t>
+    <t>释放普攻后</t>
+  </si>
+  <si>
+    <t>目标受到攻击者伤害+6%(最多4层),目标受到精灵王伤害+6%(最多4层)</t>
+  </si>
+  <si>
+    <t>三星</t>
   </si>
   <si>
     <t>普攻时，触发使目标受到普攻伤害增加7.5%（最多4层）效果</t>
   </si>
   <si>
-    <t>普攻后,目标受到普攻伤害+7.5%(最多4层)</t>
-  </si>
-  <si>
-    <t>5星</t>
+    <t>目标受到普攻伤害+7.5%(最多4层)</t>
+  </si>
+  <si>
+    <t>五星</t>
   </si>
   <si>
     <t>必杀时，触发使我方全体风属性队员造成伤害增加15%（最多2层）效果</t>
   </si>
   <si>
-    <t>必杀后,队伍中风属性造成伤害+15%(最多2层)</t>
-  </si>
-  <si>
-    <t>6潜</t>
+    <t>队伍中风属性造成伤害+15%(最多2层)</t>
+  </si>
+  <si>
+    <t>六潜</t>
   </si>
   <si>
     <t>使自身攻击力增加10%</t>
   </si>
   <si>
+    <t>被动光环</t>
+  </si>
+  <si>
     <t>自身攻击力+10%</t>
   </si>
   <si>
-    <t>12潜</t>
+    <t>十二潜</t>
   </si>
   <si>
     <t>免疫麻痹</t>
@@ -222,6 +240,9 @@
   </si>
   <si>
     <t>以自身100%对目标造成伤害</t>
+  </si>
+  <si>
+    <t>释放普攻</t>
   </si>
   <si>
     <t>对目标100%普攻伤害</t>
@@ -262,8 +283,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -277,20 +298,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -305,15 +318,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +357,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -373,13 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -398,14 +406,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -414,7 +414,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,187 +450,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,6 +641,84 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,84 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,145 +749,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -1380,21 +1401,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="88.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="73.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="12.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="73.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1413,8 +1435,11 @@
       <c r="F1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1422,19 +1447,22 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1442,19 +1470,22 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1462,19 +1493,22 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1482,19 +1516,22 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1502,19 +1539,22 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1522,16 +1562,19 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1539,16 +1582,19 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1556,16 +1602,19 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1573,16 +1622,19 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1590,16 +1642,19 @@
         <v>1010</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1607,19 +1662,22 @@
         <v>1011</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1627,19 +1685,22 @@
         <v>1012</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1647,19 +1708,22 @@
         <v>1013</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1667,19 +1731,22 @@
         <v>1014</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1687,19 +1754,22 @@
         <v>1015</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1707,13 +1777,16 @@
         <v>1016</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1724,13 +1797,13 @@
         <v>2001</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1741,13 +1814,13 @@
         <v>2002</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1758,13 +1831,13 @@
         <v>2003</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1775,13 +1848,13 @@
         <v>2004</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1792,13 +1865,13 @@
         <v>2005</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1809,10 +1882,10 @@
         <v>2006</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1823,13 +1896,13 @@
         <v>2007</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1840,13 +1913,13 @@
         <v>2008</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1857,13 +1930,13 @@
         <v>2009</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1874,13 +1947,13 @@
         <v>2010</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1891,13 +1964,13 @@
         <v>2011</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1905,16 +1978,16 @@
         <v>2012</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1922,16 +1995,16 @@
         <v>3001</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1939,16 +2012,16 @@
         <v>3002</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1956,16 +2029,16 @@
         <v>3003</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1973,16 +2046,16 @@
         <v>3004</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1990,13 +2063,13 @@
         <v>3005</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2007,7 +2080,7 @@
         <v>3006</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2018,10 +2091,10 @@
         <v>3007</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2032,10 +2105,10 @@
         <v>3008</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2046,10 +2119,10 @@
         <v>3009</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2060,10 +2133,10 @@
         <v>3010</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2074,10 +2147,10 @@
         <v>3011</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2088,7 +2161,7 @@
         <v>3012</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2099,10 +2172,10 @@
         <v>4001</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2113,10 +2186,10 @@
         <v>4002</v>
       </c>
       <c r="C46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2127,10 +2200,10 @@
         <v>4003</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2141,10 +2214,10 @@
         <v>4004</v>
       </c>
       <c r="C48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2155,10 +2228,10 @@
         <v>4005</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2169,7 +2242,7 @@
         <v>4006</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2180,10 +2253,10 @@
         <v>4007</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2194,10 +2267,10 @@
         <v>4008</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2208,10 +2281,10 @@
         <v>4009</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2222,10 +2295,10 @@
         <v>4010</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2236,10 +2309,10 @@
         <v>4011</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2250,7 +2323,7 @@
         <v>4012</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2261,10 +2334,10 @@
         <v>5001</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2275,10 +2348,10 @@
         <v>5002</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2289,10 +2362,10 @@
         <v>5003</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2303,10 +2376,10 @@
         <v>5004</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2317,10 +2390,10 @@
         <v>5005</v>
       </c>
       <c r="C62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2331,7 +2404,7 @@
         <v>5006</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2342,10 +2415,10 @@
         <v>5007</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2356,10 +2429,10 @@
         <v>5008</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2370,10 +2443,10 @@
         <v>5009</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D66" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2384,10 +2457,10 @@
         <v>5010</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2398,10 +2471,10 @@
         <v>5011</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2412,7 +2485,7 @@
         <v>5012</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="90">
   <si>
     <t>角色名</t>
   </si>
@@ -77,6 +78,9 @@
     <t>胆小纸袋狼 沃沃</t>
   </si>
   <si>
+    <t>测试角色</t>
+  </si>
+  <si>
     <t>技能所属者</t>
   </si>
   <si>
@@ -164,13 +168,19 @@
     <t>第一回合时，触发 以激灵古怪赛鲁西亚攻击力40%使我方全体风属性角色攻击力增加50回合效果</t>
   </si>
   <si>
-    <t>队伍以自身攻击力+40%</t>
-  </si>
-  <si>
-    <t>使精灵王赛鲁西亚获得必杀技最大CD减少2回合 以及 必杀后 触发目标受到伤害增加20% 3回合 效果</t>
-  </si>
-  <si>
-    <t>如果队伍有ID为2则ID2必杀技能CD-2,ID2+BUFF1010</t>
+    <t>我方群体攻击力数值增加+40%</t>
+  </si>
+  <si>
+    <t>使精灵王赛鲁西亚获得必杀技最大CD减少2回合</t>
+  </si>
+  <si>
+    <t>如果队伍中有ID为2则ID2必杀技能CD-2</t>
+  </si>
+  <si>
+    <t>使精灵王赛鲁西亚获得必杀后 触发目标受到伤害增加20% 3回合 效果</t>
+  </si>
+  <si>
+    <t>ID2获得技能1011</t>
   </si>
   <si>
     <t>他人给予技能</t>
@@ -283,8 +293,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -297,6 +307,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -305,7 +330,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,16 +352,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,19 +390,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,15 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -388,19 +429,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,34 +444,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -450,187 +460,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +669,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -674,17 +710,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,27 +738,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +759,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,130 +774,130 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,13 +1233,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
@@ -1389,6 +1399,32 @@
         <v>2000</v>
       </c>
       <c r="H6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>2000</v>
+      </c>
+      <c r="H7">
         <v>2000</v>
       </c>
     </row>
@@ -1401,10 +1437,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1418,7 +1454,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1427,16 +1463,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1447,19 +1483,19 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1470,19 +1506,19 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1493,19 +1529,19 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1516,19 +1552,19 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1539,19 +1575,19 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1562,16 +1598,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1582,16 +1618,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1602,16 +1638,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1622,16 +1658,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1642,16 +1678,16 @@
         <v>1010</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>53</v>
       </c>
       <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1662,19 +1698,16 @@
         <v>1011</v>
       </c>
       <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>58</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1685,16 +1718,16 @@
         <v>1012</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
@@ -1708,7 +1741,7 @@
         <v>1013</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1717,13 +1750,13 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1731,7 +1764,7 @@
         <v>1014</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -1740,13 +1773,13 @@
         <v>68</v>
       </c>
       <c r="F15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" t="s">
         <v>69</v>
       </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1754,19 +1787,19 @@
         <v>1015</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>72</v>
       </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1777,715 +1810,818 @@
         <v>1016</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
       </c>
       <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>6001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6008</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6007</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>2003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>2004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>2006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>2008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2009</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2010</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="F17" t="s">
-        <v>75</v>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3001</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3003</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>3005</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>3006</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>3007</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>3008</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>3009</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>3010</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>3011</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>3012</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>4001</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>2002</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>2003</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>2004</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>2005</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24">
-        <v>2006</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <v>2007</v>
-      </c>
-      <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>2008</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27">
-        <v>2009</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>2010</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>2011</v>
+        <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>2012</v>
+        <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>4004</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>3001</v>
+        <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>3002</v>
+        <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>30</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>3003</v>
+        <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>3004</v>
+        <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>3005</v>
+        <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>3006</v>
+        <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>3007</v>
+        <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>3008</v>
+        <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40">
-        <v>3009</v>
-      </c>
-      <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>3010</v>
+        <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>3011</v>
+        <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>3012</v>
+        <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44">
+        <v>5004</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>4001</v>
+        <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>4002</v>
+        <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>4003</v>
+        <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>4004</v>
+        <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>4005</v>
+        <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>4006</v>
+        <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>4007</v>
+        <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>4008</v>
+        <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <v>4009</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54">
-        <v>4010</v>
-      </c>
-      <c r="C54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55">
-        <v>4011</v>
-      </c>
-      <c r="C55" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56">
-        <v>4012</v>
-      </c>
-      <c r="C56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58">
-        <v>5001</v>
-      </c>
-      <c r="C58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59">
-        <v>5002</v>
-      </c>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B60">
-        <v>5003</v>
-      </c>
-      <c r="C60" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61">
-        <v>5004</v>
-      </c>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62">
-        <v>5005</v>
-      </c>
-      <c r="C62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63">
-        <v>5006</v>
-      </c>
-      <c r="C63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64">
-        <v>5007</v>
-      </c>
-      <c r="C64" t="s">
-        <v>56</v>
-      </c>
-      <c r="D64" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65">
-        <v>5008</v>
-      </c>
-      <c r="C65" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66">
-        <v>5009</v>
-      </c>
-      <c r="C66" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67">
-        <v>5010</v>
-      </c>
-      <c r="C67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68">
-        <v>5011</v>
-      </c>
-      <c r="C68" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69">
-        <v>5012</v>
-      </c>
-      <c r="C69" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
   <si>
     <t>角色名</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>对目标100%普攻伤害</t>
+  </si>
+  <si>
+    <t>友方攻击力数值+40%</t>
+  </si>
+  <si>
+    <t>如果队伍中风属性数量为5则友方攻击力+100%</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -293,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -304,6 +310,35 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,35 +351,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,7 +375,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,78 +421,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +441,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -460,31 +466,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,19 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,127 +628,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,17 +660,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,13 +684,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,41 +741,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +777,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,10 +1443,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1873,7 +1879,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6008</v>
+        <v>6002</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -1885,7 +1891,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1893,7 +1899,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6007</v>
+        <v>6003</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -1905,7 +1911,211 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>6004</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>6005</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>6006</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>6007</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>6008</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>6009</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>6010</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>6011</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>6012</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1956,7 +2166,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1973,7 +2183,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1990,7 +2200,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2007,7 +2217,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2021,7 +2231,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2038,7 +2248,7 @@
         <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2055,7 +2265,7 @@
         <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2072,7 +2282,7 @@
         <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2089,7 +2299,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
   <si>
     <t>角色名</t>
   </si>
@@ -108,7 +108,7 @@
     <t>释放必杀</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身攻击力+20%</t>
+    <t>对目标330%技能伤害,自身攻击力+20%(3回合)</t>
   </si>
   <si>
     <t>2绊</t>
@@ -117,7 +117,7 @@
     <t>以自身攻击力376%对目标造成伤害，再使自身攻击力增加20%（3回合）</t>
   </si>
   <si>
-    <t>对目标376%技能伤害,自身攻击力+20%</t>
+    <t>对目标376%技能伤害,自身攻击力+20%(3回合)</t>
   </si>
   <si>
     <t>3绊</t>
@@ -126,7 +126,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），再以自身攻击力422%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%,对目标422%技能伤害</t>
+    <t>自身攻击力+30%(3回合),对目标422%技能伤害</t>
   </si>
   <si>
     <t>4绊</t>
@@ -135,7 +135,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），再以自身攻击力468%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%,对目标468%技能伤害</t>
+    <t>自身攻击力+30%(3回合),对目标468%技能伤害</t>
   </si>
   <si>
     <t>5绊</t>
@@ -144,7 +144,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），使目标受到自身伤害增加15%（3回合），再以自身攻击力514%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%,目标受到小精灵王伤害+15%(3回合),对目标514%技能伤害</t>
+    <t>自身攻击力+30%(3回合),目标受到小精灵王伤害+15%(3回合),对目标514%技能伤害</t>
   </si>
   <si>
     <t>队长技</t>
@@ -162,13 +162,13 @@
     <t>队伍中有5名风属性角色时 发动 受到治疗回复量增加25% 攻击力增加100%效果</t>
   </si>
   <si>
-    <t>如果队伍中风属性数量为5则队伍攻击力+100%</t>
+    <t>如果队伍中风属性数量为5则友方攻击力+100%</t>
   </si>
   <si>
     <t>第一回合时，触发 以激灵古怪赛鲁西亚攻击力40%使我方全体风属性角色攻击力增加50回合效果</t>
   </si>
   <si>
-    <t>我方群体攻击力数值增加+40%</t>
+    <t>友方攻击力数值+40%</t>
   </si>
   <si>
     <t>使精灵王赛鲁西亚获得必杀技最大CD减少2回合</t>
@@ -180,19 +180,10 @@
     <t>使精灵王赛鲁西亚获得必杀后 触发目标受到伤害增加20% 3回合 效果</t>
   </si>
   <si>
-    <t>ID2获得技能1011</t>
-  </si>
-  <si>
-    <t>他人给予技能</t>
-  </si>
-  <si>
-    <t>必杀后 触发目标受到伤害增加20% 3回合 效果</t>
-  </si>
-  <si>
     <t>释放必杀后</t>
   </si>
   <si>
-    <t>目标受到伤害+20%(3回合)</t>
+    <t>ID2获得技能:目标受到伤害+20%(3回合)</t>
   </si>
   <si>
     <t>被动</t>
@@ -256,12 +247,6 @@
   </si>
   <si>
     <t>对目标100%普攻伤害</t>
-  </si>
-  <si>
-    <t>友方攻击力数值+40%</t>
-  </si>
-  <si>
-    <t>如果队伍中风属性数量为5则友方攻击力+100%</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -299,9 +284,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -314,6 +299,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -321,30 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,17 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +338,38 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,6 +388,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -405,31 +405,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,67 +451,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,115 +625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,15 +642,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -680,6 +656,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,22 +694,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,10 +750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +762,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1443,10 +1428,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1681,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C11" t="s">
         <v>43</v>
@@ -1690,10 +1675,10 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1701,19 +1686,22 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1721,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
       </c>
       <c r="G13" t="s">
         <v>63</v>
@@ -1744,10 +1732,10 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
@@ -1756,21 +1744,21 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -1779,33 +1767,33 @@
         <v>68</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1813,310 +1801,29 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>1017</v>
-      </c>
-      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>6001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>6002</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>6003</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>6004</v>
-      </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>6005</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>6006</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>6007</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27">
-        <v>6008</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>6009</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>6010</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30">
-        <v>6011</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>6012</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2149,7 +1856,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2166,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2183,7 +1890,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2200,7 +1907,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2217,7 +1924,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2231,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2242,13 +1949,13 @@
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2259,13 +1966,13 @@
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2276,13 +1983,13 @@
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2293,13 +2000,13 @@
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2310,10 +2017,10 @@
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2324,13 +2031,13 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
         <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2437,10 +2144,10 @@
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2451,10 +2158,10 @@
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2465,10 +2172,10 @@
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2479,10 +2186,10 @@
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2493,10 +2200,10 @@
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2507,7 +2214,7 @@
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2599,10 +2306,10 @@
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2613,10 +2320,10 @@
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2627,10 +2334,10 @@
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2641,10 +2348,10 @@
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2655,10 +2362,10 @@
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2669,7 +2376,7 @@
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2761,10 +2468,10 @@
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2775,10 +2482,10 @@
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2789,10 +2496,10 @@
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2803,10 +2510,10 @@
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2817,10 +2524,10 @@
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2831,7 +2538,7 @@
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="107">
   <si>
     <t>角色名</t>
   </si>
@@ -249,6 +249,69 @@
     <t>对目标100%普攻伤害</t>
   </si>
   <si>
+    <t>以攻击力475%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
+  </si>
+  <si>
+    <t>对目475%技能伤害,友方攻击力+15%(3回合)</t>
+  </si>
+  <si>
+    <t>以攻击力550%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
+  </si>
+  <si>
+    <t>对目550%技能伤害,友方攻击力+15%(3回合)</t>
+  </si>
+  <si>
+    <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
+  </si>
+  <si>
+    <t>对目625%技能伤害,友方攻击力+15%(3回合)</t>
+  </si>
+  <si>
+    <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加20%（3回合）</t>
+  </si>
+  <si>
+    <t>对目625%技能伤害,友方攻击力+20%(3回合)</t>
+  </si>
+  <si>
+    <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加25%（3回合）</t>
+  </si>
+  <si>
+    <t>对目625%技能伤害,友方攻击力+25%(3回合)</t>
+  </si>
+  <si>
+    <t>使我方全体普攻伤害增加50%</t>
+  </si>
+  <si>
+    <t>友方普攻伤害增加50%</t>
+  </si>
+  <si>
+    <t>普攻时，触发“使我方全体普攻伤害增加7.5%（1回合）”效果</t>
+  </si>
+  <si>
+    <t>友方普攻伤害增加7.5%(1回合)</t>
+  </si>
+  <si>
+    <t>必杀时，追加使目标收到伤害增加10%（3回合）且防御状态解除</t>
+  </si>
+  <si>
+    <t>目标受到伤害+10%(3回合)</t>
+  </si>
+  <si>
+    <t>每经过3回合，触发“使我方全体攻击力增加20%（1回合）”效果</t>
+  </si>
+  <si>
+    <t>回合开始</t>
+  </si>
+  <si>
+    <t>3N+1回合触发:则友方攻击力+20%(回合)</t>
+  </si>
+  <si>
+    <t>使自身普攻伤害增加10%</t>
+  </si>
+  <si>
+    <t>普攻伤害增加10%</t>
+  </si>
+  <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
@@ -274,9 +337,6 @@
   </si>
   <si>
     <t>每经过3回合，触发：使我方全体攻击力增加20%（1回合）效果</t>
-  </si>
-  <si>
-    <t>使自身普攻伤害增加10%</t>
   </si>
 </sst>
 </file>
@@ -285,8 +345,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -299,7 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,38 +372,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,11 +396,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,41 +488,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,6 +702,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -675,6 +759,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -694,51 +798,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,133 +822,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,7 +1287,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1428,10 +1488,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1790,7 +1850,7 @@
         <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1816,14 +1876,292 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="7:7">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="2"/>
-    </row>
-    <row r="27" spans="7:7">
-      <c r="G27" s="1"/>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>2002</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>2003</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>2004</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>2005</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>2006</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>2007</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>2008</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2009</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>2010</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>2011</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30">
+        <v>2012</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>6001</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1856,7 +2194,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1873,7 +2211,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1890,7 +2228,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +2245,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1924,7 +2262,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1938,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1955,7 +2293,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1972,7 +2310,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1989,7 +2327,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2006,7 +2344,7 @@
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:4">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -252,43 +252,43 @@
     <t>以攻击力475%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
-    <t>对目475%技能伤害,友方攻击力+15%(3回合)</t>
+    <t>对目标475%技能伤害,友方攻击力+15%(3回合)</t>
   </si>
   <si>
     <t>以攻击力550%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
-    <t>对目550%技能伤害,友方攻击力+15%(3回合)</t>
+    <t>对目标550%技能伤害,友方攻击力+15%(3回合)</t>
   </si>
   <si>
     <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
-    <t>对目625%技能伤害,友方攻击力+15%(3回合)</t>
+    <t>对目标625%技能伤害,友方攻击力+15%(3回合)</t>
   </si>
   <si>
     <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加20%（3回合）</t>
   </si>
   <si>
-    <t>对目625%技能伤害,友方攻击力+20%(3回合)</t>
+    <t>对目标625%技能伤害,友方攻击力+20%(3回合)</t>
   </si>
   <si>
     <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加25%（3回合）</t>
   </si>
   <si>
-    <t>对目625%技能伤害,友方攻击力+25%(3回合)</t>
+    <t>对目标625%技能伤害,友方攻击力+25%(3回合)</t>
   </si>
   <si>
     <t>使我方全体普攻伤害增加50%</t>
   </si>
   <si>
-    <t>友方普攻伤害增加50%</t>
+    <t>友方普攻伤害+50%</t>
   </si>
   <si>
     <t>普攻时，触发“使我方全体普攻伤害增加7.5%（1回合）”效果</t>
   </si>
   <si>
-    <t>友方普攻伤害增加7.5%(1回合)</t>
+    <t>友方普攻伤害+7.5%(1回合)</t>
   </si>
   <si>
     <t>必杀时，追加使目标收到伤害增加10%（3回合）且防御状态解除</t>
@@ -309,7 +309,7 @@
     <t>使自身普攻伤害增加10%</t>
   </si>
   <si>
-    <t>普攻伤害增加10%</t>
+    <t>自身普攻伤害+10%</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -345,8 +345,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -355,59 +355,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,6 +372,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +387,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,9 +418,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,10 +457,41 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -511,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,30 +702,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -744,6 +720,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -755,26 +742,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,7 +765,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,10 +810,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -822,133 +822,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1490,8 +1490,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="116">
   <si>
     <t>角色名</t>
   </si>
@@ -303,13 +303,40 @@
     <t>回合开始</t>
   </si>
   <si>
-    <t>3N+1回合触发:则友方攻击力+20%(回合)</t>
+    <t>3N+1回合触发:则友方攻击力+20%(1回合)</t>
   </si>
   <si>
     <t>使自身普攻伤害增加10%</t>
   </si>
   <si>
     <t>自身普攻伤害+10%</t>
+  </si>
+  <si>
+    <t>普攻时，触发以攻击力25%对我方Hp最低者进行治疗</t>
+  </si>
+  <si>
+    <t>攻击时，触发“以自身攻击力20%使我方全体攻击力增加（1回合）”</t>
+  </si>
+  <si>
+    <t>友方攻击力数值+20%(1回合)</t>
+  </si>
+  <si>
+    <t>必杀时，触发“使我方全体必杀技伤害增加25%（1回合）”</t>
+  </si>
+  <si>
+    <t>友方必杀技伤害+25%(1回合)</t>
+  </si>
+  <si>
+    <t>防御减伤+10%</t>
+  </si>
+  <si>
+    <t>免疫沉默</t>
+  </si>
+  <si>
+    <t>以攻击力50%对我方全体进行治疗</t>
+  </si>
+  <si>
+    <t>对目标0%普攻伤害</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -1287,7 +1314,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1488,10 +1515,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2146,7 +2173,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
       <c r="B32">
         <v>6001</v>
       </c>
@@ -2161,6 +2191,258 @@
       </c>
       <c r="G32" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>3001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>3002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>3003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>3004</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>3005</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>3006</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>3007</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>3008</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42">
+        <v>3009</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>3010</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44">
+        <v>3011</v>
+      </c>
+      <c r="C44" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>3012</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2174,8 +2456,8 @@
   <sheetPr/>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="A15:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2194,7 +2476,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2211,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2228,7 +2510,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2245,7 +2527,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2262,7 +2544,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2276,7 +2558,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2293,7 +2575,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2310,7 +2592,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2327,7 +2609,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="132">
   <si>
     <t>角色名</t>
   </si>
@@ -337,6 +337,54 @@
   </si>
   <si>
     <t>对目标0%普攻伤害</t>
+  </si>
+  <si>
+    <t>使目标受到风属性伤害增加12%（最多2层） 再以攻击力330%对目标造成伤害 CD4</t>
+  </si>
+  <si>
+    <t>目标受到风属性伤害+12%(最多2层),对目标330%技能伤害</t>
+  </si>
+  <si>
+    <t>使目标受到风属性伤害增加12%（最多2层） 再以攻击力376%对目标造成伤害 CD4</t>
+  </si>
+  <si>
+    <t>目标受到风属性伤害+12%(最多2层),对目标376%技能伤害</t>
+  </si>
+  <si>
+    <t>使目标受到风属性伤害增加12%（最多2层） 再以攻击力422%对目标造成伤害 CD4</t>
+  </si>
+  <si>
+    <t>目标受到风属性伤害+12%(最多2层),对目标422%技能伤害</t>
+  </si>
+  <si>
+    <t>使目标受到风属性伤害增加15%（最多2层） 再以攻击力422%对目标造成伤害 CD4</t>
+  </si>
+  <si>
+    <t>目标受到风属性伤害+15%(最多2层),对目标422%技能伤害</t>
+  </si>
+  <si>
+    <t>使目标受到风属性伤害增加18%（最多2层） 再以攻击力422%对目标造成伤害 CD4</t>
+  </si>
+  <si>
+    <t>目标受到风属性伤害+18%(最多2层),对目标422%技能伤害</t>
+  </si>
+  <si>
+    <t>使自身攻击力增加90%，必杀技伤害+30%</t>
+  </si>
+  <si>
+    <t>使自身受到伤害-15% 受到火属性伤害+30%</t>
+  </si>
+  <si>
+    <t>防御时，触发“使自身当前必杀技CD-1"</t>
+  </si>
+  <si>
+    <t>必杀时，触发“使我方全体风属性角色必杀技伤害+15%（最多2层）”效果</t>
+  </si>
+  <si>
+    <t>队伍中风属性必杀技伤害+15%(2层)</t>
+  </si>
+  <si>
+    <t>自身必杀技伤害+10%</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -1314,7 +1362,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1515,10 +1563,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2443,6 +2491,276 @@
       </c>
       <c r="G45" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>4001</v>
+      </c>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>4002</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>4003</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>4004</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>4005</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>4006</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>4007</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>4008</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>4009</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>4010</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>4011</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" t="s">
+        <v>72</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>4012</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2794,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2493,7 +2811,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2510,7 +2828,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2527,7 +2845,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2544,7 +2862,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2558,7 +2876,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2575,7 +2893,7 @@
         <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2592,7 +2910,7 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2609,7 +2927,7 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="149">
   <si>
     <t>角色名</t>
   </si>
@@ -180,42 +180,42 @@
     <t>使精灵王赛鲁西亚获得必杀后 触发目标受到伤害增加20% 3回合 效果</t>
   </si>
   <si>
+    <t>ID2获得技能1018</t>
+  </si>
+  <si>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>一星</t>
+  </si>
+  <si>
+    <t>普攻时，触发 使目标受到我方攻击者伤害增加6%(最多4层) 且受到精灵王赛露西亚伤害增加6%（最多4层）效果</t>
+  </si>
+  <si>
+    <t>释放普攻后</t>
+  </si>
+  <si>
+    <t>目标受到攻击者伤害+6%(最多4层),目标受到精灵王伤害+6%(最多4层)</t>
+  </si>
+  <si>
+    <t>三星</t>
+  </si>
+  <si>
+    <t>普攻时，触发使目标受到普攻伤害增加7.5%（最多4层）效果</t>
+  </si>
+  <si>
+    <t>目标受到普攻伤害+7.5%(最多4层)</t>
+  </si>
+  <si>
+    <t>五星</t>
+  </si>
+  <si>
+    <t>必杀时，触发使我方全体风属性队员造成伤害增加15%（最多2层）效果</t>
+  </si>
+  <si>
     <t>释放必杀后</t>
   </si>
   <si>
-    <t>ID2获得技能:目标受到伤害+20%(3回合)</t>
-  </si>
-  <si>
-    <t>被动</t>
-  </si>
-  <si>
-    <t>一星</t>
-  </si>
-  <si>
-    <t>普攻时，触发 使目标受到我方攻击者伤害增加6%(最多4层) 且受到精灵王赛露西亚伤害增加6%（最多4层）效果</t>
-  </si>
-  <si>
-    <t>释放普攻后</t>
-  </si>
-  <si>
-    <t>目标受到攻击者伤害+6%(最多4层),目标受到精灵王伤害+6%(最多4层)</t>
-  </si>
-  <si>
-    <t>三星</t>
-  </si>
-  <si>
-    <t>普攻时，触发使目标受到普攻伤害增加7.5%（最多4层）效果</t>
-  </si>
-  <si>
-    <t>目标受到普攻伤害+7.5%(最多4层)</t>
-  </si>
-  <si>
-    <t>五星</t>
-  </si>
-  <si>
-    <t>必杀时，触发使我方全体风属性队员造成伤害增加15%（最多2层）效果</t>
-  </si>
-  <si>
     <t>队伍中风属性造成伤害+15%(最多2层)</t>
   </si>
   <si>
@@ -249,6 +249,15 @@
     <t>对目标100%普攻伤害</t>
   </si>
   <si>
+    <t>动态技能</t>
+  </si>
+  <si>
+    <t>必杀后，触发目标受到伤害增加20%（3回合）</t>
+  </si>
+  <si>
+    <t>目标受到伤害+20%(3回合)</t>
+  </si>
+  <si>
     <t>以攻击力475%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
@@ -385,6 +394,48 @@
   </si>
   <si>
     <t>自身必杀技伤害+10%</t>
+  </si>
+  <si>
+    <t>200%伤害，自身96%普攻伤害增加（6回合）</t>
+  </si>
+  <si>
+    <t>对目标330%技能伤害,自身普攻伤害+96%(6回合)</t>
+  </si>
+  <si>
+    <t>200%  118%</t>
+  </si>
+  <si>
+    <t>对目标330%技能伤害,自身普攻伤害+118%(6回合)</t>
+  </si>
+  <si>
+    <t>200%  141%</t>
+  </si>
+  <si>
+    <t>对目标330%技能伤害,自身普攻伤害+141%(6回合)</t>
+  </si>
+  <si>
+    <t>200%  163%</t>
+  </si>
+  <si>
+    <t>对目标330%技能伤害,自身普攻伤害+163%(6回合)</t>
+  </si>
+  <si>
+    <t>200%  186%</t>
+  </si>
+  <si>
+    <t>对目标330%技能伤害,自身普攻伤害+186%(6回合)</t>
+  </si>
+  <si>
+    <t>使自身普攻伤害+20%  我方全体普攻伤害+40%</t>
+  </si>
+  <si>
+    <t>第一回合时，使自己必杀技CD-6  必杀时触发免疫CD变动效果</t>
+  </si>
+  <si>
+    <t>必杀时，触发"普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
+  </si>
+  <si>
+    <t>自身获得技能5013</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -433,6 +484,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -447,6 +513,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -454,9 +528,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,46 +560,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,10 +591,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,7 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,7 +637,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,43 +661,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,7 +703,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +721,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,19 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,19 +799,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,43 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,6 +828,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,11 +883,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,39 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -868,15 +928,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -885,10 +936,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,133 +948,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,10 +1614,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1810,10 +1861,10 @@
         <v>53</v>
       </c>
       <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
         <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1824,19 +1875,19 @@
         <v>1012</v>
       </c>
       <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
         <v>56</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1847,19 +1898,19 @@
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1870,16 +1921,16 @@
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
       </c>
       <c r="G14" t="s">
         <v>66</v>
@@ -1893,7 +1944,7 @@
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>67</v>
@@ -1916,7 +1967,7 @@
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
         <v>71</v>
@@ -1951,27 +2002,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2001</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1018</v>
+      </c>
+      <c r="C18" t="s">
         <v>77</v>
       </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="E18" t="s">
         <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1979,22 +2027,22 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2002,22 +2050,22 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2025,22 +2073,22 @@
         <v>13</v>
       </c>
       <c r="B22">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C22" t="s">
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2048,22 +2096,22 @@
         <v>13</v>
       </c>
       <c r="B23">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
         <v>29</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2071,19 +2119,22 @@
         <v>13</v>
       </c>
       <c r="B24">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>88</v>
+        <v>29</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2091,22 +2142,19 @@
         <v>13</v>
       </c>
       <c r="B25">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2114,22 +2162,22 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2137,21 +2185,21 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2160,22 +2208,22 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
         <v>96</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" t="s">
         <v>97</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2183,22 +2231,22 @@
         <v>13</v>
       </c>
       <c r="B29">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
         <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2206,59 +2254,62 @@
         <v>13</v>
       </c>
       <c r="B30">
+        <v>2011</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
         <v>2012</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>74</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>75</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>6001</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>73</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>74</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>75</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34">
-        <v>3001</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2266,13 +2317,13 @@
         <v>16</v>
       </c>
       <c r="B35">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C35" t="s">
         <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F35" t="s">
         <v>29</v>
@@ -2286,13 +2337,13 @@
         <v>16</v>
       </c>
       <c r="B36">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C36" t="s">
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
@@ -2306,13 +2357,13 @@
         <v>16</v>
       </c>
       <c r="B37">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C37" t="s">
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>29</v>
@@ -2326,13 +2377,13 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
         <v>29</v>
@@ -2346,13 +2397,16 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -2363,19 +2417,13 @@
         <v>16</v>
       </c>
       <c r="B40">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -2386,22 +2434,22 @@
         <v>16</v>
       </c>
       <c r="B41">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
         <v>56</v>
       </c>
-      <c r="D41" t="s">
-        <v>61</v>
-      </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2409,22 +2457,22 @@
         <v>16</v>
       </c>
       <c r="B42">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2432,22 +2480,22 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2455,16 +2503,16 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
         <v>69</v>
@@ -2478,42 +2526,42 @@
         <v>16</v>
       </c>
       <c r="B45">
+        <v>3011</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46">
         <v>3012</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>73</v>
       </c>
-      <c r="E45" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" t="s">
         <v>75</v>
       </c>
-      <c r="G45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47">
-        <v>4001</v>
-      </c>
-      <c r="C47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>108</v>
+      <c r="G46" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2521,22 +2569,22 @@
         <v>18</v>
       </c>
       <c r="B48">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2544,22 +2592,22 @@
         <v>18</v>
       </c>
       <c r="B49">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C49" t="s">
         <v>26</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2567,22 +2615,22 @@
         <v>18</v>
       </c>
       <c r="B50">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2590,22 +2638,22 @@
         <v>18</v>
       </c>
       <c r="B51">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C51" t="s">
         <v>26</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" t="s">
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2613,19 +2661,22 @@
         <v>18</v>
       </c>
       <c r="B52">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2633,19 +2684,16 @@
         <v>18</v>
       </c>
       <c r="B53">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -2656,16 +2704,16 @@
         <v>18</v>
       </c>
       <c r="B54">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
         <v>56</v>
       </c>
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
         <v>69</v>
@@ -2679,22 +2727,22 @@
         <v>18</v>
       </c>
       <c r="B55">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F55" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2702,22 +2750,22 @@
         <v>18</v>
       </c>
       <c r="B56">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2725,22 +2773,22 @@
         <v>18</v>
       </c>
       <c r="B57">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
         <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2748,19 +2796,276 @@
         <v>18</v>
       </c>
       <c r="B58">
+        <v>4011</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
         <v>4012</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>73</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>74</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" t="s">
         <v>75</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>5001</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>5002</v>
+      </c>
+      <c r="C62" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>5003</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64">
+        <v>5004</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65">
+        <v>5005</v>
+      </c>
+      <c r="C65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>5006</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>5007</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>5008</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>60</v>
+      </c>
+      <c r="E68" t="s">
+        <v>138</v>
+      </c>
+      <c r="F68" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69">
+        <v>5009</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>5010</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71">
+        <v>5011</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>5012</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2774,8 +3079,8 @@
   <sheetPr/>
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="A15:G26"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D52" sqref="A41:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2794,7 +3099,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2811,7 +3116,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2828,7 +3133,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2845,7 +3150,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2862,7 +3167,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2876,7 +3181,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2887,13 +3192,13 @@
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2904,13 +3209,13 @@
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2921,13 +3226,13 @@
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2938,13 +3243,13 @@
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2955,7 +3260,7 @@
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>71</v>
@@ -3082,10 +3387,10 @@
         <v>3007</v>
       </c>
       <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
         <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3096,10 +3401,10 @@
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3110,10 +3415,10 @@
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3124,7 +3429,7 @@
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
@@ -3138,7 +3443,7 @@
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>71</v>
@@ -3244,10 +3549,10 @@
         <v>4007</v>
       </c>
       <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
         <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3258,10 +3563,10 @@
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3272,10 +3577,10 @@
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3286,7 +3591,7 @@
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
         <v>67</v>
@@ -3300,7 +3605,7 @@
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>71</v>
@@ -3406,10 +3711,10 @@
         <v>5007</v>
       </c>
       <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" t="s">
         <v>56</v>
-      </c>
-      <c r="D47" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3420,10 +3725,10 @@
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3434,10 +3739,10 @@
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3448,7 +3753,7 @@
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
         <v>67</v>
@@ -3462,7 +3767,7 @@
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
         <v>71</v>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="151">
   <si>
     <t>角色名</t>
   </si>
@@ -435,7 +435,13 @@
     <t>必杀时，触发"普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
   </si>
   <si>
-    <t>自身获得技能5013</t>
+    <t>自身获得技能5013(6回合)</t>
+  </si>
+  <si>
+    <t>普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
+  </si>
+  <si>
+    <t>对{1,2,5}30%普攻伤害</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -1614,10 +1620,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3057,7 +3063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -3066,6 +3072,35 @@
       </c>
       <c r="C72" t="s">
         <v>73</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73">
+        <v>5013</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
+        <v>58</v>
+      </c>
+      <c r="G73" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3134,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3116,7 +3151,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3133,7 +3168,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3150,7 +3185,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3167,7 +3202,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3181,7 +3216,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3198,7 +3233,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3215,7 +3250,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3232,7 +3267,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="153">
   <si>
     <t>角色名</t>
   </si>
@@ -399,31 +399,31 @@
     <t>200%伤害，自身96%普攻伤害增加（6回合）</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身普攻伤害+96%(6回合)</t>
+    <t>对目标200%技能伤害,自身普攻伤害+96%(6回合)</t>
   </si>
   <si>
     <t>200%  118%</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身普攻伤害+118%(6回合)</t>
+    <t>对目标200%技能伤害,自身普攻伤害+118%(6回合)</t>
   </si>
   <si>
     <t>200%  141%</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身普攻伤害+141%(6回合)</t>
+    <t>对目标200%技能伤害,自身普攻伤害+141%(6回合)</t>
   </si>
   <si>
     <t>200%  163%</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身普攻伤害+163%(6回合)</t>
+    <t>对目标200%技能伤害,自身普攻伤害+163%(6回合)</t>
   </si>
   <si>
     <t>200%  186%</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身普攻伤害+186%(6回合)</t>
+    <t>对目标200%技能伤害,自身普攻伤害+186%(6回合)</t>
   </si>
   <si>
     <t>使自身普攻伤害+20%  我方全体普攻伤害+40%</t>
@@ -438,10 +438,16 @@
     <t>自身获得技能5013(6回合)</t>
   </si>
   <si>
+    <t>必杀时，触发”造成伤害+20%（2层）”</t>
+  </si>
+  <si>
+    <t>自身造成伤害+20%(最多2层)</t>
+  </si>
+  <si>
     <t>普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
   </si>
   <si>
-    <t>对{1,2,5}30%普攻伤害</t>
+    <t>对{1_2_5}30%普攻伤害</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -476,8 +482,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -490,18 +496,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,30 +539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,11 +570,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -577,14 +583,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,14 +595,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -620,15 +625,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,25 +649,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,25 +673,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +709,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,43 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,55 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,41 +840,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -883,15 +854,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,6 +882,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -934,6 +929,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -942,10 +948,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -954,16 +960,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,112 +981,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,7 +1629,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3021,7 +3027,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -3034,8 +3040,17 @@
       <c r="D69" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>140</v>
+      </c>
+      <c r="F69" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -3048,8 +3063,17 @@
       <c r="D70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>70</v>
+      </c>
+      <c r="F70" t="s">
+        <v>69</v>
+      </c>
+      <c r="G70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3061,6 +3085,15 @@
       </c>
       <c r="D71" t="s">
         <v>71</v>
+      </c>
+      <c r="E71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3094,13 +3127,13 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
         <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3134,7 +3167,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3151,7 +3184,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3168,7 +3201,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3185,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3202,7 +3235,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3216,7 +3249,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3233,7 +3266,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3250,7 +3283,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3267,7 +3300,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="154">
   <si>
     <t>角色名</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>使自身普攻伤害+20%  我方全体普攻伤害+40%</t>
+  </si>
+  <si>
+    <t>自身普攻伤害+20%,友方普攻伤害+40%</t>
   </si>
   <si>
     <t>第一回合时，使自己必杀技CD-6  必杀时触发免疫CD变动效果</t>
@@ -1628,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C52" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2978,7 +2981,7 @@
         <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2995,7 +2998,7 @@
         <v>56</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F67" t="s">
         <v>69</v>
@@ -3018,13 +3021,13 @@
         <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F68" t="s">
         <v>65</v>
       </c>
       <c r="G68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3041,13 +3044,13 @@
         <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F69" t="s">
         <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3127,13 +3130,13 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
         <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3170,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3184,7 +3187,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3201,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3218,7 +3221,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3235,7 +3238,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3249,7 +3252,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3266,7 +3269,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3283,7 +3286,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3300,7 +3303,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -312,7 +312,7 @@
     <t>回合开始</t>
   </si>
   <si>
-    <t>3N+1回合触发:则友方攻击力+20%(1回合)</t>
+    <t>3N+1回合触发:友方攻击力+20%(1回合)</t>
   </si>
   <si>
     <t>使自身普攻伤害增加10%</t>
@@ -1631,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="155">
   <si>
     <t>角色名</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>使自身攻击力增加90%，必杀技伤害+30%</t>
+  </si>
+  <si>
+    <t>自身攻击力+90%,自身必杀技伤害+30%</t>
   </si>
   <si>
     <t>使自身受到伤害-15% 受到火属性伤害+30%</t>
@@ -1631,8 +1634,8 @@
   <sheetPr/>
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2711,7 +2714,7 @@
         <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2728,7 +2731,7 @@
         <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
         <v>69</v>
@@ -2751,7 +2754,7 @@
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F55" t="s">
         <v>69</v>
@@ -2774,13 +2777,13 @@
         <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F56" t="s">
         <v>65</v>
       </c>
       <c r="G56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2797,13 +2800,13 @@
         <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" t="s">
         <v>69</v>
       </c>
       <c r="G57" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2863,13 +2866,13 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61" t="s">
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2886,13 +2889,13 @@
         <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F62" t="s">
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2909,13 +2912,13 @@
         <v>34</v>
       </c>
       <c r="E63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s">
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2932,13 +2935,13 @@
         <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2955,13 +2958,13 @@
         <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2975,13 +2978,13 @@
         <v>43</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F66" t="s">
         <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2998,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
         <v>69</v>
@@ -3021,13 +3024,13 @@
         <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F68" t="s">
         <v>65</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3044,13 +3047,13 @@
         <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F69" t="s">
         <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3130,13 +3133,13 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
         <v>58</v>
       </c>
       <c r="G73" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3173,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3187,7 +3190,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3204,7 +3207,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3221,7 +3224,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3238,7 +3241,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3252,7 +3255,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3269,7 +3272,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3286,7 +3289,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3303,7 +3306,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="197">
   <si>
     <t>角色名</t>
   </si>
@@ -454,6 +454,546 @@
   </si>
   <si>
     <t>对{1_2_5}30%普攻伤害</t>
+  </si>
+  <si>
+    <t>小恶魔 布兰妮</t>
+  </si>
+  <si>
+    <t>以自身攻击力330%对目标造成伤害，使目标受到小恶魔伤害+10%（2层）</t>
+  </si>
+  <si>
+    <t>对目标330%技能伤害，目标受到自身伤害+10%(最多2层)</t>
+  </si>
+  <si>
+    <t>以自身攻击力376%对目标造成伤害，使目标受到小恶魔伤害+10%（2层）</t>
+  </si>
+  <si>
+    <t>对目标376%技能伤害，目标受到自身伤害+10%(最多2层)</t>
+  </si>
+  <si>
+    <r>
+      <t>使目标受到小恶魔布兰妮伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10/15/15%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以自身攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>422/422/468%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对目标造成伤害，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>全体攻击力+40% 必杀技停止倒数 必杀技伤害+100% 非守护者防御以自身攻击力20%增加小恶魔攻击力</t>
+  </si>
+  <si>
+    <t>友方攻击力+40%,自身必杀技伤害+100%,其他友方获得技能6013</t>
+  </si>
+  <si>
+    <t>普攻时，触发"使必杀技伤害增加10%(4回合)"效果</t>
+  </si>
+  <si>
+    <t>必杀时，触发"使自身攻击力增加50%该效果会在4回合内递减"效果</t>
+  </si>
+  <si>
+    <t>使自身造成伤害增加35%</t>
+  </si>
+  <si>
+    <t>使自身必杀技伤害增加10%</t>
+  </si>
+  <si>
+    <t>使自身免疫睡眠</t>
+  </si>
+  <si>
+    <t>夏日 露露</t>
+  </si>
+  <si>
+    <t>使我方全体攻击力增加20/25/25/30/30%(2回合)，再使我方治疗者与辅助者获得"攻击时，触发"使我方全体攻击力增加15/15/20/20/25%(1回合)"效果(2回合)"，CD: 4</t>
+  </si>
+  <si>
+    <t>使我方全体治疗者与辅助者获得普攻时追加技能"以攻击力100%对目标造成伤害"、必杀时追加技能"以攻击力200%对目标造成伤害"</t>
+  </si>
+  <si>
+    <t>必杀时，触发"以自身攻击力100%对我方全体施放护盾(1回合)"效果</t>
+  </si>
+  <si>
+    <t>每经过4回合，触发"使目标受到伤害增加35%(1回合)"效果</t>
+  </si>
+  <si>
+    <t>第1回合时，触发"使我方治疗者与辅助者必杀技伤害增加40%(50回合)"效果</t>
+  </si>
+  <si>
+    <t>使自身受到伤害减少5%</t>
+  </si>
+  <si>
+    <t>偶像 黑白诺艾利</t>
+  </si>
+  <si>
+    <t>使我方全体获得"每回合以攻击力79.2/91.7/104.2/116.7/129.2%进行治疗(6回合)"效果，并使自身以外的我方队员当前必杀技CD减少1回合，CD: 6</t>
+  </si>
+  <si>
+    <t>使自身必杀技最大CD减少2回合，并使我方全体获得"每回合以攻击力35%进行治疗"效果</t>
+  </si>
+  <si>
+    <t>攻击时，触发"使我方全体被治疗时回复量增加12.5%(2回合)、受到护盾效果增加12.5%(2回合)"效果</t>
+  </si>
+  <si>
+    <t>必杀时，触发"使我方全体攻击力增加10%(12回合)"效果</t>
+  </si>
+  <si>
+    <t>必杀时，触发"以攻击力100%对我方全体施放护盾(4回合)" 效果</t>
+  </si>
+  <si>
+    <t>使自身免疫沉默</t>
+  </si>
+  <si>
+    <t>丰收圣女 菲欧拉</t>
+  </si>
+  <si>
+    <t>使我方全体攻击力增加0/0/0/15/20%(2回合)，使我方全体攻击者、 守护者当前必杀技CD减少1回合、并使我方全体被治疗时回复量增加50%(5回合)，并获得"每回合以攻击力80/95/110/110/110%进行治疗(5回合)"效果，CD: 5</t>
+  </si>
+  <si>
+    <r>
+      <t>我方全体获得最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>35%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；我方全体获得"队伍中有至少(1/2/3)名攻击者时，各发动“攻击力增加(15/15/30)%"效果；我方全体获得"队伍中至少1名守护者时发动"普攻伤害增加40%、必杀伤害增加20%"效果</t>
+    </r>
+  </si>
+  <si>
+    <t>普攻时，触发"使我方全体造成持续型治疗增加10%(最多3层)"效果</t>
+  </si>
+  <si>
+    <t>攻击时，触发"以自身攻击力25%使我方全体攻击力增加(1回合)"效果</t>
+  </si>
+  <si>
+    <t>攻击时，触发"使我方全体造成伤害增加5%(最多5层)"效果</t>
+  </si>
+  <si>
+    <t>以自身攻击力25%对我方全体进行治疗，并以自身攻击力25%每回合对我方全体进行治疗(3回合)</t>
+  </si>
+  <si>
+    <t>新春 凛月</t>
+  </si>
+  <si>
+    <t>使自身攻击力增加50/65/80/95/110%(3回合)，再以攻击力200%对目标造成伤害，使自身造成伤害增加0/0/10/15/20%(最多1层)，CD: 4</t>
+  </si>
+  <si>
+    <r>
+      <t>我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、普攻伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低者受到伤害减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、使自身当前必杀技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果 第1回合时，触发'使自身必杀时，触发"《新春的祝福》"效果(1回合)'效果 《新春的祝福》
+以自身攻击力100%使自身攻击力增加(50回合)，使自身必杀技CD停止倒数(50回合)、免疫必杀技CD变动效果(50回合)</t>
+    </r>
+  </si>
+  <si>
+    <t>普攻时，触发'使目标受到普攻伤害增加20%(最多4层)'效果</t>
+  </si>
+  <si>
+    <t>第1回合时，触发'使我方全体普攻伤害增加30%(50回合)'效果</t>
+  </si>
+  <si>
+    <r>
+      <t>使自身造成伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使目标受到伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
+    </r>
+  </si>
+  <si>
+    <t>使自身免疫麻痹</t>
+  </si>
+  <si>
+    <t>以攻击力125%对目标造成伤害</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -488,12 +1028,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,15 +1042,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF2E6190"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2E6190"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +1078,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,45 +1139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,14 +1150,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -608,6 +1169,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -623,27 +1191,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF2E6190"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -655,7 +1213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +1237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +1255,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,25 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,13 +1363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,25 +1375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,67 +1387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,6 +1404,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -864,26 +1437,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,34 +1490,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,10 +1512,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,137 +1524,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1105,6 +1663,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1491,7 +2058,7 @@
       <c r="H2">
         <v>2000</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1632,10 +2199,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3140,6 +3707,991 @@
       </c>
       <c r="G73" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75">
+        <v>11001</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" t="s">
+        <v>147</v>
+      </c>
+      <c r="F75" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76">
+        <v>11002</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
+        <v>149</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77">
+        <v>11003</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78">
+        <v>11004</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79">
+        <v>11005</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="F79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80">
+        <v>11006</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81">
+        <v>11007</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82">
+        <v>11008</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>146</v>
+      </c>
+      <c r="B83">
+        <v>11009</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84">
+        <v>11010</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B85">
+        <v>11011</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86">
+        <v>11012</v>
+      </c>
+      <c r="C86" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+      <c r="B87">
+        <v>11013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89">
+        <v>7001</v>
+      </c>
+      <c r="C89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90">
+        <v>7002</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+      <c r="B91">
+        <v>7003</v>
+      </c>
+      <c r="C91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92">
+        <v>7004</v>
+      </c>
+      <c r="C92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>159</v>
+      </c>
+      <c r="B93">
+        <v>7005</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94">
+        <v>7006</v>
+      </c>
+      <c r="C94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95">
+        <v>7007</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96">
+        <v>7008</v>
+      </c>
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97">
+        <v>7009</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98">
+        <v>7010</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99">
+        <v>7011</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B100">
+        <v>7012</v>
+      </c>
+      <c r="C100" t="s">
+        <v>73</v>
+      </c>
+      <c r="E100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102">
+        <v>8001</v>
+      </c>
+      <c r="C102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103">
+        <v>8002</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104">
+        <v>8003</v>
+      </c>
+      <c r="C104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105">
+        <v>8004</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106">
+        <v>8005</v>
+      </c>
+      <c r="C106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107">
+        <v>8006</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108">
+        <v>8007</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>56</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109">
+        <v>8008</v>
+      </c>
+      <c r="C109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>60</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110">
+        <v>8009</v>
+      </c>
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111">
+        <v>8010</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112">
+        <v>8011</v>
+      </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113">
+        <v>8012</v>
+      </c>
+      <c r="C113" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115">
+        <v>9001</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>173</v>
+      </c>
+      <c r="B116">
+        <v>9002</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117">
+        <v>9003</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>173</v>
+      </c>
+      <c r="B118">
+        <v>9004</v>
+      </c>
+      <c r="C118" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>173</v>
+      </c>
+      <c r="B119">
+        <v>9005</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120">
+        <v>9006</v>
+      </c>
+      <c r="C120" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121">
+        <v>9007</v>
+      </c>
+      <c r="C121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>173</v>
+      </c>
+      <c r="B122">
+        <v>9008</v>
+      </c>
+      <c r="C122" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>60</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123">
+        <v>9009</v>
+      </c>
+      <c r="C123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D123" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124">
+        <v>9010</v>
+      </c>
+      <c r="C124" t="s">
+        <v>55</v>
+      </c>
+      <c r="D124" t="s">
+        <v>67</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125">
+        <v>9011</v>
+      </c>
+      <c r="C125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D125" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>173</v>
+      </c>
+      <c r="B126">
+        <v>9012</v>
+      </c>
+      <c r="C126" t="s">
+        <v>73</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>180</v>
+      </c>
+      <c r="B128">
+        <v>10001</v>
+      </c>
+      <c r="C128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129">
+        <v>10002</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130">
+        <v>10003</v>
+      </c>
+      <c r="C130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>180</v>
+      </c>
+      <c r="B131">
+        <v>10004</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132">
+        <v>10005</v>
+      </c>
+      <c r="C132" t="s">
+        <v>26</v>
+      </c>
+      <c r="D132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" ht="61.2" spans="1:5">
+      <c r="A133" t="s">
+        <v>180</v>
+      </c>
+      <c r="B133">
+        <v>10006</v>
+      </c>
+      <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>180</v>
+      </c>
+      <c r="B134">
+        <v>10007</v>
+      </c>
+      <c r="C134" t="s">
+        <v>55</v>
+      </c>
+      <c r="D134" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>180</v>
+      </c>
+      <c r="B135">
+        <v>10008</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" t="s">
+        <v>60</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>180</v>
+      </c>
+      <c r="B136">
+        <v>10009</v>
+      </c>
+      <c r="C136" t="s">
+        <v>55</v>
+      </c>
+      <c r="D136" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137">
+        <v>10010</v>
+      </c>
+      <c r="C137" t="s">
+        <v>55</v>
+      </c>
+      <c r="D137" t="s">
+        <v>67</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>180</v>
+      </c>
+      <c r="B138">
+        <v>10011</v>
+      </c>
+      <c r="C138" t="s">
+        <v>55</v>
+      </c>
+      <c r="D138" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>180</v>
+      </c>
+      <c r="B139">
+        <v>10012</v>
+      </c>
+      <c r="C139" t="s">
+        <v>73</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140">
+        <v>10013</v>
       </c>
     </row>
   </sheetData>
@@ -3173,7 +4725,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3190,7 +4742,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3207,7 +4759,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3224,7 +4776,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3241,7 +4793,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3255,7 +4807,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3272,7 +4824,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3289,7 +4841,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3306,7 +4858,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -144,7 +144,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），使目标受到自身伤害增加15%（3回合），再以自身攻击力514%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%(3回合),目标受到小精灵王伤害+15%(3回合),对目标514%技能伤害</t>
+    <t>自身攻击力+30%(3回合),目标受到自身伤害+15%(3回合),对目标514%技能伤害</t>
   </si>
   <si>
     <t>队长技</t>
@@ -2201,8 +2201,8 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="200">
   <si>
     <t>角色名</t>
   </si>
@@ -174,7 +174,7 @@
     <t>使精灵王赛鲁西亚获得必杀技最大CD减少2回合</t>
   </si>
   <si>
-    <t>如果队伍中有ID为2则ID2必杀技能CD-2</t>
+    <t>{精灵王 塞露西亚}必杀技能CD-2</t>
   </si>
   <si>
     <t>使精灵王赛鲁西亚获得必杀后 触发目标受到伤害增加20% 3回合 效果</t>
@@ -576,6 +576,15 @@
   </si>
   <si>
     <t>使自身免疫睡眠</t>
+  </si>
+  <si>
+    <t>防御时，触发自身攻击力20%增加小恶魔攻击力</t>
+  </si>
+  <si>
+    <t>释放防御后</t>
+  </si>
+  <si>
+    <t>{小恶魔 布兰妮}攻击力数值+20%</t>
   </si>
   <si>
     <t>夏日 露露</t>
@@ -2202,7 +2211,7 @@
   <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3937,17 +3946,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>146</v>
       </c>
       <c r="B87">
         <v>11013</v>
       </c>
+      <c r="C87" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" t="s">
+        <v>159</v>
+      </c>
+      <c r="F87" t="s">
+        <v>160</v>
+      </c>
+      <c r="G87" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B89">
         <v>7001</v>
@@ -3959,12 +3980,12 @@
         <v>27</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B90">
         <v>7002</v>
@@ -3978,7 +3999,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B91">
         <v>7003</v>
@@ -3992,7 +4013,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B92">
         <v>7004</v>
@@ -4006,7 +4027,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B93">
         <v>7005</v>
@@ -4020,7 +4041,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B94">
         <v>7006</v>
@@ -4029,12 +4050,12 @@
         <v>43</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B95">
         <v>7007</v>
@@ -4046,12 +4067,12 @@
         <v>56</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B96">
         <v>7008</v>
@@ -4063,12 +4084,12 @@
         <v>60</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B97">
         <v>7009</v>
@@ -4080,12 +4101,12 @@
         <v>63</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B98">
         <v>7010</v>
@@ -4097,12 +4118,12 @@
         <v>67</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B99">
         <v>7011</v>
@@ -4119,7 +4140,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B100">
         <v>7012</v>
@@ -4133,7 +4154,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B102">
         <v>8001</v>
@@ -4145,12 +4166,12 @@
         <v>27</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B103">
         <v>8002</v>
@@ -4164,7 +4185,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B104">
         <v>8003</v>
@@ -4178,7 +4199,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B105">
         <v>8004</v>
@@ -4192,7 +4213,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B106">
         <v>8005</v>
@@ -4206,7 +4227,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B107">
         <v>8006</v>
@@ -4215,12 +4236,12 @@
         <v>43</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B108">
         <v>8007</v>
@@ -4232,12 +4253,12 @@
         <v>56</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B109">
         <v>8008</v>
@@ -4249,12 +4270,12 @@
         <v>60</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B110">
         <v>8009</v>
@@ -4266,12 +4287,12 @@
         <v>63</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B111">
         <v>8010</v>
@@ -4283,12 +4304,12 @@
         <v>67</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B112">
         <v>8011</v>
@@ -4300,12 +4321,12 @@
         <v>71</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B113">
         <v>8012</v>
@@ -4316,7 +4337,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B115">
         <v>9001</v>
@@ -4328,12 +4349,12 @@
         <v>27</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B116">
         <v>9002</v>
@@ -4347,7 +4368,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B117">
         <v>9003</v>
@@ -4361,7 +4382,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B118">
         <v>9004</v>
@@ -4375,7 +4396,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B119">
         <v>9005</v>
@@ -4389,7 +4410,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B120">
         <v>9006</v>
@@ -4398,12 +4419,12 @@
         <v>43</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B121">
         <v>9007</v>
@@ -4415,12 +4436,12 @@
         <v>56</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B122">
         <v>9008</v>
@@ -4432,12 +4453,12 @@
         <v>60</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B123">
         <v>9009</v>
@@ -4449,12 +4470,12 @@
         <v>63</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B124">
         <v>9010</v>
@@ -4471,7 +4492,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B125">
         <v>9011</v>
@@ -4483,12 +4504,12 @@
         <v>71</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B126">
         <v>9012</v>
@@ -4497,12 +4518,12 @@
         <v>73</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B128">
         <v>10001</v>
@@ -4514,12 +4535,12 @@
         <v>27</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B129">
         <v>10002</v>
@@ -4533,7 +4554,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B130">
         <v>10003</v>
@@ -4547,7 +4568,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B131">
         <v>10004</v>
@@ -4561,7 +4582,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B132">
         <v>10005</v>
@@ -4575,7 +4596,7 @@
     </row>
     <row r="133" ht="61.2" spans="1:5">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B133">
         <v>10006</v>
@@ -4584,12 +4605,12 @@
         <v>43</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B134">
         <v>10007</v>
@@ -4601,12 +4622,12 @@
         <v>56</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B135">
         <v>10008</v>
@@ -4618,12 +4639,12 @@
         <v>60</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B136">
         <v>10009</v>
@@ -4635,12 +4656,12 @@
         <v>63</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B137">
         <v>10010</v>
@@ -4657,7 +4678,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B138">
         <v>10011</v>
@@ -4669,12 +4690,12 @@
         <v>71</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B139">
         <v>10012</v>
@@ -4683,12 +4704,12 @@
         <v>73</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B140">
         <v>10013</v>
@@ -4725,7 +4746,7 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4742,7 +4763,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4759,7 +4780,7 @@
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4776,7 +4797,7 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4793,7 +4814,7 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4807,7 +4828,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4824,7 +4845,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4841,7 +4862,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4858,7 +4879,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="233">
   <si>
     <t>角色名</t>
   </si>
@@ -81,6 +81,30 @@
     <t>测试角色</t>
   </si>
   <si>
+    <t>小恶魔 布兰妮</t>
+  </si>
+  <si>
+    <t>火属性</t>
+  </si>
+  <si>
+    <t>夏日 露露</t>
+  </si>
+  <si>
+    <t>水属性</t>
+  </si>
+  <si>
+    <t>偶像 黑白诺艾利</t>
+  </si>
+  <si>
+    <t>丰收圣女 菲欧拉</t>
+  </si>
+  <si>
+    <t>光属性</t>
+  </si>
+  <si>
+    <t>新春 凛月</t>
+  </si>
+  <si>
     <t>技能所属者</t>
   </si>
   <si>
@@ -180,7 +204,7 @@
     <t>使精灵王赛鲁西亚获得必杀后 触发目标受到伤害增加20% 3回合 效果</t>
   </si>
   <si>
-    <t>ID2获得技能1018</t>
+    <t>{精灵王 塞露西亚}获得技能1018</t>
   </si>
   <si>
     <t>被动</t>
@@ -456,9 +480,6 @@
     <t>对{1_2_5}30%普攻伤害</t>
   </si>
   <si>
-    <t>小恶魔 布兰妮</t>
-  </si>
-  <si>
     <t>以自身攻击力330%对目标造成伤害，使目标受到小恶魔伤害+10%（2层）</t>
   </si>
   <si>
@@ -557,6 +578,15 @@
     </r>
   </si>
   <si>
+    <t>目标受到自身伤害增加10%(最多2层),对目标422%伤害</t>
+  </si>
+  <si>
+    <t>目标受到自身伤害增加15%(最多2层),对目标422%伤害</t>
+  </si>
+  <si>
+    <t>目标受到自身伤害增加15%(最多2层),对目标468%伤害</t>
+  </si>
+  <si>
     <t>全体攻击力+40% 必杀技停止倒数 必杀技伤害+100% 非守护者防御以自身攻击力20%增加小恶魔攻击力</t>
   </si>
   <si>
@@ -566,12 +596,18 @@
     <t>普攻时，触发"使必杀技伤害增加10%(4回合)"效果</t>
   </si>
   <si>
+    <t>自身必杀技伤害+10%(4回合)</t>
+  </si>
+  <si>
     <t>必杀时，触发"使自身攻击力增加50%该效果会在4回合内递减"效果</t>
   </si>
   <si>
     <t>使自身造成伤害增加35%</t>
   </si>
   <si>
+    <t>自身造成伤害+35%</t>
+  </si>
+  <si>
     <t>使自身必杀技伤害增加10%</t>
   </si>
   <si>
@@ -587,10 +623,177 @@
     <t>{小恶魔 布兰妮}攻击力数值+20%</t>
   </si>
   <si>
-    <t>夏日 露露</t>
-  </si>
-  <si>
-    <t>使我方全体攻击力增加20/25/25/30/30%(2回合)，再使我方治疗者与辅助者获得"攻击时，触发"使我方全体攻击力增加15/15/20/20/25%(1回合)"效果(2回合)"，CD: 4</t>
+    <r>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20/25/25/30/30%(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再使我方治疗者与辅助者获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15/15/20/20/25%(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>友方攻击力+20%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014</t>
+  </si>
+  <si>
+    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014</t>
+  </si>
+  <si>
+    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7015,队伍中辅助者获得技能7015</t>
   </si>
   <si>
     <t>使我方全体治疗者与辅助者获得普攻时追加技能"以攻击力100%对目标造成伤害"、必杀时追加技能"以攻击力200%对目标造成伤害"</t>
@@ -602,13 +805,22 @@
     <t>每经过4回合，触发"使目标受到伤害增加35%(1回合)"效果</t>
   </si>
   <si>
+    <t>4N+1回合触发:目标受到伤害+35%(1回合)</t>
+  </si>
+  <si>
     <t>第1回合时，触发"使我方治疗者与辅助者必杀技伤害增加40%(50回合)"效果</t>
   </si>
   <si>
+    <t>队伍中治疗者必杀技伤害+40%,队伍中辅助者必杀技伤害+40%</t>
+  </si>
+  <si>
     <t>使自身受到伤害减少5%</t>
   </si>
   <si>
-    <t>偶像 黑白诺艾利</t>
+    <t>以自身攻击力30%使我方全体攻击力增加(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力数值+30%(1回合)</t>
   </si>
   <si>
     <t>使我方全体获得"每回合以攻击力79.2/91.7/104.2/116.7/129.2%进行治疗(6回合)"效果，并使自身以外的我方队员当前必杀技CD减少1回合，CD: 6</t>
@@ -620,19 +832,237 @@
     <t>攻击时，触发"使我方全体被治疗时回复量增加12.5%(2回合)、受到护盾效果增加12.5%(2回合)"效果</t>
   </si>
   <si>
+    <t>释放攻击后</t>
+  </si>
+  <si>
     <t>必杀时，触发"使我方全体攻击力增加10%(12回合)"效果</t>
   </si>
   <si>
+    <t>友方攻击力+10%(12回合)</t>
+  </si>
+  <si>
     <t>必杀时，触发"以攻击力100%对我方全体施放护盾(4回合)" 效果</t>
   </si>
   <si>
     <t>使自身免疫沉默</t>
   </si>
   <si>
-    <t>丰收圣女 菲欧拉</t>
-  </si>
-  <si>
-    <t>使我方全体攻击力增加0/0/0/15/20%(2回合)，使我方全体攻击者、 守护者当前必杀技CD减少1回合、并使我方全体被治疗时回复量增加50%(5回合)，并获得"每回合以攻击力80/95/110/110/110%进行治疗(5回合)"效果，CD: 5</t>
+    <r>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0/0/0/15/20%(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，使我方全体攻击者、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>守护者当前必杀技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合、并使我方全体被治疗时回复量增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合以攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80/95/110/110/110%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 5</t>
+    </r>
+  </si>
+  <si>
+    <t>友方攻击力+15%(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(2回合)</t>
   </si>
   <si>
     <r>
@@ -682,16 +1112,218 @@
     <t>攻击时，触发"以自身攻击力25%使我方全体攻击力增加(1回合)"效果</t>
   </si>
   <si>
+    <t>友方攻击力数值+25%</t>
+  </si>
+  <si>
     <t>攻击时，触发"使我方全体造成伤害增加5%(最多5层)"效果</t>
   </si>
   <si>
-    <t>以自身攻击力25%对我方全体进行治疗，并以自身攻击力25%每回合对我方全体进行治疗(3回合)</t>
-  </si>
-  <si>
-    <t>新春 凛月</t>
-  </si>
-  <si>
-    <t>使自身攻击力增加50/65/80/95/110%(3回合)，再以攻击力200%对目标造成伤害，使自身造成伤害增加0/0/10/15/20%(最多1层)，CD: 4</t>
+    <t>友方造成伤害增加+5%(最多5层)</t>
+  </si>
+  <si>
+    <r>
+      <t>以自身攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对我方全体进行治疗，并以自身攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合对我方全体进行治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使自身攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50/65/80/95/110%(3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再以攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>200%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对目标造成伤害，使自身造成伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0/0/10/15/20%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>自身攻击力+50%(3回合),对目标200%技能伤害</t>
+  </si>
+  <si>
+    <t>自身攻击力+65%(3回合),对目标200%技能伤害</t>
+  </si>
+  <si>
+    <t>自身攻击力+80%(3回合),对目标200%技能伤害,自身造成伤害+10%(最多1层)</t>
+  </si>
+  <si>
+    <t>自身攻击力+95%(3回合),对目标200%技能伤害,自身造成伤害+10%(最多1层)</t>
+  </si>
+  <si>
+    <t>自身攻击力+110%(3回合),对目标200%技能伤害,自身造成伤害+10%(最多1层)</t>
   </si>
   <si>
     <r>
@@ -901,9 +1533,15 @@
     <t>普攻时，触发'使目标受到普攻伤害增加20%(最多4层)'效果</t>
   </si>
   <si>
+    <t>目标受到普攻伤害+20%(最多4层)</t>
+  </si>
+  <si>
     <t>第1回合时，触发'使我方全体普攻伤害增加30%(50回合)'效果</t>
   </si>
   <si>
+    <t>友方普攻伤害+30%</t>
+  </si>
+  <si>
     <r>
       <t>使自身造成伤害增加</t>
     </r>
@@ -999,10 +1637,19 @@
     </r>
   </si>
   <si>
+    <t>自身造成伤害+10%</t>
+  </si>
+  <si>
+    <t>目标受到伤害+5%(最多5层)</t>
+  </si>
+  <si>
     <t>使自身免疫麻痹</t>
   </si>
   <si>
     <t>以攻击力125%对目标造成伤害</t>
+  </si>
+  <si>
+    <t>对目标125%普攻伤害</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -1051,15 +1698,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF2E6190"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF2E6190"/>
       <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2E6190"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1679,7 +2326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1737,6 +2384,28 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2004,13 +2673,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
@@ -2196,6 +2865,136 @@
         <v>2000</v>
       </c>
       <c r="H7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2000</v>
+      </c>
+      <c r="H8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12">
         <v>2000</v>
       </c>
     </row>
@@ -2210,22 +3009,22 @@
   <sheetPr/>
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="88.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="73.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="12.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="73.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2234,16 +3033,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2254,19 +3053,19 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2277,19 +3076,19 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2300,19 +3099,19 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2323,19 +3122,19 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2346,19 +3145,19 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2369,16 +3168,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2389,16 +3188,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2409,16 +3208,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2429,16 +3228,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2449,16 +3248,16 @@
         <v>1011</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
-        <v>45</v>
-      </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2469,19 +3268,19 @@
         <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2492,19 +3291,19 @@
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2515,19 +3314,19 @@
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
@@ -2538,19 +3337,19 @@
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2561,19 +3360,19 @@
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2584,16 +3383,16 @@
         <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2604,16 +3403,16 @@
         <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2624,19 +3423,19 @@
         <v>2001</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2647,19 +3446,19 @@
         <v>2002</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2670,19 +3469,19 @@
         <v>2003</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2693,19 +3492,19 @@
         <v>2004</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" t="s">
-        <v>29</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2716,19 +3515,19 @@
         <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2739,16 +3538,16 @@
         <v>2006</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2759,19 +3558,19 @@
         <v>2007</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2782,19 +3581,19 @@
         <v>2008</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2805,19 +3604,19 @@
         <v>2009</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2828,19 +3627,19 @@
         <v>2010</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2851,19 +3650,19 @@
         <v>2011</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2874,16 +3673,16 @@
         <v>2012</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2894,16 +3693,16 @@
         <v>6001</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2914,16 +3713,16 @@
         <v>3001</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2934,16 +3733,16 @@
         <v>3002</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2954,16 +3753,16 @@
         <v>3003</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2974,16 +3773,16 @@
         <v>3004</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
         <v>37</v>
       </c>
-      <c r="F38" t="s">
-        <v>29</v>
-      </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2994,16 +3793,16 @@
         <v>3005</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3014,13 +3813,13 @@
         <v>3006</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3031,19 +3830,19 @@
         <v>3007</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3054,19 +3853,19 @@
         <v>3008</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3077,19 +3876,19 @@
         <v>3009</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3100,19 +3899,19 @@
         <v>3010</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3123,19 +3922,19 @@
         <v>3011</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3146,16 +3945,16 @@
         <v>3012</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3166,19 +3965,19 @@
         <v>4001</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3189,19 +3988,19 @@
         <v>4002</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3212,19 +4011,19 @@
         <v>4003</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3235,19 +4034,19 @@
         <v>4004</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
         <v>37</v>
       </c>
-      <c r="E51" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" t="s">
-        <v>29</v>
-      </c>
       <c r="G51" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3258,19 +4057,19 @@
         <v>4005</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3281,16 +4080,16 @@
         <v>4006</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3301,19 +4100,19 @@
         <v>4007</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3324,19 +4123,19 @@
         <v>4008</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3347,19 +4146,19 @@
         <v>4009</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3370,19 +4169,19 @@
         <v>4010</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F57" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3393,19 +4192,19 @@
         <v>4011</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3416,16 +4215,16 @@
         <v>4012</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3436,19 +4235,19 @@
         <v>5001</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3459,19 +4258,19 @@
         <v>5002</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3482,19 +4281,19 @@
         <v>5003</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3505,19 +4304,19 @@
         <v>5004</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" t="s">
         <v>37</v>
       </c>
-      <c r="E64" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" t="s">
-        <v>29</v>
-      </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3528,19 +4327,19 @@
         <v>5005</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3551,16 +4350,16 @@
         <v>5006</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3571,19 +4370,19 @@
         <v>5007</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3594,19 +4393,19 @@
         <v>5008</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3617,19 +4416,19 @@
         <v>5009</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3640,19 +4439,19 @@
         <v>5010</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3663,19 +4462,19 @@
         <v>5011</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3686,16 +4485,16 @@
         <v>5012</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F72" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3706,1016 +4505,1373 @@
         <v>5013</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B75">
         <v>11001</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B76">
         <v>11002</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B77">
         <v>11003</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" t="s">
-        <v>151</v>
+        <v>42</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B78">
         <v>11004</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" t="s">
         <v>37</v>
       </c>
-      <c r="F78" t="s">
-        <v>29</v>
-      </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B79">
         <v>11005</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B80">
         <v>11006</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F80" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G80" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <v>11007</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>164</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B82">
         <v>11008</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D82" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>166</v>
+      </c>
+      <c r="F82" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B83">
         <v>11009</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>167</v>
+      </c>
+      <c r="F83" t="s">
+        <v>77</v>
+      </c>
+      <c r="G83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B84">
         <v>11010</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
+        <v>77</v>
+      </c>
+      <c r="G84" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B85">
         <v>11011</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D85" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>170</v>
+      </c>
+      <c r="F85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B86">
         <v>11012</v>
       </c>
       <c r="C86" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
+        <v>83</v>
+      </c>
+      <c r="G86" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B87">
         <v>11013</v>
       </c>
       <c r="C87" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G87" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B89">
         <v>7001</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B90">
         <v>7002</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
+        <v>37</v>
+      </c>
+      <c r="G90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B91">
         <v>7003</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>7004</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="G92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B93">
         <v>7005</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F93" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>7006</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B95">
         <v>7007</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="E95" t="s">
+        <v>181</v>
+      </c>
+      <c r="F95" t="s">
+        <v>73</v>
+      </c>
+      <c r="G95" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B96">
         <v>7008</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D96" t="s">
-        <v>60</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B97">
         <v>7009</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B98">
         <v>7010</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B99">
         <v>7011</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="E99" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>7012</v>
       </c>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="F100" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B102">
         <v>8001</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E102" t="s">
+        <v>189</v>
+      </c>
+      <c r="F102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>8002</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="F103" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B104">
         <v>8003</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D104" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="F104" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B105">
         <v>8004</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F105" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="G105" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B106">
         <v>8005</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F106" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B107">
         <v>8006</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="E107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B108">
         <v>8007</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D108" t="s">
-        <v>56</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="E108" t="s">
+        <v>191</v>
+      </c>
+      <c r="F108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G108" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B109">
         <v>8008</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D109" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E109" t="s">
+        <v>193</v>
+      </c>
+      <c r="F109" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B110">
         <v>8009</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="E110" t="s">
+        <v>195</v>
+      </c>
+      <c r="F110" t="s">
+        <v>73</v>
+      </c>
+      <c r="G110" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B111">
         <v>8010</v>
       </c>
       <c r="C111" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="E111" t="s">
+        <v>186</v>
+      </c>
+      <c r="F111" t="s">
+        <v>77</v>
+      </c>
+      <c r="G111" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B112">
         <v>8011</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="E112" t="s">
+        <v>196</v>
+      </c>
+      <c r="F112" t="s">
+        <v>77</v>
+      </c>
+      <c r="G112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="B113">
         <v>8012</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>81</v>
+      </c>
+      <c r="E113" t="s">
+        <v>187</v>
+      </c>
+      <c r="F113" t="s">
+        <v>83</v>
+      </c>
+      <c r="G113" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B115">
         <v>9001</v>
       </c>
       <c r="C115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F115" t="s">
+        <v>37</v>
+      </c>
+      <c r="G115" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
         <v>26</v>
-      </c>
-      <c r="D115" t="s">
-        <v>27</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>176</v>
       </c>
       <c r="B116">
         <v>9002</v>
       </c>
       <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
         <v>26</v>
-      </c>
-      <c r="D116" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>176</v>
       </c>
       <c r="B117">
         <v>9003</v>
       </c>
       <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s">
+        <v>37</v>
+      </c>
+      <c r="G117" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
         <v>26</v>
-      </c>
-      <c r="D117" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>176</v>
       </c>
       <c r="B118">
         <v>9004</v>
       </c>
       <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
         <v>26</v>
-      </c>
-      <c r="D118" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>176</v>
       </c>
       <c r="B119">
         <v>9005</v>
       </c>
       <c r="C119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+      <c r="G119" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
         <v>26</v>
-      </c>
-      <c r="D119" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>176</v>
       </c>
       <c r="B120">
         <v>9006</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>51</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F120" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B121">
         <v>9007</v>
       </c>
       <c r="C121" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F121" t="s">
+        <v>66</v>
+      </c>
+      <c r="G121" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B122">
         <v>9008</v>
       </c>
       <c r="C122" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F122" t="s">
+        <v>192</v>
+      </c>
+      <c r="G122" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B123">
         <v>9009</v>
       </c>
       <c r="C123" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F123" t="s">
+        <v>192</v>
+      </c>
+      <c r="G123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B124">
         <v>9010</v>
       </c>
       <c r="C124" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>67</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F124" t="s">
+        <v>77</v>
+      </c>
+      <c r="G124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B125">
         <v>9011</v>
       </c>
       <c r="C125" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>79</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F125" t="s">
+        <v>77</v>
+      </c>
+      <c r="G125" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="B126">
         <v>9012</v>
       </c>
       <c r="C126" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F126" t="s">
+        <v>83</v>
+      </c>
+      <c r="G126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B128">
         <v>10001</v>
       </c>
       <c r="C128" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D128" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+        <v>207</v>
+      </c>
+      <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B129">
         <v>10002</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="F129" t="s">
+        <v>37</v>
+      </c>
+      <c r="G129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B130">
         <v>10003</v>
       </c>
       <c r="C130" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+        <v>42</v>
+      </c>
+      <c r="F130" t="s">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B131">
         <v>10004</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D131" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="G131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B132">
         <v>10005</v>
       </c>
       <c r="C132" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" ht="61.2" spans="1:5">
+        <v>48</v>
+      </c>
+      <c r="F132" t="s">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" ht="61.2" spans="1:7">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B133">
         <v>10006</v>
       </c>
       <c r="C133" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="F133" t="s">
+        <v>53</v>
+      </c>
+      <c r="G133" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B134">
         <v>10007</v>
       </c>
       <c r="C134" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F134" t="s">
+        <v>66</v>
+      </c>
+      <c r="G134" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B135">
         <v>10008</v>
       </c>
       <c r="C135" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D135" t="s">
-        <v>60</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F135" t="s">
+        <v>53</v>
+      </c>
+      <c r="G135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B136">
         <v>10009</v>
       </c>
       <c r="C136" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F136" t="s">
+        <v>53</v>
+      </c>
+      <c r="G136" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B137">
         <v>10010</v>
       </c>
       <c r="C137" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D137" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="F137" t="s">
+        <v>192</v>
+      </c>
+      <c r="G137" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B138">
         <v>10011</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D138" t="s">
-        <v>71</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F138" t="s">
+        <v>77</v>
+      </c>
+      <c r="G138" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B139">
         <v>10012</v>
       </c>
       <c r="C139" t="s">
-        <v>73</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>79</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F139" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="B140">
         <v>10013</v>
       </c>
+      <c r="C140" t="s">
+        <v>81</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F140" t="s">
+        <v>83</v>
+      </c>
+      <c r="G140" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="没做">
+      <formula>NOT(ISERROR(SEARCH("没做",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="$A1:$XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4740,13 +5896,13 @@
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4757,13 +5913,13 @@
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4774,13 +5930,13 @@
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4791,13 +5947,13 @@
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4808,13 +5964,13 @@
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4825,10 +5981,10 @@
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4839,13 +5995,13 @@
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4856,13 +6012,13 @@
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4873,13 +6029,13 @@
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4890,13 +6046,13 @@
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4907,10 +6063,10 @@
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4921,13 +6077,13 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4938,13 +6094,13 @@
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4955,13 +6111,13 @@
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4972,13 +6128,13 @@
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4989,13 +6145,13 @@
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5006,13 +6162,13 @@
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5023,7 +6179,7 @@
         <v>3006</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5034,10 +6190,10 @@
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5048,10 +6204,10 @@
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5062,10 +6218,10 @@
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5076,10 +6232,10 @@
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5090,10 +6246,10 @@
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5104,7 +6260,7 @@
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5115,10 +6271,10 @@
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5129,10 +6285,10 @@
         <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5143,10 +6299,10 @@
         <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5157,10 +6313,10 @@
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5171,10 +6327,10 @@
         <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5185,7 +6341,7 @@
         <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5196,10 +6352,10 @@
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5210,10 +6366,10 @@
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5224,10 +6380,10 @@
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -5238,10 +6394,10 @@
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -5252,10 +6408,10 @@
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5266,7 +6422,7 @@
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5277,10 +6433,10 @@
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -5291,10 +6447,10 @@
         <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -5305,10 +6461,10 @@
         <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -5319,10 +6475,10 @@
         <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -5333,10 +6489,10 @@
         <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5347,7 +6503,7 @@
         <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -5358,10 +6514,10 @@
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -5372,10 +6528,10 @@
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -5386,10 +6542,10 @@
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -5400,10 +6556,10 @@
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -5414,10 +6570,10 @@
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5428,7 +6584,7 @@
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="237">
   <si>
     <t>角色名</t>
   </si>
@@ -351,6 +351,9 @@
     <t>攻击时，触发“以自身攻击力20%使我方全体攻击力增加（1回合）”</t>
   </si>
   <si>
+    <t>攻击后</t>
+  </si>
+  <si>
     <t>友方攻击力数值+20%(1回合)</t>
   </si>
   <si>
@@ -578,19 +581,19 @@
     </r>
   </si>
   <si>
-    <t>目标受到自身伤害增加10%(最多2层),对目标422%伤害</t>
-  </si>
-  <si>
-    <t>目标受到自身伤害增加15%(最多2层),对目标422%伤害</t>
-  </si>
-  <si>
-    <t>目标受到自身伤害增加15%(最多2层),对目标468%伤害</t>
+    <t>目标受到自身伤害+10%(最多2层),对目标422%伤害</t>
+  </si>
+  <si>
+    <t>目标受到自身伤害+15%(最多2层),对目标422%伤害</t>
+  </si>
+  <si>
+    <t>目标受到自身伤害+15%(最多2层),对目标468%伤害</t>
   </si>
   <si>
     <t>全体攻击力+40% 必杀技停止倒数 必杀技伤害+100% 非守护者防御以自身攻击力20%增加小恶魔攻击力</t>
   </si>
   <si>
-    <t>友方攻击力+40%,自身必杀技伤害+100%,其他友方获得技能6013</t>
+    <t>友方攻击力+40%,自身必杀技伤害+100%,其他友方获得技能11013</t>
   </si>
   <si>
     <t>普攻时，触发"使必杀技伤害增加10%(4回合)"效果</t>
@@ -781,19 +784,19 @@
     </r>
   </si>
   <si>
-    <t>友方攻击力+20%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013</t>
-  </si>
-  <si>
-    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013</t>
-  </si>
-  <si>
-    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014</t>
-  </si>
-  <si>
-    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014</t>
-  </si>
-  <si>
-    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7015,队伍中辅助者获得技能7015</t>
+    <t>友方攻击力+20%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7015,队伍中辅助者获得技能7015(2回合)</t>
   </si>
   <si>
     <t>使我方全体治疗者与辅助者获得普攻时追加技能"以攻击力100%对目标造成伤害"、必杀时追加技能"以攻击力200%对目标造成伤害"</t>
@@ -823,6 +826,18 @@
     <t>友方攻击力数值+30%(1回合)</t>
   </si>
   <si>
+    <t>攻击时，触发"使我方全体攻击力增加15/15/20/20/25%(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+15%(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(1回合)</t>
+  </si>
+  <si>
     <t>使我方全体获得"每回合以攻击力79.2/91.7/104.2/116.7/129.2%进行治疗(6回合)"效果，并使自身以外的我方队员当前必杀技CD减少1回合，CD: 6</t>
   </si>
   <si>
@@ -832,9 +847,6 @@
     <t>攻击时，触发"使我方全体被治疗时回复量增加12.5%(2回合)、受到护盾效果增加12.5%(2回合)"效果</t>
   </si>
   <si>
-    <t>释放攻击后</t>
-  </si>
-  <si>
     <t>必杀时，触发"使我方全体攻击力增加10%(12回合)"效果</t>
   </si>
   <si>
@@ -1080,7 +1092,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF2E6190"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1089,7 +1101,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF2E6190"/>
+        <color theme="1"/>
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
@@ -1098,7 +1110,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF2E6190"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -1112,13 +1124,13 @@
     <t>攻击时，触发"以自身攻击力25%使我方全体攻击力增加(1回合)"效果</t>
   </si>
   <si>
-    <t>友方攻击力数值+25%</t>
+    <t>友方攻击力数值+25%(1回合)</t>
   </si>
   <si>
     <t>攻击时，触发"使我方全体造成伤害增加5%(最多5层)"效果</t>
   </si>
   <si>
-    <t>友方造成伤害增加+5%(最多5层)</t>
+    <t>友方造成伤害+5%(最多5层)</t>
   </si>
   <si>
     <r>
@@ -1689,7 +1701,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,12 +1713,6 @@
       <sz val="10"/>
       <color rgb="FF2E6190"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF2E6190"/>
-      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1856,6 +1862,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF2E6190"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -2168,10 +2186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2180,137 +2198,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,12 +2340,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -2736,7 +2748,7 @@
       <c r="H2">
         <v>2000</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3007,10 +3019,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E140" sqref="E140"/>
+    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3862,10 +3874,10 @@
         <v>110</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3882,13 +3894,13 @@
         <v>71</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F43" t="s">
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3905,7 +3917,7 @@
         <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
         <v>77</v>
@@ -3928,7 +3940,7 @@
         <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s">
         <v>77</v>
@@ -3948,13 +3960,13 @@
         <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F46" t="s">
         <v>83</v>
       </c>
       <c r="G46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3971,13 +3983,13 @@
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3994,13 +4006,13 @@
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
         <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4017,13 +4029,13 @@
         <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4040,13 +4052,13 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F51" t="s">
         <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4063,13 +4075,13 @@
         <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F52" t="s">
         <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4083,13 +4095,13 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F53" t="s">
         <v>53</v>
       </c>
       <c r="G53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4106,7 +4118,7 @@
         <v>64</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F54" t="s">
         <v>77</v>
@@ -4129,7 +4141,7 @@
         <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
         <v>77</v>
@@ -4152,13 +4164,13 @@
         <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
         <v>73</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4175,13 +4187,13 @@
         <v>75</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
         <v>77</v>
       </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4241,13 +4253,13 @@
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
         <v>37</v>
       </c>
       <c r="G61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4264,13 +4276,13 @@
         <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4287,13 +4299,13 @@
         <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4310,13 +4322,13 @@
         <v>45</v>
       </c>
       <c r="E64" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F64" t="s">
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4333,13 +4345,13 @@
         <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4353,13 +4365,13 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
       </c>
       <c r="G66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4376,7 +4388,7 @@
         <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F67" t="s">
         <v>77</v>
@@ -4399,13 +4411,13 @@
         <v>68</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4422,13 +4434,13 @@
         <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F69" t="s">
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4508,13 +4520,13 @@
         <v>85</v>
       </c>
       <c r="E73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F73" t="s">
         <v>66</v>
       </c>
       <c r="G73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4531,13 +4543,13 @@
         <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F75" t="s">
         <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4554,13 +4566,13 @@
         <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4577,13 +4589,13 @@
         <v>42</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
         <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4603,7 +4615,7 @@
         <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4623,7 +4635,7 @@
         <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4637,13 +4649,13 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
         <v>53</v>
       </c>
       <c r="G80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4660,13 +4672,13 @@
         <v>64</v>
       </c>
       <c r="E81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F81" t="s">
         <v>66</v>
       </c>
       <c r="G81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4683,7 +4695,7 @@
         <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
         <v>73</v>
@@ -4706,13 +4718,13 @@
         <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F83" t="s">
         <v>77</v>
       </c>
       <c r="G83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4729,13 +4741,13 @@
         <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
         <v>77</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4752,7 +4764,7 @@
         <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F85" t="s">
         <v>77</v>
@@ -4792,13 +4804,13 @@
         <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4815,13 +4827,13 @@
         <v>35</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
         <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4841,7 +4853,7 @@
         <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4861,7 +4873,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4881,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4901,7 +4913,7 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4915,7 +4927,7 @@
         <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
         <v>53</v>
@@ -4938,7 +4950,7 @@
         <v>64</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
         <v>73</v>
@@ -4961,13 +4973,13 @@
         <v>68</v>
       </c>
       <c r="E96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
         <v>105</v>
       </c>
       <c r="G96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4984,13 +4996,13 @@
         <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
         <v>53</v>
       </c>
       <c r="G97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5007,7 +5019,7 @@
         <v>75</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
         <v>77</v>
@@ -5030,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="E99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F99" t="s">
         <v>77</v>
@@ -5050,76 +5062,58 @@
         <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F100" t="s">
         <v>83</v>
       </c>
       <c r="G100" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
-        <v>25</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101">
+        <v>7013</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
+        <v>111</v>
+      </c>
+      <c r="G101" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
       <c r="B102">
-        <v>8001</v>
+        <v>7014</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G102" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
-        <v>25</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
       <c r="B103">
-        <v>8002</v>
+        <v>7015</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="G103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
-        <v>25</v>
-      </c>
-      <c r="B104">
-        <v>8003</v>
-      </c>
-      <c r="C104" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104" t="s">
-        <v>42</v>
-      </c>
-      <c r="F104" t="s">
-        <v>37</v>
-      </c>
-      <c r="G104" t="s">
-        <v>54</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5127,13 +5121,16 @@
         <v>25</v>
       </c>
       <c r="B105">
-        <v>8004</v>
+        <v>8001</v>
       </c>
       <c r="C105" t="s">
         <v>34</v>
       </c>
       <c r="D105" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="E105" t="s">
+        <v>194</v>
       </c>
       <c r="F105" t="s">
         <v>37</v>
@@ -5147,13 +5144,13 @@
         <v>25</v>
       </c>
       <c r="B106">
-        <v>8005</v>
+        <v>8002</v>
       </c>
       <c r="C106" t="s">
         <v>34</v>
       </c>
       <c r="D106" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
         <v>37</v>
@@ -5167,16 +5164,16 @@
         <v>25</v>
       </c>
       <c r="B107">
-        <v>8006</v>
+        <v>8003</v>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
-      </c>
-      <c r="E107" t="s">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
         <v>54</v>
@@ -5187,19 +5184,16 @@
         <v>25</v>
       </c>
       <c r="B108">
-        <v>8007</v>
+        <v>8004</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
-      </c>
-      <c r="E108" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
         <v>54</v>
@@ -5210,22 +5204,19 @@
         <v>25</v>
       </c>
       <c r="B109">
-        <v>8008</v>
+        <v>8005</v>
       </c>
       <c r="C109" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D109" t="s">
-        <v>68</v>
-      </c>
-      <c r="E109" t="s">
-        <v>193</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="G109" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5233,19 +5224,16 @@
         <v>25</v>
       </c>
       <c r="B110">
-        <v>8009</v>
+        <v>8006</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E110" t="s">
         <v>195</v>
       </c>
       <c r="F110" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G110" t="s">
         <v>54</v>
@@ -5256,19 +5244,19 @@
         <v>25</v>
       </c>
       <c r="B111">
-        <v>8010</v>
+        <v>8007</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E111" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G111" t="s">
         <v>54</v>
@@ -5279,22 +5267,22 @@
         <v>25</v>
       </c>
       <c r="B112">
-        <v>8011</v>
+        <v>8008</v>
       </c>
       <c r="C112" t="s">
         <v>63</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E112" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F112" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G112" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5302,39 +5290,65 @@
         <v>25</v>
       </c>
       <c r="B113">
-        <v>8012</v>
+        <v>8009</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>71</v>
       </c>
       <c r="E113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" t="s">
+        <v>73</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114">
+        <v>8010</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>75</v>
+      </c>
+      <c r="E114" t="s">
         <v>187</v>
       </c>
-      <c r="F113" t="s">
-        <v>83</v>
-      </c>
-      <c r="G113" t="s">
-        <v>188</v>
+      <c r="F114" t="s">
+        <v>77</v>
+      </c>
+      <c r="G114" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115">
-        <v>9001</v>
+        <v>8011</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D115" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>197</v>
+        <v>79</v>
+      </c>
+      <c r="E115" t="s">
+        <v>200</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G115" t="s">
         <v>54</v>
@@ -5342,42 +5356,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>9002</v>
+        <v>8012</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
-      </c>
-      <c r="D116" t="s">
-        <v>39</v>
+        <v>81</v>
+      </c>
+      <c r="E116" t="s">
+        <v>188</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G116" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
-        <v>26</v>
-      </c>
-      <c r="B117">
-        <v>9003</v>
-      </c>
-      <c r="C117" t="s">
-        <v>34</v>
-      </c>
-      <c r="D117" t="s">
-        <v>42</v>
-      </c>
-      <c r="F117" t="s">
-        <v>37</v>
-      </c>
-      <c r="G117" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5385,19 +5379,22 @@
         <v>26</v>
       </c>
       <c r="B118">
-        <v>9004</v>
+        <v>9001</v>
       </c>
       <c r="C118" t="s">
         <v>34</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5405,19 +5402,19 @@
         <v>26</v>
       </c>
       <c r="B119">
-        <v>9005</v>
+        <v>9002</v>
       </c>
       <c r="C119" t="s">
         <v>34</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F119" t="s">
         <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5425,16 +5422,16 @@
         <v>26</v>
       </c>
       <c r="B120">
-        <v>9006</v>
+        <v>9003</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>200</v>
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
         <v>54</v>
@@ -5445,22 +5442,19 @@
         <v>26</v>
       </c>
       <c r="B121">
-        <v>9007</v>
+        <v>9004</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D121" t="s">
-        <v>64</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="F121" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5468,19 +5462,16 @@
         <v>26</v>
       </c>
       <c r="B122">
-        <v>9008</v>
+        <v>9005</v>
       </c>
       <c r="C122" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>68</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
         <v>203</v>
@@ -5491,22 +5482,19 @@
         <v>26</v>
       </c>
       <c r="B123">
-        <v>9009</v>
+        <v>9006</v>
       </c>
       <c r="C123" t="s">
-        <v>63</v>
-      </c>
-      <c r="D123" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F123" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="G123" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5514,22 +5502,22 @@
         <v>26</v>
       </c>
       <c r="B124">
-        <v>9010</v>
+        <v>9007</v>
       </c>
       <c r="C124" t="s">
         <v>63</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F124" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G124" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5537,22 +5525,22 @@
         <v>26</v>
       </c>
       <c r="B125">
-        <v>9011</v>
+        <v>9008</v>
       </c>
       <c r="C125" t="s">
         <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>196</v>
+        <v>68</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="F125" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="G125" t="s">
-        <v>54</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5560,102 +5548,114 @@
         <v>26</v>
       </c>
       <c r="B126">
-        <v>9012</v>
+        <v>9009</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="F126" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G126" t="s">
-        <v>117</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127">
+        <v>9010</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>75</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F127" t="s">
+        <v>77</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B128">
-        <v>10001</v>
+        <v>9011</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D128" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>207</v>
+        <v>79</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G128" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B129">
-        <v>10002</v>
+        <v>9012</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129" t="s">
-        <v>39</v>
+        <v>81</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G129" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>28</v>
-      </c>
-      <c r="B130">
-        <v>10003</v>
-      </c>
-      <c r="C130" t="s">
-        <v>34</v>
-      </c>
-      <c r="D130" t="s">
-        <v>42</v>
-      </c>
-      <c r="F130" t="s">
-        <v>37</v>
-      </c>
-      <c r="G130" t="s">
-        <v>210</v>
-      </c>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>28</v>
       </c>
       <c r="B131">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="C131" t="s">
         <v>34</v>
       </c>
       <c r="D131" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="F131" t="s">
         <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5663,39 +5663,41 @@
         <v>28</v>
       </c>
       <c r="B132">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="C132" t="s">
         <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>48</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E132" s="2"/>
       <c r="F132" t="s">
         <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="133" ht="61.2" spans="1:7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>28</v>
       </c>
       <c r="B133">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="C133" t="s">
-        <v>51</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>213</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5703,19 +5705,17 @@
         <v>28</v>
       </c>
       <c r="B134">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>64</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>214</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>215</v>
@@ -5726,22 +5726,20 @@
         <v>28</v>
       </c>
       <c r="B135">
-        <v>10008</v>
+        <v>10005</v>
       </c>
       <c r="C135" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D135" t="s">
-        <v>68</v>
-      </c>
-      <c r="E135" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E135" s="2"/>
+      <c r="F135" t="s">
+        <v>37</v>
+      </c>
+      <c r="G135" t="s">
         <v>216</v>
-      </c>
-      <c r="F135" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5749,22 +5747,19 @@
         <v>28</v>
       </c>
       <c r="B136">
-        <v>10009</v>
+        <v>10006</v>
       </c>
       <c r="C136" t="s">
-        <v>63</v>
-      </c>
-      <c r="D136" t="s">
-        <v>71</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>218</v>
+        <v>51</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="F136" t="s">
         <v>53</v>
       </c>
       <c r="G136" t="s">
-        <v>219</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5772,22 +5767,22 @@
         <v>28</v>
       </c>
       <c r="B137">
-        <v>10010</v>
+        <v>10007</v>
       </c>
       <c r="C137" t="s">
         <v>63</v>
       </c>
       <c r="D137" t="s">
-        <v>71</v>
-      </c>
-      <c r="E137" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F137" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="G137" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5795,22 +5790,22 @@
         <v>28</v>
       </c>
       <c r="B138">
-        <v>10011</v>
+        <v>10008</v>
       </c>
       <c r="C138" t="s">
         <v>63</v>
       </c>
       <c r="D138" t="s">
-        <v>75</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="F138" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G138" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5818,22 +5813,22 @@
         <v>28</v>
       </c>
       <c r="B139">
-        <v>10012</v>
+        <v>10009</v>
       </c>
       <c r="C139" t="s">
         <v>63</v>
       </c>
       <c r="D139" t="s">
-        <v>79</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>221</v>
+        <v>71</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F139" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G139" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5841,20 +5836,98 @@
         <v>28</v>
       </c>
       <c r="B140">
+        <v>10010</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>71</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F140" t="s">
+        <v>111</v>
+      </c>
+      <c r="G140" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141">
+        <v>10011</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>75</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F141" t="s">
+        <v>77</v>
+      </c>
+      <c r="G141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142">
+        <v>10012</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>79</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F142" t="s">
+        <v>77</v>
+      </c>
+      <c r="G142" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143">
         <v>10013</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C143" t="s">
         <v>81</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="E143" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F143" t="s">
         <v>83</v>
       </c>
-      <c r="G140" t="s">
-        <v>223</v>
-      </c>
+      <c r="G143" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E53">
@@ -5902,7 +5975,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5919,7 +5992,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5936,7 +6009,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5953,7 +6026,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5970,7 +6043,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5984,7 +6057,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6001,7 +6074,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6018,7 +6091,7 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6035,7 +6108,7 @@
         <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -78,7 +78,7 @@
     <t>胆小纸袋狼 沃沃</t>
   </si>
   <si>
-    <t>测试角色</t>
+    <t>测试 角色</t>
   </si>
   <si>
     <t>小恶魔 布兰妮</t>
@@ -496,605 +496,632 @@
   </si>
   <si>
     <r>
-      <t>使目标受到小恶魔布兰妮伤害增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10/15/15%(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，以自身攻击力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>422/422/468%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对目标造成伤害，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CD: 4</t>
-    </r>
-  </si>
-  <si>
-    <t>目标受到自身伤害+10%(最多2层),对目标422%伤害</t>
-  </si>
-  <si>
-    <t>目标受到自身伤害+15%(最多2层),对目标422%伤害</t>
-  </si>
-  <si>
-    <t>目标受到自身伤害+15%(最多2层),对目标468%伤害</t>
-  </si>
-  <si>
-    <t>全体攻击力+40% 必杀技停止倒数 必杀技伤害+100% 非守护者防御以自身攻击力20%增加小恶魔攻击力</t>
-  </si>
-  <si>
-    <t>友方攻击力+40%,自身必杀技伤害+100%,其他友方获得技能11013</t>
-  </si>
-  <si>
-    <t>普攻时，触发"使必杀技伤害增加10%(4回合)"效果</t>
-  </si>
-  <si>
-    <t>自身必杀技伤害+10%(4回合)</t>
-  </si>
-  <si>
-    <t>必杀时，触发"使自身攻击力增加50%该效果会在4回合内递减"效果</t>
-  </si>
-  <si>
-    <t>使自身造成伤害增加35%</t>
-  </si>
-  <si>
-    <t>自身造成伤害+35%</t>
-  </si>
-  <si>
-    <t>使自身必杀技伤害增加10%</t>
-  </si>
-  <si>
-    <t>使自身免疫睡眠</t>
-  </si>
-  <si>
-    <t>防御时，触发自身攻击力20%增加小恶魔攻击力</t>
-  </si>
-  <si>
-    <t>释放防御后</t>
-  </si>
-  <si>
-    <t>{小恶魔 布兰妮}攻击力数值+20%</t>
-  </si>
-  <si>
-    <r>
-      <t>使我方全体攻击力增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20/25/25/30/30%(2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，再使我方治疗者与辅助者获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击时，触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使我方全体攻击力增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15/15/20/20/25%(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>效果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CD: 4</t>
-    </r>
-  </si>
-  <si>
-    <t>友方攻击力+20%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013(2回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013(2回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014(2回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014(2回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7015,队伍中辅助者获得技能7015(2回合)</t>
-  </si>
-  <si>
-    <t>使我方全体治疗者与辅助者获得普攻时追加技能"以攻击力100%对目标造成伤害"、必杀时追加技能"以攻击力200%对目标造成伤害"</t>
-  </si>
-  <si>
-    <t>必杀时，触发"以自身攻击力100%对我方全体施放护盾(1回合)"效果</t>
-  </si>
-  <si>
-    <t>每经过4回合，触发"使目标受到伤害增加35%(1回合)"效果</t>
-  </si>
-  <si>
-    <t>4N+1回合触发:目标受到伤害+35%(1回合)</t>
-  </si>
-  <si>
-    <t>第1回合时，触发"使我方治疗者与辅助者必杀技伤害增加40%(50回合)"效果</t>
-  </si>
-  <si>
-    <t>队伍中治疗者必杀技伤害+40%,队伍中辅助者必杀技伤害+40%</t>
-  </si>
-  <si>
-    <t>使自身受到伤害减少5%</t>
-  </si>
-  <si>
-    <t>以自身攻击力30%使我方全体攻击力增加(1回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力数值+30%(1回合)</t>
-  </si>
-  <si>
-    <t>攻击时，触发"使我方全体攻击力增加15/15/20/20/25%(1回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+15%(1回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+20%(1回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+25%(1回合)</t>
-  </si>
-  <si>
-    <t>使我方全体获得"每回合以攻击力79.2/91.7/104.2/116.7/129.2%进行治疗(6回合)"效果，并使自身以外的我方队员当前必杀技CD减少1回合，CD: 6</t>
-  </si>
-  <si>
-    <t>使自身必杀技最大CD减少2回合，并使我方全体获得"每回合以攻击力35%进行治疗"效果</t>
-  </si>
-  <si>
-    <t>攻击时，触发"使我方全体被治疗时回复量增加12.5%(2回合)、受到护盾效果增加12.5%(2回合)"效果</t>
-  </si>
-  <si>
-    <t>必杀时，触发"使我方全体攻击力增加10%(12回合)"效果</t>
-  </si>
-  <si>
-    <t>友方攻击力+10%(12回合)</t>
-  </si>
-  <si>
-    <t>必杀时，触发"以攻击力100%对我方全体施放护盾(4回合)" 效果</t>
-  </si>
-  <si>
-    <t>使自身免疫沉默</t>
-  </si>
-  <si>
-    <r>
-      <t>使我方全体攻击力增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0/0/0/15/20%(2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，使我方全体攻击者、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>守护者当前必杀技</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合、并使我方全体被治疗时回复量增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50%(5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，并获得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>每回合以攻击力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>80/95/110/110/110%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进行治疗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>效果，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CD: 5</t>
-    </r>
-  </si>
-  <si>
-    <t>友方攻击力+15%(2回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+20%(2回合)</t>
-  </si>
-  <si>
-    <r>
-      <t>我方全体获得最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使目标受到小恶魔布兰妮伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10/15/15%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以自身攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>422/422/468%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对目标造成伤害，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>目标受到自身伤害+10%(最多2层),对目标422%伤害</t>
+  </si>
+  <si>
+    <t>目标受到自身伤害+15%(最多2层),对目标422%伤害</t>
+  </si>
+  <si>
+    <t>目标受到自身伤害+15%(最多2层),对目标468%伤害</t>
+  </si>
+  <si>
+    <t>全体攻击力+40% 必杀技停止倒数 必杀技伤害+100% 非守护者防御以自身攻击力20%增加小恶魔攻击力</t>
+  </si>
+  <si>
+    <t>友方攻击力+40%,自身必杀技伤害+100%,其他友方获得技能11013</t>
+  </si>
+  <si>
+    <t>普攻时，触发"使必杀技伤害增加10%(4回合)"效果</t>
+  </si>
+  <si>
+    <t>自身必杀技伤害+10%(4回合)</t>
+  </si>
+  <si>
+    <t>必杀时，触发"使自身攻击力增加50%该效果会在4回合内递减"效果</t>
+  </si>
+  <si>
+    <t>使自身造成伤害增加35%</t>
+  </si>
+  <si>
+    <t>自身造成伤害+35%</t>
+  </si>
+  <si>
+    <t>使自身必杀技伤害增加10%</t>
+  </si>
+  <si>
+    <t>使自身免疫睡眠</t>
+  </si>
+  <si>
+    <t>防御时，触发自身攻击力20%增加小恶魔攻击力</t>
+  </si>
+  <si>
+    <t>释放防御后</t>
+  </si>
+  <si>
+    <t>{小恶魔 布兰妮}攻击力数值+20%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20/25/25/30/30%(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再使我方治疗者与辅助者获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15/15/20/20/25%(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>友方攻击力+20%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7013,队伍中辅助者获得技能7013(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7014,队伍中辅助者获得技能7014(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+30%(2回合),队伍中治疗者获得技能7015,队伍中辅助者获得技能7015(2回合)</t>
+  </si>
+  <si>
+    <t>使我方全体治疗者与辅助者获得普攻时追加技能"以攻击力100%对目标造成伤害"、必杀时追加技能"以攻击力200%对目标造成伤害"</t>
+  </si>
+  <si>
+    <t>必杀时，触发"以自身攻击力100%对我方全体施放护盾(1回合)"效果</t>
+  </si>
+  <si>
+    <t>每经过4回合，触发"使目标受到伤害增加35%(1回合)"效果</t>
+  </si>
+  <si>
+    <t>4N+1回合触发:目标受到伤害+35%(1回合)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发"使我方治疗者与辅助者必杀技伤害增加40%(50回合)"效果</t>
+  </si>
+  <si>
+    <t>队伍中治疗者必杀技伤害+40%,队伍中辅助者必杀技伤害+40%</t>
+  </si>
+  <si>
+    <t>使自身受到伤害减少5%</t>
+  </si>
+  <si>
+    <t>以自身攻击力30%使我方全体攻击力增加(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力数值+30%(1回合)</t>
+  </si>
+  <si>
+    <t>攻击时，触发"使我方全体攻击力增加15/15/20/20/25%(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+15%(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(1回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+25%(1回合)</t>
+  </si>
+  <si>
+    <t>使我方全体获得"每回合以攻击力79.2/91.7/104.2/116.7/129.2%进行治疗(6回合)"效果，并使自身以外的我方队员当前必杀技CD减少1回合，CD: 6</t>
+  </si>
+  <si>
+    <t>使自身必杀技最大CD减少2回合，并使我方全体获得"每回合以攻击力35%进行治疗"效果</t>
+  </si>
+  <si>
+    <t>攻击时，触发"使我方全体被治疗时回复量增加12.5%(2回合)、受到护盾效果增加12.5%(2回合)"效果</t>
+  </si>
+  <si>
+    <t>必杀时，触发"使我方全体攻击力增加10%(12回合)"效果</t>
+  </si>
+  <si>
+    <t>友方攻击力+10%(12回合)</t>
+  </si>
+  <si>
+    <t>必杀时，触发"以攻击力100%对我方全体施放护盾(4回合)" 效果</t>
+  </si>
+  <si>
+    <t>使自身免疫沉默</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0/0/0/15/20%(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，使我方全体攻击者、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>守护者当前必杀技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合、并使我方全体被治疗时回复量增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并获得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每回合以攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>80/95/110/110/110%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进行治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 5</t>
+    </r>
+  </si>
+  <si>
+    <t>友方攻击力+15%(2回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(2回合)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>我方全体获得最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>增加</t>
     </r>
@@ -1134,6 +1161,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以自身攻击力</t>
     </r>
     <r>
@@ -1202,6 +1236,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -1339,6 +1380,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我方全体攻击力增加</t>
     </r>
     <r>
@@ -1555,6 +1603,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身造成伤害增加</t>
     </r>
     <r>
@@ -1696,9 +1751,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1716,6 +1771,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1731,22 +1831,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,9 +1854,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1776,27 +1870,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1807,32 +1885,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1847,14 +1901,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,7 +1942,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,13 +1996,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1917,7 +2044,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,61 +2086,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,79 +2116,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2078,6 +2133,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2111,32 +2186,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2148,15 +2197,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2178,6 +2218,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2186,10 +2241,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2198,133 +2253,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2688,7 +2743,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3021,8 +3076,8 @@
   <sheetPr/>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="262">
   <si>
     <t>角色名</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>新春 凛月</t>
+  </si>
+  <si>
+    <t>梦游魔境 露露</t>
   </si>
   <si>
     <t>技能所属者</t>
@@ -1380,6 +1383,222 @@
   </si>
   <si>
     <r>
+      <t>我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、普攻伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低者受到伤害减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、使自身当前必杀技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果 第1回合时，触发'使自身必杀时，触发"《新春的祝福》"效果(1回合)'效果 《新春的祝福》
+以自身攻击力100%使自身攻击力增加(50回合)，使自身必杀技CD停止倒数(50回合)、免疫必杀技CD变动效果(50回合)</t>
+    </r>
+  </si>
+  <si>
+    <t>普攻时，触发'使目标受到普攻伤害增加20%(最多4层)'效果</t>
+  </si>
+  <si>
+    <t>目标受到普攻伤害+20%(最多4层)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发'使我方全体普攻伤害增加30%(50回合)'效果</t>
+  </si>
+  <si>
+    <t>友方普攻伤害+30%</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1387,7 +1606,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>我方全体攻击力增加</t>
+      <t>使自身造成伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1396,7 +1615,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>50%</t>
+      <t xml:space="preserve">10% </t>
     </r>
     <r>
       <rPr>
@@ -1405,7 +1624,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>、普攻伤害增加</t>
+      <t>攻击时，触发</t>
     </r>
     <r>
       <rPr>
@@ -1414,7 +1633,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">30% </t>
+      <t>'</t>
     </r>
     <r>
       <rPr>
@@ -1423,7 +1642,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>第</t>
+      <t>使目标受到伤害增加</t>
     </r>
     <r>
       <rPr>
@@ -1432,7 +1651,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>5%(</t>
     </r>
     <r>
       <rPr>
@@ -1441,7 +1660,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>回合时，触发</t>
+      <t>最多</t>
     </r>
     <r>
       <rPr>
@@ -1450,7 +1669,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>'</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -1459,7 +1678,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>使我方最大</t>
+      <t>层</t>
     </r>
     <r>
       <rPr>
@@ -1468,7 +1687,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>HP</t>
+      <t>)'</t>
     </r>
     <r>
       <rPr>
@@ -1477,7 +1696,27 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>最低者受到伤害减少</t>
+      <t>效果</t>
+    </r>
+  </si>
+  <si>
+    <t>自身造成伤害+10%</t>
+  </si>
+  <si>
+    <t>目标受到伤害+5%(最多5层)</t>
+  </si>
+  <si>
+    <t>使自身免疫麻痹</t>
+  </si>
+  <si>
+    <t>以攻击力125%对目标造成伤害</t>
+  </si>
+  <si>
+    <t>对目标125%普攻伤害</t>
+  </si>
+  <si>
+    <r>
+      <t>以自身攻击力</t>
     </r>
     <r>
       <rPr>
@@ -1486,7 +1725,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>20%(</t>
+      <t>330/376/422/468/514%</t>
     </r>
     <r>
       <rPr>
@@ -1495,7 +1734,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>最多</t>
+      <t>对目标造成伤害，使我方全体攻击者获得</t>
     </r>
     <r>
       <rPr>
@@ -1504,7 +1743,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t>&lt;</t>
     </r>
     <r>
       <rPr>
@@ -1513,7 +1752,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>层</t>
+      <t>普攻时，追加技能</t>
     </r>
     <r>
       <rPr>
@@ -1522,7 +1761,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
+      <t>"</t>
     </r>
     <r>
       <rPr>
@@ -1531,7 +1770,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>、使自身当前必杀技</t>
+      <t>以自身攻击力</t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1779,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>CD</t>
+      <t>37.5/45/45/52.5/60%</t>
     </r>
     <r>
       <rPr>
@@ -1549,7 +1788,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>减少</t>
+      <t>对目标造成伤害</t>
     </r>
     <r>
       <rPr>
@@ -1558,7 +1797,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
+      <t>"(3/3/4/4/4</t>
     </r>
     <r>
       <rPr>
@@ -1576,7 +1815,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>'</t>
+      <t>)&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1585,32 +1824,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>效果 第1回合时，触发'使自身必杀时，触发"《新春的祝福》"效果(1回合)'效果 《新春的祝福》
-以自身攻击力100%使自身攻击力增加(50回合)，使自身必杀技CD停止倒数(50回合)、免疫必杀技CD变动效果(50回合)</t>
-    </r>
-  </si>
-  <si>
-    <t>普攻时，触发'使目标受到普攻伤害增加20%(最多4层)'效果</t>
-  </si>
-  <si>
-    <t>目标受到普攻伤害+20%(最多4层)</t>
-  </si>
-  <si>
-    <t>第1回合时，触发'使我方全体普攻伤害增加30%(50回合)'效果</t>
-  </si>
-  <si>
-    <t>友方普攻伤害+30%</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使自身造成伤害增加</t>
+      <t>，</t>
     </r>
     <r>
       <rPr>
@@ -1619,104 +1833,84 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">10% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击时，触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使目标受到伤害增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5%(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>效果</t>
-    </r>
-  </si>
-  <si>
-    <t>自身造成伤害+10%</t>
-  </si>
-  <si>
-    <t>目标受到伤害+5%(最多5层)</t>
-  </si>
-  <si>
-    <t>使自身免疫麻痹</t>
-  </si>
-  <si>
-    <t>以攻击力125%对目标造成伤害</t>
-  </si>
-  <si>
-    <t>对目标125%普攻伤害</t>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>对目标330%技能伤害,队伍中攻击者获得技能12013(3回合)</t>
+  </si>
+  <si>
+    <t>对目标376%技能伤害,队伍中攻击者获得技能12014(3回合)</t>
+  </si>
+  <si>
+    <t>对目标422%技能伤害,队伍中攻击者获得技能12014(4回合)</t>
+  </si>
+  <si>
+    <t>对目标468%技能伤害,队伍中攻击者获得技能12015(4回合)</t>
+  </si>
+  <si>
+    <t>对目标514%技能伤害,队伍中攻击者获得技能12016(4回合)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发&lt;使自身当前必杀技CD减少4回合&gt;
+自身必杀时，触发 &lt;《Shuffling》&gt;
+使我方全体获得&lt;队伍中至少有4名攻击者时，发动《Four of a Kind》&gt;
+《Shuffling》
+使我方全体攻击者获得&lt;普攻时追加技能"以自身攻击力37.5%对目标造成伤害"(4回合)&gt;</t>
+  </si>
+  <si>
+    <t>队伍中攻击者获得技能12013(4回合)</t>
+  </si>
+  <si>
+    <t>《Four of a Kind》
+自身攻击力增加70%
+自身普攻伤害增加100%
+自身受到伤害减少10%</t>
+  </si>
+  <si>
+    <t>如果队伍中风属性数量大于4则友方攻击力+70%,友方普攻伤害+100%</t>
+  </si>
+  <si>
+    <t>必杀时，触发&lt;使我方全体普攻伤害增加30%(最多2层)&gt;</t>
+  </si>
+  <si>
+    <t>友方普攻伤害+30%(最多2层)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发&lt;使我方全体普攻伤害增加30%(50回合)&gt;</t>
+  </si>
+  <si>
+    <t>必杀时，触发&lt;使我方全体造成伤害增加12.5%(最多2层)</t>
+  </si>
+  <si>
+    <t>友方造成伤害+12.5%(最多2层)</t>
+  </si>
+  <si>
+    <t>普攻伤害增加10%</t>
+  </si>
+  <si>
+    <t>以攻击力100%对目标造成伤害</t>
+  </si>
+  <si>
+    <t>使我方全体攻击者获得&lt;普攻时，追加技能"以自身攻击力37.5/45/45/52.5/60%对目标造成伤害"(3/3/4/4/4回合)&gt;，CD: 4</t>
+  </si>
+  <si>
+    <t>快速普攻追击</t>
+  </si>
+  <si>
+    <t>对目标37.5%普攻伤害</t>
+  </si>
+  <si>
+    <t>对目标45%普攻伤害</t>
+  </si>
+  <si>
+    <t>对目标52.5%普攻伤害</t>
+  </si>
+  <si>
+    <t>快速普攻追击的速度高于一般的释放普攻后技能</t>
+  </si>
+  <si>
+    <t>对目标60%普攻伤害</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -1756,7 +1950,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1771,6 +1965,56 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF2E6190"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1778,24 +2022,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1809,23 +2038,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1839,47 +2077,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1892,16 +2100,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1909,7 +2109,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,7 +2142,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1954,61 +2220,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,7 +2250,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,61 +2304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,19 +2316,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,26 +2333,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2186,17 +2366,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2210,11 +2384,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2233,6 +2413,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2241,10 +2441,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2253,37 +2453,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2292,98 +2492,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2394,6 +2594,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2740,10 +2949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2803,7 +3012,7 @@
       <c r="H2">
         <v>2000</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -3062,6 +3271,32 @@
         <v>2000</v>
       </c>
       <c r="H12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13">
         <v>2000</v>
       </c>
     </row>
@@ -3074,10 +3309,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3091,7 +3326,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -3100,16 +3335,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3120,19 +3355,19 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3143,19 +3378,19 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3166,19 +3401,19 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3189,19 +3424,19 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3212,19 +3447,19 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3235,16 +3470,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3255,16 +3490,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3275,16 +3510,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3295,16 +3530,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3315,16 +3550,16 @@
         <v>1011</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3335,19 +3570,19 @@
         <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3358,19 +3593,19 @@
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3381,19 +3616,19 @@
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
@@ -3404,19 +3639,19 @@
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3427,19 +3662,19 @@
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3450,16 +3685,16 @@
         <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3470,16 +3705,16 @@
         <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3490,19 +3725,19 @@
         <v>2001</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3513,19 +3748,19 @@
         <v>2002</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3536,19 +3771,19 @@
         <v>2003</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3559,19 +3794,19 @@
         <v>2004</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3582,19 +3817,19 @@
         <v>2005</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3605,16 +3840,16 @@
         <v>2006</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3625,19 +3860,19 @@
         <v>2007</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3648,19 +3883,19 @@
         <v>2008</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3671,19 +3906,19 @@
         <v>2009</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3694,19 +3929,19 @@
         <v>2010</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3717,19 +3952,19 @@
         <v>2011</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3740,16 +3975,16 @@
         <v>2012</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3760,16 +3995,16 @@
         <v>6001</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3780,16 +4015,16 @@
         <v>3001</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3800,16 +4035,16 @@
         <v>3002</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3820,16 +4055,16 @@
         <v>3003</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3840,16 +4075,16 @@
         <v>3004</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3860,16 +4095,16 @@
         <v>3005</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3880,13 +4115,13 @@
         <v>3006</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3897,19 +4132,19 @@
         <v>3007</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3920,19 +4155,19 @@
         <v>3008</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3943,19 +4178,19 @@
         <v>3009</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3966,19 +4201,19 @@
         <v>3010</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3989,19 +4224,19 @@
         <v>3011</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4012,16 +4247,16 @@
         <v>3012</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4032,19 +4267,19 @@
         <v>4001</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4055,19 +4290,19 @@
         <v>4002</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4078,19 +4313,19 @@
         <v>4003</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4101,19 +4336,19 @@
         <v>4004</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4124,19 +4359,19 @@
         <v>4005</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4147,16 +4382,16 @@
         <v>4006</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4167,19 +4402,19 @@
         <v>4007</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4190,19 +4425,19 @@
         <v>4008</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4213,19 +4448,19 @@
         <v>4009</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4236,19 +4471,19 @@
         <v>4010</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4259,19 +4494,19 @@
         <v>4011</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4282,16 +4517,16 @@
         <v>4012</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4302,19 +4537,19 @@
         <v>5001</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4325,19 +4560,19 @@
         <v>5002</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4348,19 +4583,19 @@
         <v>5003</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4371,19 +4606,19 @@
         <v>5004</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4394,19 +4629,19 @@
         <v>5005</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4417,16 +4652,16 @@
         <v>5006</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4437,19 +4672,19 @@
         <v>5007</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4460,19 +4695,19 @@
         <v>5008</v>
       </c>
       <c r="C68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4483,19 +4718,19 @@
         <v>5009</v>
       </c>
       <c r="C69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4506,19 +4741,19 @@
         <v>5010</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" t="s">
         <v>78</v>
       </c>
-      <c r="F70" t="s">
-        <v>77</v>
-      </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4529,19 +4764,19 @@
         <v>5011</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4552,16 +4787,16 @@
         <v>5012</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4572,16 +4807,16 @@
         <v>5013</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4592,19 +4827,19 @@
         <v>11001</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4615,19 +4850,19 @@
         <v>11002</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4638,19 +4873,19 @@
         <v>11003</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4661,16 +4896,16 @@
         <v>11004</v>
       </c>
       <c r="C78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4681,16 +4916,16 @@
         <v>11005</v>
       </c>
       <c r="C79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4701,16 +4936,16 @@
         <v>11006</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4721,19 +4956,19 @@
         <v>11007</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F81" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4744,19 +4979,19 @@
         <v>11008</v>
       </c>
       <c r="C82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F82" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4767,19 +5002,19 @@
         <v>11009</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E83" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4790,19 +5025,19 @@
         <v>11010</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4813,19 +5048,19 @@
         <v>11011</v>
       </c>
       <c r="C85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4836,16 +5071,16 @@
         <v>11012</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G86" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4856,16 +5091,16 @@
         <v>11013</v>
       </c>
       <c r="C87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4876,19 +5111,19 @@
         <v>7001</v>
       </c>
       <c r="C89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4899,16 +5134,16 @@
         <v>7002</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4919,16 +5154,16 @@
         <v>7003</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4939,16 +5174,16 @@
         <v>7004</v>
       </c>
       <c r="C92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4959,16 +5194,16 @@
         <v>7005</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4979,16 +5214,16 @@
         <v>7006</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4999,19 +5234,19 @@
         <v>7007</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5022,19 +5257,19 @@
         <v>7008</v>
       </c>
       <c r="C96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5045,19 +5280,19 @@
         <v>7009</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G97" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5068,19 +5303,19 @@
         <v>7010</v>
       </c>
       <c r="C98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5091,19 +5326,19 @@
         <v>7011</v>
       </c>
       <c r="C99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5114,16 +5349,16 @@
         <v>7012</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="2:7">
@@ -5131,16 +5366,16 @@
         <v>7013</v>
       </c>
       <c r="C101" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G101" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -5148,13 +5383,13 @@
         <v>7014</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G102" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -5162,13 +5397,13 @@
         <v>7015</v>
       </c>
       <c r="C103" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G103" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5179,19 +5414,19 @@
         <v>8001</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5202,16 +5437,16 @@
         <v>8002</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5222,16 +5457,16 @@
         <v>8003</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5242,16 +5477,16 @@
         <v>8004</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5262,16 +5497,16 @@
         <v>8005</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5282,16 +5517,16 @@
         <v>8006</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5302,19 +5537,19 @@
         <v>8007</v>
       </c>
       <c r="C111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5325,19 +5560,19 @@
         <v>8008</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5348,19 +5583,19 @@
         <v>8009</v>
       </c>
       <c r="C113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F113" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5371,19 +5606,19 @@
         <v>8010</v>
       </c>
       <c r="C114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E114" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5394,19 +5629,19 @@
         <v>8011</v>
       </c>
       <c r="C115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E115" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5417,16 +5652,16 @@
         <v>8012</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G116" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5437,19 +5672,19 @@
         <v>9001</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5460,16 +5695,16 @@
         <v>9002</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5480,16 +5715,16 @@
         <v>9003</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5500,16 +5735,16 @@
         <v>9004</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5520,16 +5755,16 @@
         <v>9005</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5540,16 +5775,16 @@
         <v>9006</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5560,19 +5795,19 @@
         <v>9007</v>
       </c>
       <c r="C124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F124" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5583,19 +5818,19 @@
         <v>9008</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F125" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5606,19 +5841,19 @@
         <v>9009</v>
       </c>
       <c r="C126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G126" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5629,19 +5864,19 @@
         <v>9010</v>
       </c>
       <c r="C127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G127" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5652,19 +5887,19 @@
         <v>9011</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5675,16 +5910,16 @@
         <v>9012</v>
       </c>
       <c r="C129" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F129" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G129" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="130" spans="5:5">
@@ -5698,19 +5933,19 @@
         <v>10001</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5721,17 +5956,17 @@
         <v>10002</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5742,17 +5977,17 @@
         <v>10003</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5763,17 +5998,17 @@
         <v>10004</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5784,20 +6019,20 @@
         <v>10005</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" ht="63" spans="1:7">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -5805,16 +6040,16 @@
         <v>10006</v>
       </c>
       <c r="C136" t="s">
-        <v>51</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>217</v>
+        <v>52</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5825,19 +6060,19 @@
         <v>10007</v>
       </c>
       <c r="C137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D137" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F137" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G137" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5848,19 +6083,19 @@
         <v>10008</v>
       </c>
       <c r="C138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G138" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5871,19 +6106,19 @@
         <v>10009</v>
       </c>
       <c r="C139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G139" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5894,19 +6129,19 @@
         <v>10010</v>
       </c>
       <c r="C140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F140" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G140" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5917,19 +6152,19 @@
         <v>10011</v>
       </c>
       <c r="C141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5940,19 +6175,19 @@
         <v>10012</v>
       </c>
       <c r="C142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D142" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F142" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5963,40 +6198,422 @@
         <v>10013</v>
       </c>
       <c r="C143" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F143" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" s="2"/>
     </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="5:5">
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>29</v>
+      </c>
+      <c r="B145">
+        <v>12001</v>
+      </c>
+      <c r="C145" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F145" t="s">
+        <v>38</v>
+      </c>
+      <c r="G145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146">
+        <v>12002</v>
+      </c>
+      <c r="C146" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" t="s">
+        <v>40</v>
+      </c>
       <c r="E146" s="2"/>
+      <c r="F146" t="s">
+        <v>38</v>
+      </c>
+      <c r="G146" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>29</v>
+      </c>
+      <c r="B147">
+        <v>12003</v>
+      </c>
+      <c r="C147" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" t="s">
+        <v>38</v>
+      </c>
+      <c r="G147" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148">
+        <v>12004</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" t="s">
+        <v>38</v>
+      </c>
+      <c r="G148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149">
+        <v>12005</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" t="s">
+        <v>38</v>
+      </c>
+      <c r="G149" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" ht="100.8" spans="1:7">
+      <c r="A150" t="s">
+        <v>29</v>
+      </c>
+      <c r="B150">
+        <v>12006</v>
+      </c>
+      <c r="C150" t="s">
+        <v>52</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F150" t="s">
+        <v>74</v>
+      </c>
+      <c r="G150" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" ht="57.6" spans="1:7">
+      <c r="A151" t="s">
+        <v>29</v>
+      </c>
+      <c r="B151">
+        <v>12020</v>
+      </c>
+      <c r="C151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F151" t="s">
+        <v>54</v>
+      </c>
+      <c r="G151" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>29</v>
+      </c>
+      <c r="B152">
+        <v>12007</v>
+      </c>
+      <c r="C152" t="s">
+        <v>64</v>
+      </c>
+      <c r="D152" t="s">
+        <v>65</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F152" t="s">
+        <v>74</v>
+      </c>
+      <c r="G152" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>29</v>
+      </c>
+      <c r="B153">
+        <v>12008</v>
+      </c>
+      <c r="C153" t="s">
+        <v>64</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F153" t="s">
+        <v>54</v>
+      </c>
+      <c r="G153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154">
+        <v>12009</v>
+      </c>
+      <c r="C154" t="s">
+        <v>64</v>
+      </c>
+      <c r="D154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F154" t="s">
+        <v>74</v>
+      </c>
+      <c r="G154" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155">
+        <v>12010</v>
+      </c>
+      <c r="C155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" t="s">
+        <v>76</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F155" t="s">
+        <v>78</v>
+      </c>
+      <c r="G155" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156">
+        <v>12012</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>80</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="F156" t="s">
+        <v>78</v>
+      </c>
+      <c r="G156" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157">
+        <v>12022</v>
+      </c>
+      <c r="C157" t="s">
+        <v>82</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F157" t="s">
+        <v>84</v>
+      </c>
+      <c r="G157" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158">
+        <v>12013</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="E158" t="s">
+        <v>246</v>
+      </c>
+      <c r="F158" t="s">
+        <v>247</v>
+      </c>
+      <c r="G158" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159">
+        <v>12014</v>
+      </c>
+      <c r="C159" t="s">
+        <v>86</v>
+      </c>
+      <c r="F159" t="s">
+        <v>247</v>
+      </c>
+      <c r="G159" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160">
+        <v>12015</v>
+      </c>
+      <c r="C160" t="s">
+        <v>86</v>
+      </c>
+      <c r="F160" t="s">
+        <v>247</v>
+      </c>
+      <c r="G160" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>29</v>
+      </c>
+      <c r="B161">
+        <v>12016</v>
+      </c>
+      <c r="C161" t="s">
+        <v>86</v>
+      </c>
+      <c r="E161" t="s">
+        <v>251</v>
+      </c>
+      <c r="F161" t="s">
+        <v>247</v>
+      </c>
+      <c r="G161" t="s">
+        <v>252</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G83">
+    <cfRule type="containsText" dxfId="1" priority="16" operator="between" text="没做">
+      <formula>NOT(ISERROR(SEARCH("没做",G83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A151:C151">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F159">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G159">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F160">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="between" text="没做">
-      <formula>NOT(ISERROR(SEARCH("没做",G83)))</formula>
+  <conditionalFormatting sqref="G160">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD1048576">
+  <conditionalFormatting sqref="F161">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G161">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:XFD158 H159:XFD161 A159:E161 $A162:$XFD1048576 A1:E150 F1:F149 A152:F158 F151">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6024,13 +6641,13 @@
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6041,13 +6658,13 @@
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6058,13 +6675,13 @@
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6075,13 +6692,13 @@
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6092,13 +6709,13 @@
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6109,10 +6726,10 @@
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6123,13 +6740,13 @@
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6140,13 +6757,13 @@
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6157,13 +6774,13 @@
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6174,13 +6791,13 @@
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6191,10 +6808,10 @@
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6205,13 +6822,13 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6222,13 +6839,13 @@
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6239,13 +6856,13 @@
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6256,13 +6873,13 @@
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6273,13 +6890,13 @@
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6290,13 +6907,13 @@
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6307,7 +6924,7 @@
         <v>3006</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6318,10 +6935,10 @@
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6332,10 +6949,10 @@
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6346,10 +6963,10 @@
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6360,10 +6977,10 @@
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6374,10 +6991,10 @@
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6388,7 +7005,7 @@
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -6399,10 +7016,10 @@
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -6413,10 +7030,10 @@
         <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -6427,10 +7044,10 @@
         <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -6441,10 +7058,10 @@
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -6455,10 +7072,10 @@
         <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6469,7 +7086,7 @@
         <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -6480,10 +7097,10 @@
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -6494,10 +7111,10 @@
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -6508,10 +7125,10 @@
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6522,10 +7139,10 @@
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -6536,10 +7153,10 @@
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6550,7 +7167,7 @@
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -6561,10 +7178,10 @@
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6575,10 +7192,10 @@
         <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -6589,10 +7206,10 @@
         <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -6603,10 +7220,10 @@
         <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -6617,10 +7234,10 @@
         <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6631,7 +7248,7 @@
         <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -6642,10 +7259,10 @@
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -6656,10 +7273,10 @@
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6670,10 +7287,10 @@
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -6684,10 +7301,10 @@
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -6698,10 +7315,10 @@
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6712,7 +7329,7 @@
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2951,8 +2951,8 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3007,10 +3007,10 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>2000</v>
+        <v>281230</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>960611</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -3034,10 +3034,10 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>2000</v>
+        <v>243585</v>
       </c>
       <c r="H3">
-        <v>2000</v>
+        <v>1006228</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3060,10 +3060,10 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>2000</v>
+        <v>248899</v>
       </c>
       <c r="H4">
-        <v>2000</v>
+        <v>984084</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3086,10 +3086,10 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>2000</v>
+        <v>256871</v>
       </c>
       <c r="H5">
-        <v>2000</v>
+        <v>954411</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3112,10 +3112,10 @@
         <v>12</v>
       </c>
       <c r="G6">
-        <v>2000</v>
+        <v>270601</v>
       </c>
       <c r="H6">
-        <v>2000</v>
+        <v>997814</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3294,10 +3294,10 @@
         <v>12</v>
       </c>
       <c r="G13">
-        <v>2000</v>
+        <v>271929</v>
       </c>
       <c r="H13">
-        <v>2000</v>
+        <v>993385</v>
       </c>
     </row>
   </sheetData>
@@ -3311,8 +3311,8 @@
   <sheetPr/>
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView topLeftCell="B145" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="277">
   <si>
     <t>角色名</t>
   </si>
   <si>
+    <t>昵称</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>机灵古怪 塞露西亚</t>
   </si>
   <si>
+    <t>幼精</t>
+  </si>
+  <si>
     <t>风属性</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
     <t>精灵王 塞露西亚</t>
   </si>
   <si>
+    <t>精灵王</t>
+  </si>
+  <si>
     <t>辅助者</t>
   </si>
   <si>
@@ -69,45 +78,75 @@
     <t>法斯公主 露露</t>
   </si>
   <si>
+    <t>露露</t>
+  </si>
+  <si>
     <t>治疗者</t>
   </si>
   <si>
     <t>复生公主 千鹤</t>
   </si>
   <si>
+    <t>千鹤</t>
+  </si>
+  <si>
     <t>胆小纸袋狼 沃沃</t>
   </si>
   <si>
+    <t>沃沃</t>
+  </si>
+  <si>
     <t>测试 角色</t>
   </si>
   <si>
+    <t>木桩</t>
+  </si>
+  <si>
     <t>小恶魔 布兰妮</t>
   </si>
   <si>
+    <t>小恶魔</t>
+  </si>
+  <si>
     <t>火属性</t>
   </si>
   <si>
     <t>夏日 露露</t>
   </si>
   <si>
+    <t>夏露</t>
+  </si>
+  <si>
     <t>水属性</t>
   </si>
   <si>
     <t>偶像 黑白诺艾利</t>
   </si>
   <si>
+    <t>黑白</t>
+  </si>
+  <si>
     <t>丰收圣女 菲欧拉</t>
   </si>
   <si>
+    <t>圣女</t>
+  </si>
+  <si>
     <t>光属性</t>
   </si>
   <si>
     <t>新春 凛月</t>
   </si>
   <si>
+    <t>春忍</t>
+  </si>
+  <si>
     <t>梦游魔境 露露</t>
   </si>
   <si>
+    <t>梦露</t>
+  </si>
+  <si>
     <t>技能所属者</t>
   </si>
   <si>
@@ -283,6 +322,15 @@
   </si>
   <si>
     <t>目标受到伤害+20%(3回合)</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>什么都不干</t>
+  </si>
+  <si>
+    <t>释放防御后</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
@@ -630,9 +678,6 @@
     <t>防御时，触发自身攻击力20%增加小恶魔攻击力</t>
   </si>
   <si>
-    <t>释放防御后</t>
-  </si>
-  <si>
     <t>{小恶魔 布兰妮}攻击力数值+20%</t>
   </si>
   <si>
@@ -1383,222 +1428,6 @@
   </si>
   <si>
     <r>
-      <t>我方全体攻击力增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、普攻伤害增加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">30% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合时，触发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使我方最大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最低者受到伤害减少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>最多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、使自身当前必杀技</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>CD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>回合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF2E6190"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>效果 第1回合时，触发'使自身必杀时，触发"《新春的祝福》"效果(1回合)'效果 《新春的祝福》
-以自身攻击力100%使自身攻击力增加(50回合)，使自身必杀技CD停止倒数(50回合)、免疫必杀技CD变动效果(50回合)</t>
-    </r>
-  </si>
-  <si>
-    <t>普攻时，触发'使目标受到普攻伤害增加20%(最多4层)'效果</t>
-  </si>
-  <si>
-    <t>目标受到普攻伤害+20%(最多4层)</t>
-  </si>
-  <si>
-    <t>第1回合时，触发'使我方全体普攻伤害增加30%(50回合)'效果</t>
-  </si>
-  <si>
-    <t>友方普攻伤害+30%</t>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1606,6 +1435,229 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、普攻伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">30% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最低者受到伤害减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20%(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、使自身当前必杀技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果 第1回合时，触发'使自身必杀时，触发"《新春的祝福》"效果(1回合)'效果 《新春的祝福》
+以自身攻击力100%使自身攻击力增加(50回合)，使自身必杀技CD停止倒数(50回合)、免疫必杀技CD变动效果(50回合)</t>
+    </r>
+  </si>
+  <si>
+    <t>普攻时，触发'使目标受到普攻伤害增加20%(最多4层)'效果</t>
+  </si>
+  <si>
+    <t>目标受到普攻伤害+20%(最多4层)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发'使我方全体普攻伤害增加30%(50回合)'效果</t>
+  </si>
+  <si>
+    <t>友方普攻伤害+30%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身造成伤害增加</t>
     </r>
     <r>
@@ -1716,6 +1768,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>以自身攻击力</t>
     </r>
     <r>
@@ -1945,9 +2003,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1971,9 +2029,37 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1988,20 +2074,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2009,40 +2081,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2061,6 +2102,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2070,10 +2119,34 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2094,22 +2167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,7 +2200,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,7 +2242,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2166,7 +2302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,19 +2326,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,67 +2356,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,43 +2380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,21 +2395,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2362,6 +2405,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2384,17 +2451,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2413,26 +2491,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2441,10 +2499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2453,31 +2511,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2486,104 +2550,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2603,9 +2661,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2952,7 +3007,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2961,7 +3016,7 @@
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2986,317 +3041,355 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>281230</v>
+      </c>
+      <c r="I2">
+        <v>960611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>243585</v>
+      </c>
+      <c r="I3">
+        <v>1006228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>248899</v>
+      </c>
+      <c r="I4">
+        <v>984084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <v>281230</v>
-      </c>
-      <c r="H2">
-        <v>960611</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>256871</v>
+      </c>
+      <c r="I5">
+        <v>954411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H6">
+        <v>270601</v>
+      </c>
+      <c r="I6">
+        <v>997814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
-        <v>243585</v>
-      </c>
-      <c r="H3">
-        <v>1006228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4">
-        <v>248899</v>
-      </c>
-      <c r="H4">
-        <v>984084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>256871</v>
-      </c>
-      <c r="H5">
-        <v>954411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>270601</v>
-      </c>
-      <c r="H6">
-        <v>997814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
       <c r="H7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
       </c>
       <c r="H8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>2000</v>
       </c>
       <c r="H9">
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>2000</v>
       </c>
       <c r="H10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
       </c>
       <c r="H11">
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>2000</v>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
       </c>
       <c r="H12">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13">
         <v>271929</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>993385</v>
       </c>
     </row>
@@ -3309,10 +3402,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="B145" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3326,3293 +3419,3313 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1011</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
       <c r="G18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>2001</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>100</v>
+        <v>51</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
         <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" t="s">
-        <v>109</v>
+        <v>122</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B31">
+        <v>2011</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32">
         <v>2012</v>
       </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33">
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
         <v>6001</v>
       </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35">
-        <v>3001</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" t="s">
         <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
       </c>
       <c r="F41" t="s">
         <v>67</v>
       </c>
       <c r="G41" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="F42" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B46">
+        <v>3011</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47">
         <v>3012</v>
       </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="E46" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48">
-        <v>4001</v>
-      </c>
-      <c r="C48" t="s">
-        <v>35</v>
-      </c>
-      <c r="D48" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" t="s">
-        <v>121</v>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G49" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>4003</v>
+        <v>4002</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>4004</v>
+        <v>4003</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G51" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>4005</v>
+        <v>4004</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E52" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G52" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>4006</v>
+        <v>4005</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G53" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>4007</v>
+        <v>4006</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" t="s">
         <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G54" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E55" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>4009</v>
+        <v>4008</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>4010</v>
+        <v>4009</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>4011</v>
+        <v>4010</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B59">
+        <v>4011</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60">
         <v>4012</v>
       </c>
-      <c r="C59" t="s">
-        <v>82</v>
-      </c>
-      <c r="E59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
-        <v>19</v>
-      </c>
-      <c r="B61">
-        <v>5001</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E61" t="s">
-        <v>137</v>
-      </c>
-      <c r="F61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" t="s">
-        <v>138</v>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>5003</v>
+        <v>5002</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D63" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B64">
-        <v>5004</v>
+        <v>5003</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D64" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G64" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>5006</v>
+        <v>5005</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>5007</v>
+        <v>5006</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" t="s">
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>5008</v>
+        <v>5007</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E69" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G69" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>5010</v>
+        <v>5009</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E70" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s">
-        <v>79</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>5012</v>
+        <v>5011</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="D72" t="s">
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B73">
+        <v>5012</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" t="s">
+        <v>97</v>
+      </c>
+      <c r="G73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74">
         <v>5013</v>
       </c>
-      <c r="C73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E73" t="s">
-        <v>154</v>
-      </c>
-      <c r="F73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75">
-        <v>11001</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" t="s">
-        <v>156</v>
-      </c>
-      <c r="F75" t="s">
-        <v>38</v>
-      </c>
-      <c r="G75" t="s">
-        <v>157</v>
+      <c r="C74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>11002</v>
+        <v>11001</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>11003</v>
+        <v>11002</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>160</v>
+        <v>53</v>
+      </c>
+      <c r="E77" t="s">
+        <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B78">
-        <v>11004</v>
+        <v>11003</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>11005</v>
+        <v>11004</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B80">
-        <v>11006</v>
+        <v>11005</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" t="s">
-        <v>164</v>
+        <v>48</v>
+      </c>
+      <c r="D80" t="s">
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G80" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>11007</v>
+        <v>11006</v>
       </c>
       <c r="C81" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" t="s">
         <v>65</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F81" t="s">
         <v>67</v>
       </c>
       <c r="G81" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B82">
-        <v>11008</v>
+        <v>11007</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E82" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B83">
-        <v>11009</v>
+        <v>11008</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F83" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B84">
-        <v>11010</v>
+        <v>11009</v>
       </c>
       <c r="C84" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G84" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B85">
-        <v>11011</v>
+        <v>11010</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G85" t="s">
-        <v>55</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B86">
-        <v>11012</v>
+        <v>11011</v>
       </c>
       <c r="C86" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
       </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B87">
+        <v>11012</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" t="s">
+        <v>96</v>
+      </c>
+      <c r="F87" t="s">
+        <v>97</v>
+      </c>
+      <c r="G87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88">
         <v>11013</v>
       </c>
-      <c r="C87" t="s">
-        <v>86</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
-      </c>
-      <c r="G87" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89">
-        <v>7001</v>
-      </c>
-      <c r="C89" t="s">
-        <v>35</v>
-      </c>
-      <c r="D89" t="s">
-        <v>36</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F89" t="s">
-        <v>38</v>
-      </c>
-      <c r="G89" t="s">
-        <v>177</v>
+      <c r="C88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" t="s">
+        <v>189</v>
+      </c>
+      <c r="F88" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B90">
-        <v>7002</v>
+        <v>7001</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G90" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B91">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B92">
-        <v>7004</v>
+        <v>7003</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B93">
-        <v>7005</v>
+        <v>7004</v>
       </c>
       <c r="C93" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B94">
-        <v>7006</v>
+        <v>7005</v>
       </c>
       <c r="C94" t="s">
-        <v>52</v>
-      </c>
-      <c r="E94" t="s">
-        <v>182</v>
+        <v>48</v>
+      </c>
+      <c r="D94" t="s">
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B95">
-        <v>7007</v>
+        <v>7006</v>
       </c>
       <c r="C95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D95" t="s">
         <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F95" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G95" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B96">
-        <v>7008</v>
+        <v>7007</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E96" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="F96" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B97">
-        <v>7009</v>
+        <v>7008</v>
       </c>
       <c r="C97" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E97" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F97" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="G97" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B98">
-        <v>7010</v>
+        <v>7009</v>
       </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G98" t="s">
-        <v>55</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B99">
-        <v>7011</v>
+        <v>7010</v>
       </c>
       <c r="C99" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D99" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E99" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="F99" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G99" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B100">
+        <v>7011</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" t="s">
+        <v>93</v>
+      </c>
+      <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101">
         <v>7012</v>
       </c>
-      <c r="C100" t="s">
-        <v>82</v>
-      </c>
-      <c r="E100" t="s">
-        <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>84</v>
-      </c>
-      <c r="G100" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101">
-        <v>7013</v>
-      </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G101" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="102" spans="2:7">
       <c r="B102">
-        <v>7014</v>
+        <v>7013</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="E102" t="s">
+        <v>206</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G102" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103">
+        <v>7014</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" t="s">
+        <v>128</v>
+      </c>
+      <c r="G103" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104">
         <v>7015</v>
       </c>
-      <c r="C103" t="s">
-        <v>86</v>
-      </c>
-      <c r="F103" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105">
-        <v>8001</v>
-      </c>
-      <c r="C105" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" t="s">
-        <v>36</v>
-      </c>
-      <c r="E105" t="s">
-        <v>195</v>
-      </c>
-      <c r="F105" t="s">
-        <v>38</v>
-      </c>
-      <c r="G105" t="s">
-        <v>55</v>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" t="s">
+        <v>128</v>
+      </c>
+      <c r="G104" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B106">
-        <v>8002</v>
+        <v>8001</v>
       </c>
       <c r="C106" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D106" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="E106" t="s">
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G106" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B107">
-        <v>8003</v>
+        <v>8002</v>
       </c>
       <c r="C107" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D107" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F107" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G107" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B108">
-        <v>8004</v>
+        <v>8003</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G108" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B109">
-        <v>8005</v>
+        <v>8004</v>
       </c>
       <c r="C109" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D109" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G109" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B110">
-        <v>8006</v>
+        <v>8005</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
-      </c>
-      <c r="E110" t="s">
-        <v>196</v>
+        <v>48</v>
+      </c>
+      <c r="D110" t="s">
+        <v>62</v>
       </c>
       <c r="F110" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B111">
-        <v>8007</v>
+        <v>8006</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" t="s">
         <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B112">
-        <v>8008</v>
+        <v>8007</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D112" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F112" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="G112" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B113">
-        <v>8009</v>
+        <v>8008</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E113" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B114">
-        <v>8010</v>
+        <v>8009</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E114" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G114" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B115">
-        <v>8011</v>
+        <v>8010</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D115" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G115" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B116">
+        <v>8011</v>
+      </c>
+      <c r="C116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" t="s">
+        <v>93</v>
+      </c>
+      <c r="E116" t="s">
+        <v>216</v>
+      </c>
+      <c r="F116" t="s">
+        <v>91</v>
+      </c>
+      <c r="G116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117">
         <v>8012</v>
       </c>
-      <c r="C116" t="s">
-        <v>82</v>
-      </c>
-      <c r="E116" t="s">
-        <v>189</v>
-      </c>
-      <c r="F116" t="s">
-        <v>84</v>
-      </c>
-      <c r="G116" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118">
-        <v>9001</v>
-      </c>
-      <c r="C118" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" t="s">
-        <v>36</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="F118" t="s">
-        <v>38</v>
-      </c>
-      <c r="G118" t="s">
-        <v>55</v>
+      <c r="C117" t="s">
+        <v>95</v>
+      </c>
+      <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" t="s">
+        <v>97</v>
+      </c>
+      <c r="G117" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B119">
-        <v>9002</v>
+        <v>9001</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G119" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B120">
-        <v>9003</v>
+        <v>9002</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G120" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B121">
-        <v>9004</v>
+        <v>9003</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F121" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G121" t="s">
-        <v>203</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B122">
-        <v>9005</v>
+        <v>9004</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G122" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B123">
-        <v>9006</v>
+        <v>9005</v>
       </c>
       <c r="C123" t="s">
-        <v>52</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>205</v>
+        <v>48</v>
+      </c>
+      <c r="D123" t="s">
+        <v>62</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G123" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B124">
-        <v>9007</v>
+        <v>9006</v>
       </c>
       <c r="C124" t="s">
-        <v>64</v>
-      </c>
-      <c r="D124" t="s">
         <v>65</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F124" t="s">
         <v>67</v>
       </c>
       <c r="G124" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B125">
-        <v>9008</v>
+        <v>9007</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G125" t="s">
-        <v>208</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B126">
-        <v>9009</v>
+        <v>9008</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D126" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F126" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="G126" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B127">
-        <v>9010</v>
+        <v>9009</v>
       </c>
       <c r="C127" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="F127" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G127" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B128">
-        <v>9011</v>
+        <v>9010</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D128" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="F128" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G128" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B129">
+        <v>9011</v>
+      </c>
+      <c r="C129" t="s">
+        <v>77</v>
+      </c>
+      <c r="D129" t="s">
+        <v>93</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F129" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>36</v>
+      </c>
+      <c r="B130">
         <v>9012</v>
       </c>
-      <c r="C129" t="s">
-        <v>82</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F129" t="s">
-        <v>84</v>
-      </c>
-      <c r="G129" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" t="s">
-        <v>28</v>
-      </c>
-      <c r="B131">
-        <v>10001</v>
-      </c>
-      <c r="C131" t="s">
-        <v>35</v>
-      </c>
-      <c r="D131" t="s">
-        <v>36</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F131" t="s">
-        <v>38</v>
-      </c>
-      <c r="G131" t="s">
-        <v>213</v>
-      </c>
+      <c r="C130" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F130" t="s">
+        <v>97</v>
+      </c>
+      <c r="G130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B132">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
-      </c>
-      <c r="E132" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G132" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B133">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D133" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G133" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B134">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G134" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B135">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D135" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G135" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" ht="63" spans="1:7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B136">
+        <v>10005</v>
+      </c>
+      <c r="C136" t="s">
+        <v>48</v>
+      </c>
+      <c r="D136" t="s">
+        <v>62</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" t="s">
+        <v>51</v>
+      </c>
+      <c r="G136" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="137" ht="63" spans="1:7">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137">
         <v>10006</v>
       </c>
-      <c r="C136" t="s">
-        <v>52</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F136" t="s">
-        <v>54</v>
-      </c>
-      <c r="G136" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>28</v>
-      </c>
-      <c r="B137">
-        <v>10007</v>
-      </c>
       <c r="C137" t="s">
-        <v>64</v>
-      </c>
-      <c r="D137" t="s">
         <v>65</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>219</v>
+      <c r="E137" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="F137" t="s">
         <v>67</v>
       </c>
       <c r="G137" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B138">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F138" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B139">
-        <v>10009</v>
+        <v>10008</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D139" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F139" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G139" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B140">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="C140" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D140" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F140" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="G140" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B141">
-        <v>10011</v>
+        <v>10010</v>
       </c>
       <c r="C141" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="F141" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B142">
-        <v>10012</v>
+        <v>10011</v>
       </c>
       <c r="C142" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D142" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="F142" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G142" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B143">
+        <v>10012</v>
+      </c>
+      <c r="C143" t="s">
+        <v>77</v>
+      </c>
+      <c r="D143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F143" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144">
         <v>10013</v>
       </c>
-      <c r="C143" t="s">
-        <v>82</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F143" t="s">
-        <v>84</v>
-      </c>
-      <c r="G143" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
-        <v>29</v>
-      </c>
-      <c r="B145">
-        <v>12001</v>
-      </c>
-      <c r="C145" t="s">
-        <v>35</v>
-      </c>
-      <c r="D145" t="s">
-        <v>36</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F145" t="s">
-        <v>38</v>
-      </c>
-      <c r="G145" t="s">
-        <v>230</v>
-      </c>
+      <c r="C144" t="s">
+        <v>95</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F144" t="s">
+        <v>97</v>
+      </c>
+      <c r="G144" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B146">
-        <v>12002</v>
+        <v>12001</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D146" t="s">
-        <v>40</v>
-      </c>
-      <c r="E146" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="F146" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G146" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B147">
-        <v>12003</v>
+        <v>12002</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D147" t="s">
-        <v>43</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E147" s="2"/>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G147" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B148">
-        <v>12004</v>
+        <v>12003</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D148" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F148" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G148" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B149">
+        <v>12004</v>
+      </c>
+      <c r="C149" t="s">
+        <v>48</v>
+      </c>
+      <c r="D149" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" t="s">
+        <v>51</v>
+      </c>
+      <c r="G149" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B150">
         <v>12005</v>
       </c>
-      <c r="C149" t="s">
-        <v>35</v>
-      </c>
-      <c r="D149" t="s">
-        <v>49</v>
-      </c>
-      <c r="F149" t="s">
-        <v>38</v>
-      </c>
-      <c r="G149" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="150" ht="100.8" spans="1:7">
-      <c r="A150" t="s">
-        <v>29</v>
-      </c>
-      <c r="B150">
+      <c r="C150" t="s">
+        <v>48</v>
+      </c>
+      <c r="D150" t="s">
+        <v>62</v>
+      </c>
+      <c r="F150" t="s">
+        <v>51</v>
+      </c>
+      <c r="G150" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="151" ht="100.8" spans="1:7">
+      <c r="A151" t="s">
+        <v>41</v>
+      </c>
+      <c r="B151">
         <v>12006</v>
       </c>
-      <c r="C150" t="s">
-        <v>52</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F150" t="s">
-        <v>74</v>
-      </c>
-      <c r="G150" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="151" ht="57.6" spans="1:7">
-      <c r="A151" t="s">
-        <v>29</v>
-      </c>
-      <c r="B151">
+      <c r="C151" t="s">
+        <v>65</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F151" t="s">
+        <v>87</v>
+      </c>
+      <c r="G151" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="152" ht="57.6" spans="1:7">
+      <c r="A152" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152">
         <v>12020</v>
       </c>
-      <c r="C151" t="s">
-        <v>52</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F151" t="s">
-        <v>54</v>
-      </c>
-      <c r="G151" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" t="s">
-        <v>29</v>
-      </c>
-      <c r="B152">
-        <v>12007</v>
-      </c>
       <c r="C152" t="s">
-        <v>64</v>
-      </c>
-      <c r="D152" t="s">
         <v>65</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>239</v>
+      <c r="E152" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="F152" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G152" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B153">
-        <v>12008</v>
+        <v>12007</v>
       </c>
       <c r="C153" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D153" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="F153" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="G153" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B154">
-        <v>12009</v>
+        <v>12008</v>
       </c>
       <c r="C154" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D154" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F154" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G154" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B155">
-        <v>12010</v>
+        <v>12009</v>
       </c>
       <c r="C155" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D155" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F155" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G155" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B156">
-        <v>12012</v>
+        <v>12010</v>
       </c>
       <c r="C156" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="F156" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G156" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B157">
-        <v>12022</v>
+        <v>12012</v>
       </c>
       <c r="C157" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="D157" t="s">
+        <v>93</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="F157" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G157" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B158">
-        <v>12013</v>
+        <v>12022</v>
       </c>
       <c r="C158" t="s">
-        <v>86</v>
-      </c>
-      <c r="E158" t="s">
-        <v>246</v>
+        <v>95</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="F158" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="G158" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B159">
-        <v>12014</v>
+        <v>12013</v>
       </c>
       <c r="C159" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="E159" t="s">
+        <v>261</v>
       </c>
       <c r="F159" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G159" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B160">
-        <v>12015</v>
+        <v>12014</v>
       </c>
       <c r="C160" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F160" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="G160" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B161">
+        <v>12015</v>
+      </c>
+      <c r="C161" t="s">
+        <v>99</v>
+      </c>
+      <c r="F161" t="s">
+        <v>262</v>
+      </c>
+      <c r="G161" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162">
         <v>12016</v>
       </c>
-      <c r="C161" t="s">
-        <v>86</v>
-      </c>
-      <c r="E161" t="s">
-        <v>251</v>
-      </c>
-      <c r="F161" t="s">
-        <v>247</v>
-      </c>
-      <c r="G161" t="s">
-        <v>252</v>
+      <c r="C162" t="s">
+        <v>99</v>
+      </c>
+      <c r="E162" t="s">
+        <v>266</v>
+      </c>
+      <c r="F162" t="s">
+        <v>262</v>
+      </c>
+      <c r="G162" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E53">
+  <conditionalFormatting sqref="E54">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G83">
+  <conditionalFormatting sqref="G84">
     <cfRule type="containsText" dxfId="1" priority="16" operator="between" text="没做">
-      <formula>NOT(ISERROR(SEARCH("没做",G83)))</formula>
+      <formula>NOT(ISERROR(SEARCH("没做",G84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A151:C151">
+  <conditionalFormatting sqref="A152:C152">
     <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F159">
+  <conditionalFormatting sqref="F160">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G159">
+  <conditionalFormatting sqref="G160">
     <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
+  <conditionalFormatting sqref="F161">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G160">
+  <conditionalFormatting sqref="G161">
     <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
+  <conditionalFormatting sqref="F162">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G161">
+  <conditionalFormatting sqref="G162">
     <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:XFD158 H159:XFD161 A159:E161 $A162:$XFD1048576 A1:E150 F1:F149 A152:F158 F151">
+  <conditionalFormatting sqref="F1:XFD19 A1:E151 G20:XFD159 F152 A153:F159 F20:F150 H160:XFD162 A160:E162 $A163:$XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
@@ -6635,701 +6748,701 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>3006</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B29">
         <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B34">
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B42">
         <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B44">
         <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B46">
         <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B48">
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B49">
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B50">
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B51">
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2003,8 +2003,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2029,8 +2029,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2038,6 +2046,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2052,14 +2067,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2067,21 +2075,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2092,6 +2086,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2136,21 +2145,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2167,7 +2167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,13 +2200,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,43 +2326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2272,79 +2344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,19 +2374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,6 +2391,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2426,9 +2441,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2453,26 +2470,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2499,10 +2499,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2511,16 +2511,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2529,19 +2529,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2550,94 +2547,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3006,7 +3006,7 @@
   <sheetPr/>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -3404,8 +3404,8 @@
   <sheetPr/>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3815,7 +3815,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C19" t="s">
         <v>102</v>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,63 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_7FA6B63A9E544C29B1736ED3907F2C76" descr="機靈古怪 賽露西亞"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="274320"/>
+          <a:ext cx="1524000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="ID_58B811FD4C1647DD819D0EE93A788BBC" descr="精靈王 賽露西亞"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="1219200"/>
+          <a:ext cx="1524000" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="278">
   <si>
     <t>角色名</t>
   </si>
@@ -43,6 +98,9 @@
   </si>
   <si>
     <t>防御力</t>
+  </si>
+  <si>
+    <t>图片</t>
   </si>
   <si>
     <t>机灵古怪 塞露西亚</t>
@@ -2003,10 +2061,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2029,9 +2087,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2044,22 +2116,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2073,9 +2155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2089,16 +2178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2111,11 +2193,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2135,39 +2224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2200,7 +2258,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2212,7 +2294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,19 +2306,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2248,13 +2324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2266,7 +2336,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2278,97 +2426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2380,7 +2438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,6 +2449,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2409,17 +2502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2439,44 +2526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2491,6 +2540,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2499,10 +2557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2511,133 +2569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3004,19 +3062,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="13.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3044,28 +3103,31 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>281230</v>
@@ -3073,28 +3135,32 @@
       <c r="I2">
         <v>960611</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="str">
+        <f>_xlfn.DISPIMG("ID_7FA6B63A9E544C29B1736ED3907F2C76",1)</f>
+        <v>=DISPIMG("ID_7FA6B63A9E544C29B1736ED3907F2C76",1)</v>
+      </c>
+    </row>
+    <row r="3" ht="75" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>243585</v>
@@ -3102,28 +3168,32 @@
       <c r="I3">
         <v>1006228</v>
       </c>
+      <c r="J3" t="str">
+        <f>_xlfn.DISPIMG("ID_58B811FD4C1647DD819D0EE93A788BBC",1)</f>
+        <v>=DISPIMG("ID_58B811FD4C1647DD819D0EE93A788BBC",1)</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>248899</v>
@@ -3134,25 +3204,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>256871</v>
@@ -3163,25 +3233,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6">
         <v>270601</v>
@@ -3192,25 +3262,25 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>2000</v>
@@ -3221,25 +3291,25 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>2000</v>
@@ -3250,25 +3320,25 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>2000</v>
@@ -3279,25 +3349,25 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10">
         <v>2000</v>
@@ -3308,25 +3378,25 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11">
         <v>2000</v>
@@ -3337,25 +3407,25 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12">
         <v>2000</v>
@@ -3366,25 +3436,25 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13">
         <v>271929</v>
@@ -3404,7 +3474,7 @@
   <sheetPr/>
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -3419,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3428,2050 +3498,2050 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1011</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>1019</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>2002</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>2004</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>2007</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>2008</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>2009</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>2010</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>2011</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>2012</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B34">
         <v>6001</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>3001</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>3002</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38">
         <v>3003</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>3004</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>3005</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>3006</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>3007</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>3008</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>3009</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>3010</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>3011</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>3012</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B49">
         <v>4001</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50">
         <v>4002</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>4003</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>4004</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>4005</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>4006</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>4007</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>4008</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>4009</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>4010</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B59">
         <v>4011</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B60">
         <v>4012</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G60" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B62">
         <v>5001</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>5002</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>5003</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>5004</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>5005</v>
       </c>
       <c r="C66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B67">
         <v>5006</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68">
         <v>5007</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B69">
         <v>5008</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B70">
         <v>5009</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B71">
         <v>5010</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" t="s">
         <v>92</v>
       </c>
-      <c r="F71" t="s">
-        <v>91</v>
-      </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B72">
         <v>5011</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B73">
         <v>5012</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B74">
         <v>5013</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B76">
         <v>11001</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B77">
         <v>11002</v>
       </c>
       <c r="C77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B78">
         <v>11003</v>
       </c>
       <c r="C78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B79">
         <v>11004</v>
       </c>
       <c r="C79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B80">
         <v>11005</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B81">
         <v>11006</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B82">
         <v>11007</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B83">
         <v>11008</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <v>11009</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B85">
         <v>11010</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B86">
         <v>11011</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G86" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B87">
         <v>11012</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B88">
         <v>11013</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F88" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B90">
         <v>7001</v>
       </c>
       <c r="C90" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G90" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B91">
         <v>7002</v>
       </c>
       <c r="C91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B92">
         <v>7003</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F92" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B93">
         <v>7004</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B94">
         <v>7005</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G94" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B95">
         <v>7006</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B96">
         <v>7007</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B97">
         <v>7008</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B98">
         <v>7009</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B99">
         <v>7010</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F99" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G99" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B100">
         <v>7011</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G100" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B101">
         <v>7012</v>
       </c>
       <c r="C101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F101" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -5479,16 +5549,16 @@
         <v>7013</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -5496,13 +5566,13 @@
         <v>7014</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -5510,529 +5580,529 @@
         <v>7015</v>
       </c>
       <c r="C104" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B106">
         <v>8001</v>
       </c>
       <c r="C106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G106" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B107">
         <v>8002</v>
       </c>
       <c r="C107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B108">
         <v>8003</v>
       </c>
       <c r="C108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F108" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B109">
         <v>8004</v>
       </c>
       <c r="C109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F109" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G109" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B110">
         <v>8005</v>
       </c>
       <c r="C110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B111">
         <v>8006</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B112">
         <v>8007</v>
       </c>
       <c r="C112" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B113">
         <v>8008</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B114">
         <v>8009</v>
       </c>
       <c r="C114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D114" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B115">
         <v>8010</v>
       </c>
       <c r="C115" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E115" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G115" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B116">
         <v>8011</v>
       </c>
       <c r="C116" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D116" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E116" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G116" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B117">
         <v>8012</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F117" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B119">
         <v>9001</v>
       </c>
       <c r="C119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G119" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B120">
         <v>9002</v>
       </c>
       <c r="C120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G120" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B121">
         <v>9003</v>
       </c>
       <c r="C121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G121" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B122">
         <v>9004</v>
       </c>
       <c r="C122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F122" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B123">
         <v>9005</v>
       </c>
       <c r="C123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F123" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B124">
         <v>9006</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G124" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B125">
         <v>9007</v>
       </c>
       <c r="C125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G125" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B126">
         <v>9008</v>
       </c>
       <c r="C126" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F126" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B127">
         <v>9009</v>
       </c>
       <c r="C127" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D127" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B128">
         <v>9010</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D128" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F128" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G128" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B129">
         <v>9011</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F129" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B130">
         <v>9012</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F130" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="5:5">
@@ -6040,287 +6110,287 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B132">
         <v>10001</v>
       </c>
       <c r="C132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B133">
         <v>10002</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D133" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B134">
         <v>10003</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G134" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B135">
         <v>10004</v>
       </c>
       <c r="C135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G135" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B136">
         <v>10005</v>
       </c>
       <c r="C136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G136" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="137" ht="63" spans="1:7">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B137">
         <v>10006</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F137" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G137" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B138">
         <v>10007</v>
       </c>
       <c r="C138" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D138" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F138" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B139">
         <v>10008</v>
       </c>
       <c r="C139" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G139" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B140">
         <v>10009</v>
       </c>
       <c r="C140" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D140" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F140" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G140" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B141">
         <v>10010</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D141" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B142">
         <v>10011</v>
       </c>
       <c r="C142" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F142" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G142" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B143">
         <v>10012</v>
       </c>
       <c r="C143" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D143" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F143" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G143" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B144">
         <v>10013</v>
       </c>
       <c r="C144" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F144" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G144" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="145" spans="5:5">
@@ -6328,355 +6398,355 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B146">
         <v>12001</v>
       </c>
       <c r="C146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D146" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F146" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B147">
         <v>12002</v>
       </c>
       <c r="C147" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D147" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G147" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B148">
         <v>12003</v>
       </c>
       <c r="C148" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G148" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B149">
         <v>12004</v>
       </c>
       <c r="C149" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F149" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G149" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B150">
         <v>12005</v>
       </c>
       <c r="C150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F150" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G150" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" ht="100.8" spans="1:7">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B151">
         <v>12006</v>
       </c>
       <c r="C151" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F151" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" ht="57.6" spans="1:7">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B152">
         <v>12020</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B153">
         <v>12007</v>
       </c>
       <c r="C153" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D153" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B154">
         <v>12008</v>
       </c>
       <c r="C154" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D154" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G154" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B155">
         <v>12009</v>
       </c>
       <c r="C155" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D155" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G155" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B156">
         <v>12010</v>
       </c>
       <c r="C156" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F156" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G156" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B157">
         <v>12012</v>
       </c>
       <c r="C157" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D157" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F157" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G157" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B158">
         <v>12022</v>
       </c>
       <c r="C158" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F158" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G158" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B159">
         <v>12013</v>
       </c>
       <c r="C159" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E159" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B160">
         <v>12014</v>
       </c>
       <c r="C160" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F160" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G160" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B161">
         <v>12015</v>
       </c>
       <c r="C161" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F161" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B162">
         <v>12016</v>
       </c>
       <c r="C162" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F162" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6748,701 +6818,701 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3006</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29">
         <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B30">
         <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43">
         <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44">
         <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48">
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="10848" windowHeight="9275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="280">
   <si>
     <t>角色名</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <t>图鉴攻击力</t>
+  </si>
+  <si>
+    <t>图鉴生命值</t>
   </si>
   <si>
     <t>机灵古怪 塞露西亚</t>
@@ -2062,9 +2068,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2087,37 +2093,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2132,31 +2117,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2171,18 +2133,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2194,23 +2148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,7 +2163,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2258,31 +2264,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2300,7 +2306,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2312,43 +2408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2360,67 +2426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,13 +2444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,22 +2473,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2506,7 +2507,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2526,17 +2536,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2544,8 +2550,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2557,10 +2563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2569,133 +2575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3062,10 +3068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3073,9 +3079,23 @@
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="13.8888888888889"/>
+    <col min="11" max="14" width="12.8888888888889"/>
+    <col min="17" max="17" width="9.66666666666667"/>
+    <col min="18" max="18" width="10.6666666666667"/>
+    <col min="19" max="19" width="11.7777777777778"/>
+    <col min="20" max="21" width="12.8888888888889"/>
+    <col min="22" max="22" width="11.7777777777778"/>
+    <col min="23" max="34" width="12.8888888888889"/>
+    <col min="35" max="35" width="10.6666666666667"/>
+    <col min="36" max="36" width="11.7777777777778"/>
+    <col min="37" max="44" width="12.8888888888889"/>
+    <col min="45" max="45" width="11.7777777777778"/>
+    <col min="46" max="49" width="12.8888888888889"/>
+    <col min="50" max="50" width="11.7777777777778"/>
+    <col min="51" max="66" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3106,181 +3126,227 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="75" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:12">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>281230</v>
+        <v>1016</v>
       </c>
       <c r="I2">
-        <v>960611</v>
+        <v>3470.4</v>
       </c>
       <c r="J2" t="str">
         <f>_xlfn.DISPIMG("ID_7FA6B63A9E544C29B1736ED3907F2C76",1)</f>
         <v>=DISPIMG("ID_7FA6B63A9E544C29B1736ED3907F2C76",1)</v>
       </c>
-    </row>
-    <row r="3" ht="75" spans="1:10">
+      <c r="K2">
+        <f>H2*1.1^59</f>
+        <v>281230.314340075</v>
+      </c>
+      <c r="L2">
+        <f>I2*1.1^59</f>
+        <v>960611.89260413</v>
+      </c>
+    </row>
+    <row r="3" ht="75" spans="1:12">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>243585</v>
+        <v>880</v>
       </c>
       <c r="I3">
-        <v>1006228</v>
+        <v>3635.2</v>
       </c>
       <c r="J3" t="str">
         <f>_xlfn.DISPIMG("ID_58B811FD4C1647DD819D0EE93A788BBC",1)</f>
         <v>=DISPIMG("ID_58B811FD4C1647DD819D0EE93A788BBC",1)</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="0">H3*1.1^59</f>
+        <v>243585.311633136</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="1">I3*1.1^59</f>
+        <v>1006228.77823724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>248899</v>
+        <v>899.2</v>
       </c>
       <c r="I4">
-        <v>984084</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>3555.2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>248899.900250586</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>984084.658997868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>256871</v>
+        <v>928</v>
       </c>
       <c r="I5">
-        <v>954411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3448</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>256871.783176761</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>954411.539217104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>270601</v>
+        <v>977.6</v>
       </c>
       <c r="I6">
-        <v>997814</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3604.8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>270601.137105174</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>997814.012926281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7">
         <v>2000</v>
@@ -3288,179 +3354,243 @@
       <c r="I7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>553602.980984399</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>553602.980984399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>2000</v>
+        <v>1001.6</v>
       </c>
       <c r="I8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>3521.6</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>277244.372876987</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>974784.12891733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>2000</v>
+        <v>940.8</v>
       </c>
       <c r="I9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>3748.8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>260414.842255061</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1037673.42755716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>2000</v>
+        <v>904</v>
       </c>
       <c r="I10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3539.2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>250228.547404948</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>979655.835149993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>2000</v>
+        <v>745.6</v>
       </c>
       <c r="I11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>4724.8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>206383.191310984</v>
+      </c>
+      <c r="L11">
+        <f>I11*1.1^59</f>
+        <v>1307831.68227754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>2000</v>
+        <v>3476.8</v>
       </c>
       <c r="I12">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1012.8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>962383.42214328</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>280344.5495705</v>
+      </c>
+      <c r="M12">
+        <f>H12/1.1^59</f>
+        <v>12.5606260060871</v>
+      </c>
+      <c r="N12">
+        <f>I12/1.1^59</f>
+        <v>3.65893983518323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>271929</v>
+        <v>982.4</v>
       </c>
       <c r="I13">
-        <v>993385</v>
+        <v>3588.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>271929.784259537</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>993385.189078406</v>
       </c>
     </row>
   </sheetData>
@@ -3489,7 +3619,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3498,2050 +3628,2050 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1011</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
         <v>83</v>
       </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" t="s">
-        <v>81</v>
-      </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>1019</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>2002</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>2004</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>2007</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>2008</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>2009</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>2010</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>2011</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" t="s">
-        <v>92</v>
-      </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>2012</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>6001</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>3001</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>3002</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
         <v>54</v>
       </c>
-      <c r="F37" t="s">
-        <v>52</v>
-      </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>3003</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>3004</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B40">
         <v>3005</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B41">
         <v>3006</v>
       </c>
       <c r="C41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>3007</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B43">
         <v>3008</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>3009</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>3010</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>3011</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>136</v>
+      </c>
+      <c r="F46" t="s">
         <v>94</v>
       </c>
-      <c r="E46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
       <c r="G46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>3012</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>4001</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B50">
         <v>4002</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" t="s">
         <v>54</v>
       </c>
-      <c r="E50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F50" t="s">
-        <v>52</v>
-      </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>4003</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>4004</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>4005</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>4006</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B55">
         <v>4007</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B56">
         <v>4008</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>4009</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>4010</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B59">
         <v>4011</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" t="s">
         <v>94</v>
       </c>
-      <c r="E59" t="s">
-        <v>95</v>
-      </c>
-      <c r="F59" t="s">
-        <v>92</v>
-      </c>
       <c r="G59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <v>4012</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B62">
         <v>5001</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B63">
         <v>5002</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" t="s">
+        <v>158</v>
+      </c>
+      <c r="F63" t="s">
         <v>54</v>
       </c>
-      <c r="E63" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" t="s">
-        <v>52</v>
-      </c>
       <c r="G63" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B64">
         <v>5003</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B65">
         <v>5004</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G65" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>5005</v>
       </c>
       <c r="C66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G66" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>5006</v>
       </c>
       <c r="C67" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B68">
         <v>5007</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B69">
         <v>5008</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B70">
         <v>5009</v>
       </c>
       <c r="C70" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B71">
         <v>5010</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B72">
         <v>5011</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D72" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" t="s">
         <v>94</v>
       </c>
-      <c r="E72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F72" t="s">
-        <v>92</v>
-      </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B73">
         <v>5012</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B74">
         <v>5013</v>
       </c>
       <c r="C74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B76">
         <v>11001</v>
       </c>
       <c r="C76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B77">
         <v>11002</v>
       </c>
       <c r="C77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" t="s">
+        <v>177</v>
+      </c>
+      <c r="F77" t="s">
         <v>54</v>
       </c>
-      <c r="E77" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" t="s">
-        <v>52</v>
-      </c>
       <c r="G77" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B78">
         <v>11003</v>
       </c>
       <c r="C78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G78" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B79">
         <v>11004</v>
       </c>
       <c r="C79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G79" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B80">
         <v>11005</v>
       </c>
       <c r="C80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B81">
         <v>11006</v>
       </c>
       <c r="C81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G81" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B82">
         <v>11007</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F82" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B83">
         <v>11008</v>
       </c>
       <c r="C83" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B84">
         <v>11009</v>
       </c>
       <c r="C84" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85">
         <v>11010</v>
       </c>
       <c r="C85" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B86">
         <v>11011</v>
       </c>
       <c r="C86" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D86" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" t="s">
         <v>94</v>
       </c>
-      <c r="E86" t="s">
-        <v>189</v>
-      </c>
-      <c r="F86" t="s">
-        <v>92</v>
-      </c>
       <c r="G86" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B87">
         <v>11012</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G87" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B88">
         <v>11013</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B90">
         <v>7001</v>
       </c>
       <c r="C90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G90" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B91">
         <v>7002</v>
       </c>
       <c r="C91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" t="s">
         <v>54</v>
       </c>
-      <c r="F91" t="s">
-        <v>52</v>
-      </c>
       <c r="G91" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B92">
         <v>7003</v>
       </c>
       <c r="C92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F92" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B93">
         <v>7004</v>
       </c>
       <c r="C93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B94">
         <v>7005</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F94" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B95">
         <v>7006</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G95" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B96">
         <v>7007</v>
       </c>
       <c r="C96" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B97">
         <v>7008</v>
       </c>
       <c r="C97" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D97" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F97" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B98">
         <v>7009</v>
       </c>
       <c r="C98" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D98" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E98" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F98" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B99">
         <v>7010</v>
       </c>
       <c r="C99" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F99" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G99" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B100">
         <v>7011</v>
       </c>
       <c r="C100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" t="s">
+        <v>191</v>
+      </c>
+      <c r="F100" t="s">
         <v>94</v>
       </c>
-      <c r="E100" t="s">
-        <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>92</v>
-      </c>
       <c r="G100" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B101">
         <v>7012</v>
       </c>
       <c r="C101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G101" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -5549,16 +5679,16 @@
         <v>7013</v>
       </c>
       <c r="C102" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -5566,13 +5696,13 @@
         <v>7014</v>
       </c>
       <c r="C103" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -5580,529 +5710,529 @@
         <v>7015</v>
       </c>
       <c r="C104" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B106">
         <v>8001</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G106" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B107">
         <v>8002</v>
       </c>
       <c r="C107" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D107" t="s">
+        <v>56</v>
+      </c>
+      <c r="F107" t="s">
         <v>54</v>
       </c>
-      <c r="F107" t="s">
-        <v>52</v>
-      </c>
       <c r="G107" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B108">
         <v>8003</v>
       </c>
       <c r="C108" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G108" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B109">
         <v>8004</v>
       </c>
       <c r="C109" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G109" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B110">
         <v>8005</v>
       </c>
       <c r="C110" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D110" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G110" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B111">
         <v>8006</v>
       </c>
       <c r="C111" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E111" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G111" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B112">
         <v>8007</v>
       </c>
       <c r="C112" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B113">
         <v>8008</v>
       </c>
       <c r="C113" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E113" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G113" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B114">
         <v>8009</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D114" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E114" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G114" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B115">
         <v>8010</v>
       </c>
       <c r="C115" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E115" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F115" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G115" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B116">
         <v>8011</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D116" t="s">
+        <v>96</v>
+      </c>
+      <c r="E116" t="s">
+        <v>219</v>
+      </c>
+      <c r="F116" t="s">
         <v>94</v>
       </c>
-      <c r="E116" t="s">
-        <v>217</v>
-      </c>
-      <c r="F116" t="s">
-        <v>92</v>
-      </c>
       <c r="G116" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B117">
         <v>8012</v>
       </c>
       <c r="C117" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E117" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F117" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G117" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B119">
         <v>9001</v>
       </c>
       <c r="C119" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D119" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G119" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B120">
         <v>9002</v>
       </c>
       <c r="C120" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D120" t="s">
+        <v>56</v>
+      </c>
+      <c r="F120" t="s">
         <v>54</v>
       </c>
-      <c r="F120" t="s">
-        <v>52</v>
-      </c>
       <c r="G120" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B121">
         <v>9003</v>
       </c>
       <c r="C121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D121" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F121" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G121" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B122">
         <v>9004</v>
       </c>
       <c r="C122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D122" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F122" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G122" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B123">
         <v>9005</v>
       </c>
       <c r="C123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D123" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F123" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G123" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B124">
         <v>9006</v>
       </c>
       <c r="C124" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F124" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G124" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B125">
         <v>9007</v>
       </c>
       <c r="C125" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F125" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G125" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B126">
         <v>9008</v>
       </c>
       <c r="C126" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F126" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G126" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B127">
         <v>9009</v>
       </c>
       <c r="C127" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D127" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F127" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G127" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B128">
         <v>9010</v>
       </c>
       <c r="C128" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F128" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G128" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B129">
         <v>9011</v>
       </c>
       <c r="C129" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D129" t="s">
+        <v>96</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F129" t="s">
         <v>94</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F129" t="s">
-        <v>92</v>
-      </c>
       <c r="G129" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B130">
         <v>9012</v>
       </c>
       <c r="C130" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F130" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G130" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="5:5">
@@ -6110,287 +6240,287 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B132">
         <v>10001</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F132" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G132" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B133">
         <v>10002</v>
       </c>
       <c r="C133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D133" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G133" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B134">
         <v>10003</v>
       </c>
       <c r="C134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D134" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G134" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B135">
         <v>10004</v>
       </c>
       <c r="C135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D135" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G135" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B136">
         <v>10005</v>
       </c>
       <c r="C136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G136" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" ht="63" spans="1:7">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B137">
         <v>10006</v>
       </c>
       <c r="C137" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F137" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G137" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B138">
         <v>10007</v>
       </c>
       <c r="C138" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D138" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F138" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G138" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B139">
         <v>10008</v>
       </c>
       <c r="C139" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D139" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F139" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G139" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B140">
         <v>10009</v>
       </c>
       <c r="C140" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D140" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F140" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G140" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B141">
         <v>10010</v>
       </c>
       <c r="C141" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D141" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F141" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G141" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B142">
         <v>10011</v>
       </c>
       <c r="C142" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D142" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F142" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G142" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B143">
         <v>10012</v>
       </c>
       <c r="C143" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D143" t="s">
+        <v>96</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F143" t="s">
         <v>94</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F143" t="s">
-        <v>92</v>
-      </c>
       <c r="G143" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B144">
         <v>10013</v>
       </c>
       <c r="C144" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F144" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G144" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="145" spans="5:5">
@@ -6398,355 +6528,355 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B146">
         <v>12001</v>
       </c>
       <c r="C146" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D146" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F146" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G146" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B147">
         <v>12002</v>
       </c>
       <c r="C147" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D147" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G147" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B148">
         <v>12003</v>
       </c>
       <c r="C148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D148" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F148" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G148" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B149">
         <v>12004</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D149" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G149" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B150">
         <v>12005</v>
       </c>
       <c r="C150" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D150" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G150" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="151" ht="100.8" spans="1:7">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B151">
         <v>12006</v>
       </c>
       <c r="C151" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F151" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G151" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="152" ht="57.6" spans="1:7">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B152">
         <v>12020</v>
       </c>
       <c r="C152" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F152" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G152" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B153">
         <v>12007</v>
       </c>
       <c r="C153" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D153" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F153" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G153" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B154">
         <v>12008</v>
       </c>
       <c r="C154" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F154" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G154" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B155">
         <v>12009</v>
       </c>
       <c r="C155" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D155" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F155" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G155" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B156">
         <v>12010</v>
       </c>
       <c r="C156" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D156" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F156" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G156" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B157">
         <v>12012</v>
       </c>
       <c r="C157" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D157" t="s">
+        <v>96</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F157" t="s">
         <v>94</v>
       </c>
-      <c r="E157" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F157" t="s">
-        <v>92</v>
-      </c>
       <c r="G157" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B158">
         <v>12022</v>
       </c>
       <c r="C158" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F158" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G158" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B159">
         <v>12013</v>
       </c>
       <c r="C159" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E159" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F159" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G159" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B160">
         <v>12014</v>
       </c>
       <c r="C160" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F160" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G160" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B161">
         <v>12015</v>
       </c>
       <c r="C161" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F161" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G161" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B162">
         <v>12016</v>
       </c>
       <c r="C162" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E162" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F162" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G162" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6818,701 +6948,701 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>3006</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B31">
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10848" windowHeight="9275"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="299">
   <si>
     <t>角色名</t>
   </si>
@@ -127,6 +127,9 @@
     <t>SSR</t>
   </si>
   <si>
+    <t>验证通过</t>
+  </si>
+  <si>
     <t>精灵王 塞露西亚</t>
   </si>
   <si>
@@ -211,6 +214,15 @@
     <t>梦露</t>
   </si>
   <si>
+    <t>队员位验证通过</t>
+  </si>
+  <si>
+    <t>梦游魔境 千鹤</t>
+  </si>
+  <si>
+    <t>梦鹤</t>
+  </si>
+  <si>
     <t>技能所属者</t>
   </si>
   <si>
@@ -535,7 +547,7 @@
     <t>必杀时，触发“使我方全体风属性角色必杀技伤害+15%（最多2层）”效果</t>
   </si>
   <si>
-    <t>队伍中风属性必杀技伤害+15%(2层)</t>
+    <t>队伍中风属性必杀技伤害+15%(最多2层)</t>
   </si>
   <si>
     <t>自身必杀技伤害+10%</t>
@@ -934,7 +946,7 @@
     <t>每经过4回合，触发"使目标受到伤害增加35%(1回合)"效果</t>
   </si>
   <si>
-    <t>4N+1回合触发:目标受到伤害+35%(1回合)</t>
+    <t>3N+1回合触发:目标受到伤害+35%(1回合)</t>
   </si>
   <si>
     <t>第1回合时，触发"使我方治疗者与辅助者必杀技伤害增加40%(50回合)"效果</t>
@@ -2033,6 +2045,209 @@
   </si>
   <si>
     <t>对目标60%普攻伤害</t>
+  </si>
+  <si>
+    <r>
+      <t>使自身攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30/35/40/45/50%(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，再以自身攻击力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30/30/35/35/40%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方全体攻击力增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CD: 4</t>
+    </r>
+  </si>
+  <si>
+    <t>自身攻击力+30%(1回合),友方攻击力数值+30%(1回合)</t>
+  </si>
+  <si>
+    <t>自身攻击力+35%(1回合),友方攻击力数值+30%(1回合)</t>
+  </si>
+  <si>
+    <t>自身攻击力+40%(1回合),友方攻击力数值+35%(1回合)</t>
+  </si>
+  <si>
+    <t>自身攻击力+45%(1回合),友方攻击力数值+35%(1回合)</t>
+  </si>
+  <si>
+    <t>自身攻击力+50%(1回合),友方攻击力数值+40%(1回合)</t>
+  </si>
+  <si>
+    <t>使我方全体获得&lt;队伍中至少有3名攻击者时，发动《小兔子团结一心》&gt;
+使自身获得&lt;队伍中至少有3名攻击者时，发动《大家一起蹦》&gt;
+每经过一回合，触发&lt;《蹦蹦跳》&gt;
+《小兔子团结一心》
+必杀技伤害增加50%
+最大HP增加30%
+《大家一起蹦》
+必杀时，触发&lt;使我方全体攻击者当前必杀技CD减少1回合&gt;
+《踹蹦跳》
+普攻时，触发&lt;使梦游魔境千鹤攻击力增加15%(5回合)&gt; (1回合)</t>
+  </si>
+  <si>
+    <t>每经过1回合，触发&lt;使我方全体攻击力增加2.5%(最多8层)&gt;</t>
+  </si>
+  <si>
+    <t>1N+1回合触发:友方攻击力+2.5%(最多8层)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发&lt;使我方全体被治疗时回复量增加30%(50回合)&gt;
+每经过1回合，触发&lt;以自身攻击力20%对我方全体进行治疗&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>普攻时，触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使我方全体普攻伤害增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40%(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF2E6190"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>友方普攻伤害+40%(1回合)</t>
+  </si>
+  <si>
+    <t>必杀时，触发&lt;使我方全体必杀伤害增加15%(1回合)&gt;</t>
+  </si>
+  <si>
+    <t>友方必杀技伤害+15%(1回合)</t>
+  </si>
+  <si>
+    <t>被动技能</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -2705,7 +2920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2726,6 +2941,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3068,10 +3289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3079,7 +3300,7 @@
     <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
     <col min="9" max="9" width="16.3333333333333" customWidth="1"/>
     <col min="10" max="10" width="13.8888888888889"/>
-    <col min="11" max="14" width="12.8888888888889"/>
+    <col min="11" max="16" width="12.8888888888889"/>
     <col min="17" max="17" width="9.66666666666667"/>
     <col min="18" max="18" width="10.6666666666667"/>
     <col min="19" max="19" width="11.7777777777778"/>
@@ -3133,7 +3354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="75" spans="1:12">
+    <row r="2" ht="75" spans="1:15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3173,13 +3394,24 @@
         <f>I2*1.1^59</f>
         <v>960611.89260413</v>
       </c>
-    </row>
-    <row r="3" ht="75" spans="1:12">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2">
+        <f>K2*3.25</f>
+        <v>913998.521605243</v>
+      </c>
+      <c r="O2">
+        <f>L2*3.25*1.35</f>
+        <v>4214684.67880062</v>
+      </c>
+    </row>
+    <row r="3" ht="75" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3188,10 +3420,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -3214,13 +3446,24 @@
         <f t="shared" ref="L3:L13" si="1">I3*1.1^59</f>
         <v>1006228.77823724</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <f>K3*3.25</f>
+        <v>791652.262807691</v>
+      </c>
+      <c r="O3">
+        <f>L3*3.25*1.35</f>
+        <v>4414828.76451591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3229,10 +3472,10 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -3251,13 +3494,24 @@
         <f t="shared" si="1"/>
         <v>984084.658997868</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N14" si="2">K4*3.25</f>
+        <v>808924.675814404</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O14" si="3">L4*3.25*1.35</f>
+        <v>4317671.44135315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3269,7 +3523,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -3288,13 +3542,24 @@
         <f t="shared" si="1"/>
         <v>954411.539217104</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>834833.295324474</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>4187480.62831504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3325,13 +3590,24 @@
         <f t="shared" si="1"/>
         <v>997814.012926281</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>879453.695591817</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>4377908.98171406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -3362,19 +3638,27 @@
         <f t="shared" si="1"/>
         <v>553602.980984399</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1799209.6881993</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>2428933.07906905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -3399,22 +3683,30 @@
         <f t="shared" si="1"/>
         <v>974784.12891733</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>901044.211850208</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>4276865.36562479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -3436,22 +3728,30 @@
         <f t="shared" si="1"/>
         <v>1037673.42755716</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>846348.237328949</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>4552792.16340703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -3473,22 +3773,30 @@
         <f t="shared" si="1"/>
         <v>979655.835149993</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>813242.779066082</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>4298239.97672059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -3510,19 +3818,27 @@
         <f>I11*1.1^59</f>
         <v>1307831.68227754</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>670745.371760698</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>5738111.50599273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -3547,21 +3863,25 @@
         <f t="shared" si="1"/>
         <v>280344.5495705</v>
       </c>
-      <c r="M12">
-        <f>H12/1.1^59</f>
-        <v>12.5606260060871</v>
-      </c>
       <c r="N12">
+        <f t="shared" si="2"/>
+        <v>3127746.12196566</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>1230011.71124057</v>
+      </c>
+      <c r="P12">
         <f>I12/1.1^59</f>
         <v>3.65893983518323</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -3591,6 +3911,73 @@
       <c r="L13">
         <f t="shared" si="1"/>
         <v>993385.189078406</v>
+      </c>
+      <c r="M13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>883771.798843495</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>4358477.51708151</v>
+      </c>
+      <c r="P13">
+        <f>I13/1.1^59</f>
+        <v>12.9652481047646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>979.2</v>
+      </c>
+      <c r="I14">
+        <v>3596.8</v>
+      </c>
+      <c r="K14">
+        <f>H14*1.1^59</f>
+        <v>271044.019489962</v>
+      </c>
+      <c r="L14">
+        <f>I14*1.1^59</f>
+        <v>995599.601002344</v>
+      </c>
+      <c r="M14" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>880893.063342376</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>4368193.24939778</v>
+      </c>
+      <c r="P14">
+        <f>I14/1.1^59</f>
+        <v>12.9941496832415</v>
       </c>
     </row>
   </sheetData>
@@ -3602,10 +3989,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3619,7 +4006,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -3628,16 +4015,16 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3648,19 +4035,19 @@
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3671,19 +4058,19 @@
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3694,19 +4081,19 @@
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3717,19 +4104,19 @@
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3740,19 +4127,19 @@
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3763,16 +4150,16 @@
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3783,16 +4170,16 @@
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3803,16 +4190,16 @@
         <v>1008</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3823,16 +4210,16 @@
         <v>1009</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3843,16 +4230,16 @@
         <v>1011</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3863,19 +4250,19 @@
         <v>1012</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3886,19 +4273,19 @@
         <v>1013</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3909,19 +4296,19 @@
         <v>1014</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:7">
@@ -3932,19 +4319,19 @@
         <v>1015</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3955,19 +4342,19 @@
         <v>1016</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3978,16 +4365,16 @@
         <v>1017</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3998,16 +4385,16 @@
         <v>1018</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4018,1660 +4405,1660 @@
         <v>1019</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2001</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2002</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>2003</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>2004</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>2005</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>2006</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>2007</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>2008</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>2009</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>2010</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>2011</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>2012</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>6001</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>3001</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37">
         <v>3002</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>3003</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G38" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39">
         <v>3004</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>3005</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B41">
         <v>3006</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B42">
         <v>3007</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>3008</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44">
         <v>3009</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45">
         <v>3010</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46">
         <v>3011</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B47">
         <v>3012</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B49">
         <v>4001</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>4002</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51">
         <v>4003</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52">
         <v>4004</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53">
         <v>4005</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G53" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54">
         <v>4006</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>4007</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G55" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>4008</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G56" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B57">
         <v>4009</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>4010</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G58" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B59">
         <v>4011</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G59" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B60">
         <v>4012</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G60" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <v>5001</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G62" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B63">
         <v>5002</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G63" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <v>5003</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F64" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G64" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <v>5004</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G65" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B66">
         <v>5005</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G66" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B67">
         <v>5006</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F67" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G67" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B68">
         <v>5007</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69">
         <v>5008</v>
       </c>
       <c r="C69" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D69" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G69" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70">
         <v>5009</v>
       </c>
       <c r="C70" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71">
         <v>5010</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B72">
         <v>5011</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B73">
         <v>5012</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G73" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B74">
         <v>5013</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B76">
         <v>11001</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B77">
         <v>11002</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D77" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G77" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B78">
         <v>11003</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G78" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B79">
         <v>11004</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B80">
         <v>11005</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81">
         <v>11006</v>
       </c>
       <c r="C81" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F81" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G81" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82">
         <v>11007</v>
       </c>
       <c r="C82" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F82" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83">
         <v>11008</v>
       </c>
       <c r="C83" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84">
         <v>11009</v>
       </c>
       <c r="C84" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G84" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85">
         <v>11010</v>
       </c>
       <c r="C85" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86">
         <v>11011</v>
       </c>
       <c r="C86" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E86" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G86" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87">
         <v>11012</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G87" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88">
         <v>11013</v>
       </c>
       <c r="C88" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G88" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B90">
         <v>7001</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F90" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B91">
         <v>7002</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B92">
         <v>7003</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D92" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B93">
         <v>7004</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D93" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G93" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B94">
         <v>7005</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G94" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B95">
         <v>7006</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F95" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B96">
         <v>7007</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G96" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B97">
         <v>7008</v>
       </c>
       <c r="C97" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D97" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E97" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F97" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G97" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B98">
         <v>7009</v>
       </c>
       <c r="C98" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D98" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F98" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G98" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B99">
         <v>7010</v>
       </c>
       <c r="C99" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D99" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G99" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B100">
         <v>7011</v>
       </c>
       <c r="C100" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G100" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B101">
         <v>7012</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G101" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -5679,16 +6066,16 @@
         <v>7013</v>
       </c>
       <c r="C102" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F102" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G102" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -5696,13 +6083,13 @@
         <v>7014</v>
       </c>
       <c r="C103" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F103" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G103" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -5710,529 +6097,529 @@
         <v>7015</v>
       </c>
       <c r="C104" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F104" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G104" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B106">
         <v>8001</v>
       </c>
       <c r="C106" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F106" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G106" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B107">
         <v>8002</v>
       </c>
       <c r="C107" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D107" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G107" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B108">
         <v>8003</v>
       </c>
       <c r="C108" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D108" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G108" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B109">
         <v>8004</v>
       </c>
       <c r="C109" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D109" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F109" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B110">
         <v>8005</v>
       </c>
       <c r="C110" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D110" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F110" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G110" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B111">
         <v>8006</v>
       </c>
       <c r="C111" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E111" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B112">
         <v>8007</v>
       </c>
       <c r="C112" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G112" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B113">
         <v>8008</v>
       </c>
       <c r="C113" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D113" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E113" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G113" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B114">
         <v>8009</v>
       </c>
       <c r="C114" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E114" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G114" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B115">
         <v>8010</v>
       </c>
       <c r="C115" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D115" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E115" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G115" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B116">
         <v>8011</v>
       </c>
       <c r="C116" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D116" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G116" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B117">
         <v>8012</v>
       </c>
       <c r="C117" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E117" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G117" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B119">
         <v>9001</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D119" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G119" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B120">
         <v>9002</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D120" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F120" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G120" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B121">
         <v>9003</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D121" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F121" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B122">
         <v>9004</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F122" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G122" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B123">
         <v>9005</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D123" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F123" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G123" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B124">
         <v>9006</v>
       </c>
       <c r="C124" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F124" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G124" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B125">
         <v>9007</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B126">
         <v>9008</v>
       </c>
       <c r="C126" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D126" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G126" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B127">
         <v>9009</v>
       </c>
       <c r="C127" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D127" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G127" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B128">
         <v>9010</v>
       </c>
       <c r="C128" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D128" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F128" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G128" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B129">
         <v>9011</v>
       </c>
       <c r="C129" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D129" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F129" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G129" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B130">
         <v>9012</v>
       </c>
       <c r="C130" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G130" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="5:5">
@@ -6240,287 +6627,287 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B132">
         <v>10001</v>
       </c>
       <c r="C132" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F132" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G132" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B133">
         <v>10002</v>
       </c>
       <c r="C133" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D133" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G133" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B134">
         <v>10003</v>
       </c>
       <c r="C134" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D134" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G134" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B135">
         <v>10004</v>
       </c>
       <c r="C135" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D135" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G135" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B136">
         <v>10005</v>
       </c>
       <c r="C136" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G136" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" ht="63" spans="1:7">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B137">
         <v>10006</v>
       </c>
       <c r="C137" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F137" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G137" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B138">
         <v>10007</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F138" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B139">
         <v>10008</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D139" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F139" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G139" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B140">
         <v>10009</v>
       </c>
       <c r="C140" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D140" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F140" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G140" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B141">
         <v>10010</v>
       </c>
       <c r="C141" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D141" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F141" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G141" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B142">
         <v>10011</v>
       </c>
       <c r="C142" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D142" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F142" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G142" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B143">
         <v>10012</v>
       </c>
       <c r="C143" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D143" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F143" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G143" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B144">
         <v>10013</v>
       </c>
       <c r="C144" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F144" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G144" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="5:5">
@@ -6528,405 +6915,688 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <v>12001</v>
       </c>
       <c r="C146" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F146" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G146" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B147">
         <v>12002</v>
       </c>
       <c r="C147" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D147" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G147" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B148">
         <v>12003</v>
       </c>
       <c r="C148" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D148" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F148" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G148" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B149">
         <v>12004</v>
       </c>
       <c r="C149" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D149" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G149" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B150">
         <v>12005</v>
       </c>
       <c r="C150" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D150" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F150" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G150" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="151" ht="100.8" spans="1:7">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B151">
         <v>12006</v>
       </c>
       <c r="C151" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F151" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G151" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" ht="57.6" spans="1:7">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B152">
         <v>12020</v>
       </c>
       <c r="C152" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F152" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G152" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B153">
         <v>12007</v>
       </c>
       <c r="C153" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D153" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F153" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G153" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B154">
         <v>12008</v>
       </c>
       <c r="C154" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D154" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F154" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G154" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B155">
         <v>12009</v>
       </c>
       <c r="C155" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F155" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G155" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B156">
         <v>12010</v>
       </c>
       <c r="C156" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D156" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F156" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G156" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B157">
         <v>12012</v>
       </c>
       <c r="C157" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D157" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F157" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G157" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B158">
         <v>12022</v>
       </c>
       <c r="C158" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F158" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G158" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B159">
         <v>12013</v>
       </c>
       <c r="C159" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E159" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F159" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G159" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B160">
         <v>12014</v>
       </c>
       <c r="C160" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F160" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G160" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B161">
         <v>12015</v>
       </c>
       <c r="C161" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F161" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G161" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B162">
         <v>12016</v>
       </c>
       <c r="C162" t="s">
+        <v>106</v>
+      </c>
+      <c r="E162" t="s">
+        <v>273</v>
+      </c>
+      <c r="F162" t="s">
+        <v>269</v>
+      </c>
+      <c r="G162" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164">
+        <v>13001</v>
+      </c>
+      <c r="C164" t="s">
+        <v>55</v>
+      </c>
+      <c r="D164" t="s">
+        <v>56</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F164" t="s">
+        <v>58</v>
+      </c>
+      <c r="G164" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165">
+        <v>13002</v>
+      </c>
+      <c r="C165" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165" t="s">
+        <v>60</v>
+      </c>
+      <c r="F165" t="s">
+        <v>58</v>
+      </c>
+      <c r="G165" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166">
+        <v>13003</v>
+      </c>
+      <c r="C166" t="s">
+        <v>55</v>
+      </c>
+      <c r="D166" t="s">
+        <v>63</v>
+      </c>
+      <c r="F166" t="s">
+        <v>58</v>
+      </c>
+      <c r="G166" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167">
+        <v>13004</v>
+      </c>
+      <c r="C167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D167" t="s">
+        <v>66</v>
+      </c>
+      <c r="F167" t="s">
+        <v>58</v>
+      </c>
+      <c r="G167" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168">
+        <v>13005</v>
+      </c>
+      <c r="C168" t="s">
+        <v>55</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="F168" t="s">
+        <v>58</v>
+      </c>
+      <c r="G168" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169">
+        <v>13006</v>
+      </c>
+      <c r="C169" t="s">
         <v>102</v>
       </c>
-      <c r="E162" t="s">
-        <v>269</v>
-      </c>
-      <c r="F162" t="s">
-        <v>265</v>
-      </c>
-      <c r="G162" t="s">
-        <v>270</v>
+      <c r="E169" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F169" t="s">
+        <v>104</v>
+      </c>
+      <c r="G169" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="170" ht="187.2" spans="1:7">
+      <c r="A170" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170">
+        <v>13007</v>
+      </c>
+      <c r="C170" t="s">
+        <v>72</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="G170" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>48</v>
+      </c>
+      <c r="B171">
+        <v>13008</v>
+      </c>
+      <c r="C171" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171" t="s">
+        <v>85</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F171" t="s">
+        <v>129</v>
+      </c>
+      <c r="G171" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="172" ht="28.8" spans="1:7">
+      <c r="A172" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172">
+        <v>13009</v>
+      </c>
+      <c r="C172" t="s">
+        <v>84</v>
+      </c>
+      <c r="D172" t="s">
+        <v>89</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F172" t="s">
+        <v>129</v>
+      </c>
+      <c r="G172" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173">
+        <v>13010</v>
+      </c>
+      <c r="C173" t="s">
+        <v>84</v>
+      </c>
+      <c r="D173" t="s">
+        <v>92</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F173" t="s">
+        <v>87</v>
+      </c>
+      <c r="G173" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174">
+        <v>13011</v>
+      </c>
+      <c r="C174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D174" t="s">
+        <v>92</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F174" t="s">
+        <v>94</v>
+      </c>
+      <c r="G174" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175">
+        <v>13012</v>
+      </c>
+      <c r="C175" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175" t="s">
+        <v>96</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F175" t="s">
+        <v>289</v>
+      </c>
+      <c r="G175" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176">
+        <v>13013</v>
+      </c>
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>96</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F176" t="s">
+        <v>289</v>
+      </c>
+      <c r="G176" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G84">
+    <cfRule type="containsText" dxfId="1" priority="17" operator="between" text="没做">
+      <formula>NOT(ISERROR(SEARCH("没做",G84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A152:C152">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F160">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G160">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F161">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G161">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F162">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G162">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:XFD19 A1:E151 G20:XFD159 F152 A153:F159 F20:F150 H160:XFD162 A160:E162 $A163:$XFD163 B164:B176 E164:XFD168 C169:XFD176 $A177:$XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="1" priority="16" operator="between" text="没做">
-      <formula>NOT(ISERROR(SEARCH("没做",G84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A152:C152">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G160">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G161">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F162">
+  <conditionalFormatting sqref="C164:D168">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G162">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:XFD19 A1:E151 G20:XFD159 F152 A153:F159 F20:F150 H160:XFD162 A160:E162 $A163:$XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6948,701 +7618,701 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>2001</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2002</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>2003</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2004</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>2005</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2006</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>2007</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>2009</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>2010</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2011</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>3001</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>3002</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>3003</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>3004</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>3005</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>3006</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>3007</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>3008</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>3009</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>3010</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3011</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>3012</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>4001</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>4002</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>4003</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>4004</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B32">
         <v>4005</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>4006</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34">
         <v>4007</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>4008</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36">
         <v>4009</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>4010</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>4011</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>4012</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41">
         <v>5001</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42">
         <v>5002</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>5003</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <v>5004</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>5005</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B46">
         <v>5006</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B47">
         <v>5007</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <v>5008</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>5009</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>5010</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>5011</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>5012</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="472">
   <si>
     <t>角色名</t>
   </si>
@@ -2574,13 +2574,34 @@
     <t>以自身攻击力330/376/422/468/514%及自身最大HP89/107/125/143/161%对目标造成伤害，CD: 4</t>
   </si>
   <si>
+    <t>对目标330%技能伤害,对目标89%自身生命技能伤害</t>
+  </si>
+  <si>
     <t>需要HP造成伤害</t>
   </si>
   <si>
+    <t>对目标376%技能伤害,对目标107%自身生命技能伤害</t>
+  </si>
+  <si>
+    <t>对目标422%技能伤害,对目标125%自身生命技能伤害</t>
+  </si>
+  <si>
+    <t>对目标468%技能伤害,对目标143%自身生命技能伤害</t>
+  </si>
+  <si>
+    <t>对目标514%技能伤害,对目标161%自身生命技能伤害</t>
+  </si>
+  <si>
     <t>以自身攻击力100%及自身最大HP50%对目标造成伤害</t>
   </si>
   <si>
+    <t>对目标100%普攻伤害,对目标50%自身生命普攻伤害</t>
+  </si>
+  <si>
     <t>自身最大HP增加100%</t>
+  </si>
+  <si>
+    <t>自身生命值+100%</t>
   </si>
   <si>
     <t>自身普攻伤害增加125%；自身必杀伤害增加100%；我方全体攻击力增加40%；我方全体造成伤害增加20%</t>
@@ -7669,8 +7690,8 @@
   <sheetPr/>
   <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -11788,10 +11809,10 @@
         <v>148</v>
       </c>
       <c r="G205" t="s">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -11811,7 +11832,7 @@
         <v>148</v>
       </c>
       <c r="G206" t="s">
-        <v>165</v>
+        <v>414</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -11831,7 +11852,7 @@
         <v>148</v>
       </c>
       <c r="G207" t="s">
-        <v>165</v>
+        <v>415</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -11851,7 +11872,7 @@
         <v>148</v>
       </c>
       <c r="G208" t="s">
-        <v>165</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -11871,7 +11892,7 @@
         <v>148</v>
       </c>
       <c r="G209" t="s">
-        <v>165</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11885,16 +11906,16 @@
         <v>192</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F210" t="s">
         <v>194</v>
       </c>
       <c r="G210" t="s">
-        <v>165</v>
+        <v>419</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -11908,13 +11929,13 @@
         <v>162</v>
       </c>
       <c r="E211" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G211" t="s">
-        <v>165</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11928,16 +11949,16 @@
         <v>162</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -11951,13 +11972,13 @@
         <v>162</v>
       </c>
       <c r="E213" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -11971,13 +11992,13 @@
         <v>162</v>
       </c>
       <c r="E214" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11991,7 +12012,7 @@
         <v>196</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>184</v>
@@ -12000,7 +12021,7 @@
         <v>165</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -12014,7 +12035,7 @@
         <v>196</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>201</v>
@@ -12037,7 +12058,7 @@
         <v>175</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>225</v>
@@ -12060,13 +12081,13 @@
         <v>179</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -12083,16 +12104,16 @@
         <v>182</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -12109,13 +12130,13 @@
         <v>186</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F220" t="s">
         <v>188</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -12132,7 +12153,7 @@
         <v>190</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="F221" t="s">
         <v>188</v>
@@ -12155,13 +12176,13 @@
         <v>146</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="F223" t="s">
         <v>148</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -12181,7 +12202,7 @@
         <v>148</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -12201,7 +12222,7 @@
         <v>148</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -12221,7 +12242,7 @@
         <v>148</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -12241,7 +12262,7 @@
         <v>148</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -12255,7 +12276,7 @@
         <v>192</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="F228" t="s">
         <v>194</v>
@@ -12275,7 +12296,7 @@
         <v>162</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>164</v>
@@ -12295,16 +12316,16 @@
         <v>162</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -12318,13 +12339,13 @@
         <v>162</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -12338,13 +12359,13 @@
         <v>162</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
         <v>164</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12358,7 +12379,7 @@
         <v>196</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>225</v>
@@ -12367,7 +12388,7 @@
         <v>165</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -12381,7 +12402,7 @@
         <v>196</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>225</v>
@@ -12390,7 +12411,7 @@
         <v>165</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -12407,7 +12428,7 @@
         <v>175</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>225</v>
@@ -12416,7 +12437,7 @@
         <v>165</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -12433,13 +12454,13 @@
         <v>179</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -12456,13 +12477,13 @@
         <v>182</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -12803,7 +12824,7 @@
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 F219:XFD219 E213 B214 D214:E214 H221:XFD221 G220:XFD220 H215:XFD217 G218:XFD218 B217:E221 $A222:$XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B225:B233 B233:F234 $A240:$XFD1048576 E235:F235 B235:C239 B224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235">
+  <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 F219:XFD219 E213 B214 D214:E214 H221:XFD221 G220:XFD220 H215:XFD217 G218:XFD218 B217:E221 $A222:$XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B224:B234 C233:F234 $A240:$XFD1048576 E235:F235 B235:C239 C224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235">
     <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
@@ -12879,7 +12900,7 @@
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12896,7 +12917,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12913,7 +12934,7 @@
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12930,7 +12951,7 @@
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12947,7 +12968,7 @@
         <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -12961,7 +12982,7 @@
         <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12978,7 +12999,7 @@
         <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12995,7 +13016,7 @@
         <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13012,7 +13033,7 @@
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanzou/Documents/GitHub_Repository/fumaSim/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5280D5-75EE-CB4E-ACF4-F7479658E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="4000" yWindow="1420" windowWidth="22360" windowHeight="13120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="471">
   <si>
     <t>角色名</t>
   </si>
@@ -820,9 +838,6 @@
   </si>
   <si>
     <t>普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
-  </si>
-  <si>
-    <t>对{1_2_5}30%普攻伤害</t>
   </si>
   <si>
     <t>以自身攻击力330%对目标造成伤害，使目标受到小恶魔伤害+10%（2层）</t>
@@ -841,7 +856,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -976,7 +991,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1440,7 +1455,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1506,7 +1521,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1581,7 +1596,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1725,7 +1740,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1948,7 +1963,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2413,7 +2428,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2577,9 +2592,6 @@
     <t>对目标330%技能伤害,对目标89%自身生命技能伤害</t>
   </si>
   <si>
-    <t>需要HP造成伤害</t>
-  </si>
-  <si>
     <t>对目标376%技能伤害,对目标107%自身生命技能伤害</t>
   </si>
   <si>
@@ -2610,9 +2622,6 @@
     <t>自身普攻伤害+125%,自身必杀技伤害+100%,友方攻击力+40%,友方造成伤害+20%</t>
   </si>
   <si>
-    <t>我方群体?我方全体?  -&gt; 友方 SkillParser.java-291</t>
-  </si>
-  <si>
     <t>攻击时，触发'使目标造成伤害减少10%(1回合)；攻击时，触发'使自身受到伤害减少10%(1回合)</t>
   </si>
   <si>
@@ -2622,15 +2631,9 @@
     <t>使自身以外的我方全体队员获得《臣服于王》</t>
   </si>
   <si>
-    <t>其他友方获得技能35011(50回合),其他友方获得技能35012(50回合)</t>
-  </si>
-  <si>
     <t>《臣服于王》：触发'使目标受到火、水、风、光、暗属性伤害增加6%(2回合)'</t>
   </si>
   <si>
-    <t>需要'受到火属性伤害'，'受到水属性伤害'，'受到光属性伤害'，'受到暗属性伤害'</t>
-  </si>
-  <si>
     <t>攻击时，触发'使目标被治疗时回复量减少50%(2回合)'</t>
   </si>
   <si>
@@ -2643,12 +2646,6 @@
     <t>第1回合，触发'使敌方全体受到伤害增加20%(50回合)、 使敌方全体造成伤害减少10%(50回合)'</t>
   </si>
   <si>
-    <t>群体受到伤害+20%(50回合),群体造成伤害-10%(50回合)</t>
-  </si>
-  <si>
-    <t>群体？敌方群体？Code不一致 -&gt; 群体 SkillParser.java - 294</t>
-  </si>
-  <si>
     <t>使自身造成伤害增加7.5%</t>
   </si>
   <si>
@@ -2703,15 +2700,9 @@
     <t>《绝对服从》：攻击时，触发'使目标受到暗属性伤害增加1%(最多20层)'(50回合)</t>
   </si>
   <si>
-    <t>需要'受到暗属性伤害'</t>
-  </si>
-  <si>
     <t>《绝对服从》：攻击时，触发'以自身攻击力15%使我方站位1角色攻击力增加(1回合)'(50回合)</t>
   </si>
   <si>
-    <t>{1}给敌方加的，需要给己方的{1}号位加</t>
-  </si>
-  <si>
     <t>攻击时，触发'使目标受到暗属性伤害增加4%(最多5层)'</t>
   </si>
   <si>
@@ -2752,31 +2743,51 @@
   </si>
   <si>
     <t>每经过3回合，触发：使我方全体攻击力增加20%（1回合）效果</t>
+  </si>
+  <si>
+    <t>对e{1_2_5}30%普攻伤害</t>
+  </si>
+  <si>
+    <t>a{1}攻击力数值+15%(1回合)</t>
+  </si>
+  <si>
+    <t>其他友方获得技能35011,其他友方获得技能35012</t>
+  </si>
+  <si>
+    <t>敌方全体受到伤害+20%(50回合),敌方全体造成伤害-10%(50回合)</t>
+  </si>
+  <si>
+    <t>目标受到火属性伤害+6%(2回合),目标受到水属性伤害+6%(2回合),目标受到风属性伤害+6%(2回合),目标受到光属性伤害+6%(2回合),目标受到暗属性伤害+6%(2回合)</t>
+  </si>
+  <si>
+    <t>敌方群体 -&gt; 敌方全体</t>
+  </si>
+  <si>
+    <t>目标受到暗属性伤害+6%(最多5层)</t>
+  </si>
+  <si>
+    <t>目标受到暗属性伤害+1%(最多20层)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2784,7 +2795,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2792,14 +2803,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2807,152 +2818,8 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2980,201 +2847,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3182,254 +2863,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3458,69 +2897,681 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="69">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3557,12 +3608,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -3578,13 +3632,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="ID_D1AA89B02756446E924B50AA3A1B52FD" descr="復生公主 千鶴"/>
+        <xdr:cNvPr id="5" name="ID_D1AA89B02756446E924B50AA3A1B52FD" descr="復生公主 千鶴">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3616,13 +3676,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="ID_349E64FEB8AF402C8429E7E283E2C2EC" descr="法斯公主 露露"/>
+        <xdr:cNvPr id="4" name="ID_349E64FEB8AF402C8429E7E283E2C2EC" descr="法斯公主 露露">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3654,13 +3720,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_7D66CA83C0AB40E6AE89CCAB749C6D6D" descr="機靈古怪 賽露西亞"/>
+        <xdr:cNvPr id="8" name="ID_7D66CA83C0AB40E6AE89CCAB749C6D6D" descr="機靈古怪 賽露西亞">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3692,13 +3764,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_58B811FD4C1647DD819D0EE93A788BBC" descr="精靈王 賽露西亞"/>
+        <xdr:cNvPr id="9" name="ID_58B811FD4C1647DD819D0EE93A788BBC" descr="精靈王 賽露西亞">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3970,39 +4048,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="16.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="13.8796296296296"/>
-    <col min="11" max="17" width="12.8796296296296"/>
-    <col min="18" max="18" width="10.6296296296296"/>
-    <col min="19" max="19" width="11.75"/>
-    <col min="20" max="21" width="12.8796296296296"/>
-    <col min="22" max="22" width="11.75"/>
-    <col min="23" max="34" width="12.8796296296296"/>
-    <col min="35" max="35" width="10.6296296296296"/>
-    <col min="36" max="36" width="11.75"/>
-    <col min="37" max="44" width="12.8796296296296"/>
-    <col min="45" max="45" width="11.75"/>
-    <col min="46" max="49" width="12.8796296296296"/>
-    <col min="50" max="50" width="11.75"/>
-    <col min="51" max="66" width="12.8796296296296"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125"/>
+    <col min="11" max="17" width="12.83203125"/>
+    <col min="18" max="18" width="10.6640625"/>
+    <col min="19" max="19" width="11.6640625"/>
+    <col min="20" max="21" width="12.83203125"/>
+    <col min="22" max="22" width="11.6640625"/>
+    <col min="23" max="34" width="12.83203125"/>
+    <col min="35" max="35" width="10.6640625"/>
+    <col min="36" max="36" width="11.6640625"/>
+    <col min="37" max="44" width="12.83203125"/>
+    <col min="45" max="45" width="11.6640625"/>
+    <col min="46" max="49" width="12.83203125"/>
+    <col min="50" max="50" width="11.6640625"/>
+    <col min="51" max="66" width="12.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="75" customHeight="1" spans="1:15">
+    <row r="2" spans="1:17" ht="75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -4070,25 +4148,25 @@
       </c>
       <c r="K2">
         <f>H2*1.1^59</f>
-        <v>281230.314340075</v>
+        <v>281230.3143400746</v>
       </c>
       <c r="L2">
         <f>I2*1.1^59</f>
-        <v>960611.892604129</v>
+        <v>960611.89260412892</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2">
         <f>K2*3.25</f>
-        <v>913998.521605243</v>
+        <v>913998.52160524251</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O14" si="0">L2*3.25*1.35</f>
-        <v>4214684.67880062</v>
-      </c>
-    </row>
-    <row r="3" ht="75" customHeight="1" spans="1:15">
+        <v>4214684.6788006164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -4118,25 +4196,25 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K17" si="1">H3*1.1^59</f>
-        <v>243585.311633136</v>
+        <v>243585.31163313551</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L16" si="2">I3*1.1^59</f>
-        <v>1006228.77823724</v>
+        <v>1006228.7782372433</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="N3">
         <f>K3*3.25</f>
-        <v>791652.26280769</v>
+        <v>791652.26280769042</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>4414828.7645159</v>
-      </c>
-    </row>
-    <row r="4" ht="75" customHeight="1" spans="1:15">
+        <v>4414828.7645159047</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -4166,25 +4244,25 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>248899.900250586</v>
+        <v>248899.90025058575</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>984084.658997867</v>
+        <v>984084.65899786737</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N14" si="3">K4*3.25</f>
-        <v>808924.675814404</v>
+        <v>808924.67581440369</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>4317671.44135314</v>
-      </c>
-    </row>
-    <row r="5" ht="75" customHeight="1" spans="1:15">
+        <v>4317671.4413531432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -4214,25 +4292,25 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>256871.783176761</v>
+        <v>256871.78317676106</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>954411.539217104</v>
+        <v>954411.53921710362</v>
       </c>
       <c r="M5" t="s">
         <v>18</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>834833.295324473</v>
+        <v>834833.29532447341</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>4187480.62831504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>4187480.6283150422</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -4262,25 +4340,25 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>270601.137105174</v>
+        <v>270601.13710517419</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>997814.012926281</v>
+        <v>997814.01292628061</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>879453.695591816</v>
+        <v>879453.6955918161</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>4377908.98171406</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>4377908.9817140568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4310,22 +4388,22 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>553602.980984399</v>
+        <v>553602.98098439886</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>553602.980984399</v>
+        <v>553602.98098439886</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>1799209.6881993</v>
+        <v>1799209.6881992964</v>
       </c>
       <c r="O7">
         <f t="shared" si="0"/>
         <v>2428933.07906905</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -4355,22 +4433,22 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>277244.372876987</v>
+        <v>277244.37287698698</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>974784.128917329</v>
+        <v>974784.12891732948</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>901044.211850208</v>
+        <v>901044.21185020765</v>
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4276865.36562478</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>4276865.3656247836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
@@ -4400,22 +4478,22 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>260414.842255061</v>
+        <v>260414.8422550612</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>1037673.42755716</v>
+        <v>1037673.4275571572</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>846348.237328949</v>
+        <v>846348.23732894892</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>4552792.16340703</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4552792.1634070277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
@@ -4445,22 +4523,22 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>250228.547404948</v>
+        <v>250228.5474049483</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>979655.835149992</v>
+        <v>979655.83514999214</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>813242.779066082</v>
+        <v>813242.77906608197</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>4298239.97672059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>4298239.9767205911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -4490,25 +4568,25 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>206383.191310984</v>
+        <v>206383.19131098391</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>1307831.68227754</v>
+        <v>1307831.6822775439</v>
       </c>
       <c r="M11" t="s">
         <v>43</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>670745.371760698</v>
+        <v>670745.37176069769</v>
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>5738111.50599272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>5738111.5059927246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -4538,29 +4616,29 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>280344.5495705</v>
+        <v>280344.54957049957</v>
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>962383.422143279</v>
+        <v>962383.42214327899</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>911119.786104124</v>
+        <v>911119.78610412357</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>4222457.26465364</v>
+        <v>4222457.2646536361</v>
       </c>
       <c r="P12">
         <f>I12/1.1^59</f>
-        <v>12.5606260060871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>12.560626006087132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -4590,29 +4668,29 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>271929.784259537</v>
+        <v>271929.78425953671</v>
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>993385.189078405</v>
+        <v>993385.18907840538</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>883771.798843494</v>
+        <v>883771.79884349427</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>4358477.5170815</v>
+        <v>4358477.5170815038</v>
       </c>
       <c r="P13">
         <f>I13/1.1^59</f>
-        <v>12.9652481047646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>12.965248104764582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -4642,7 +4720,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="1"/>
-        <v>271044.019489962</v>
+        <v>271044.01948996168</v>
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
@@ -4653,15 +4731,15 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>880893.063342375</v>
+        <v>880893.06334237545</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>4368193.24939778</v>
+        <v>4368193.2493977798</v>
       </c>
       <c r="P14">
         <f>I14/1.1^59</f>
-        <v>12.9941496832415</v>
+        <v>12.994149683241544</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4692,16 +4770,16 @@
       </c>
       <c r="K15" s="6">
         <f t="shared" si="1"/>
-        <v>254657.371252823</v>
+        <v>254657.37125282348</v>
       </c>
       <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>962383.422143279</v>
+        <v>962383.42214327899</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
         <f t="shared" ref="N15:N48" si="4">K15*3.25</f>
-        <v>827636.456571676</v>
+        <v>827636.4565716763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>51</v>
@@ -4737,16 +4815,16 @@
       </c>
       <c r="K16" s="6">
         <f t="shared" si="1"/>
-        <v>177152.953915008</v>
+        <v>177152.95391500765</v>
       </c>
       <c r="L16" s="6">
         <f t="shared" si="2"/>
-        <v>1384007.452461</v>
+        <v>1384007.4524609973</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2">
         <f t="shared" si="4"/>
-        <v>575747.100223775</v>
+        <v>575747.10022377479</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>55</v>
@@ -4754,7 +4832,7 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
         <v>56</v>
       </c>
@@ -4782,16 +4860,16 @@
       </c>
       <c r="K17" s="6">
         <f t="shared" si="1"/>
-        <v>276801.490492199</v>
+        <v>276801.49049219943</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17:L48" si="5">I17*1.1^59</f>
-        <v>885764.769575038</v>
+        <v>885764.76957503823</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>899604.844099648</v>
+        <v>899604.84409964818</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>57</v>
@@ -4799,7 +4877,7 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -4827,16 +4905,16 @@
       </c>
       <c r="K18" s="6">
         <f t="shared" ref="K18:K48" si="6">H18*1.1^59</f>
-        <v>235170.546322173</v>
+        <v>235170.54632217265</v>
       </c>
       <c r="L18" s="6">
         <f t="shared" si="5"/>
-        <v>1041659.36902024</v>
+        <v>1041659.3690202448</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>764304.275547061</v>
+        <v>764304.27554706112</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>59</v>
@@ -4844,7 +4922,7 @@
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -4872,21 +4950,21 @@
       </c>
       <c r="K19" s="6">
         <f t="shared" si="6"/>
-        <v>260414.842255061</v>
+        <v>260414.8422550612</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="5"/>
-        <v>939796.420519116</v>
+        <v>939796.42051911552</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2">
         <f t="shared" si="4"/>
-        <v>846348.237328949</v>
+        <v>846348.23732894892</v>
       </c>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -4914,21 +4992,21 @@
       </c>
       <c r="K20" s="6">
         <f t="shared" si="6"/>
-        <v>261300.607024636</v>
+        <v>261300.60702463627</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="5"/>
-        <v>938024.890979965</v>
+        <v>938024.89097996545</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
         <f t="shared" si="4"/>
-        <v>849226.972830068</v>
+        <v>849226.97283006785</v>
       </c>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -4956,21 +5034,21 @@
       </c>
       <c r="K21" s="6">
         <f t="shared" si="6"/>
-        <v>259971.959870274</v>
+        <v>259971.95987027371</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="5"/>
-        <v>942010.832443053</v>
+        <v>942010.83244305302</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2">
         <f t="shared" si="4"/>
-        <v>844908.86957839</v>
+        <v>844908.86957838957</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
         <v>63</v>
       </c>
@@ -4998,21 +5076,21 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="6"/>
-        <v>187339.248765121</v>
+        <v>187339.24876512057</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="5"/>
-        <v>1583304.52561538</v>
+        <v>1583304.5256153808</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2">
         <f t="shared" si="4"/>
-        <v>608852.558486642</v>
+        <v>608852.55848664185</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -5040,21 +5118,21 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="6"/>
-        <v>259086.195100699</v>
+        <v>259086.19510069868</v>
       </c>
       <c r="L23" s="6">
         <f t="shared" si="5"/>
-        <v>945996.773906141</v>
+        <v>945996.7739061407</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2">
         <f t="shared" si="4"/>
-        <v>842030.134077271</v>
+        <v>842030.13407727075</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
         <v>65</v>
       </c>
@@ -5082,21 +5160,21 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="6"/>
-        <v>267943.842796449</v>
+        <v>267943.84279644903</v>
       </c>
       <c r="L24" s="6">
         <f t="shared" si="5"/>
-        <v>914995.006971014</v>
+        <v>914995.00697101443</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>870817.489088459</v>
+        <v>870817.48908845929</v>
       </c>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -5124,21 +5202,21 @@
       </c>
       <c r="K25" s="6">
         <f t="shared" si="6"/>
-        <v>201068.602693534</v>
+        <v>201068.60269353367</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="5"/>
-        <v>1217926.55816568</v>
+        <v>1217926.5581656776</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>653472.958753984</v>
+        <v>653472.95875398442</v>
       </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -5159,23 +5237,23 @@
         <v>17</v>
       </c>
       <c r="H26" s="6">
-        <v>580.8</v>
+        <v>580.79999999999995</v>
       </c>
       <c r="I26" s="6">
         <v>5499.2</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="6"/>
-        <v>160766.305677869</v>
+        <v>160766.30567786942</v>
       </c>
       <c r="L26" s="6">
         <f t="shared" si="5"/>
-        <v>1522186.7565147</v>
+        <v>1522186.7565147032</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>522490.493453076</v>
+        <v>522490.49345307559</v>
       </c>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -5208,27 +5286,27 @@
       </c>
       <c r="K27" s="6">
         <f t="shared" si="6"/>
-        <v>275472.843337837</v>
+        <v>275472.84333783691</v>
       </c>
       <c r="L27" s="6">
         <f t="shared" si="5"/>
-        <v>980984.482304355</v>
+        <v>980984.48230435478</v>
       </c>
       <c r="M27" t="s">
         <v>43</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" si="4"/>
-        <v>895286.74084797</v>
+        <v>895286.74084796989</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>70</v>
       </c>
       <c r="P27" s="9">
-        <v>995.196953275666</v>
+        <v>995.19695327566603</v>
       </c>
       <c r="Q27" s="9">
-        <v>3543.99825758036</v>
+        <v>3543.9982575803601</v>
       </c>
       <c r="R27" s="10">
         <v>275472</v>
@@ -5237,7 +5315,7 @@
         <v>980984</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
@@ -5265,21 +5343,21 @@
       </c>
       <c r="K28" s="6">
         <f t="shared" si="6"/>
-        <v>262186.371794211</v>
+        <v>262186.37179421133</v>
       </c>
       <c r="L28" s="6">
         <f t="shared" si="5"/>
-        <v>1029701.54463098</v>
+        <v>1029701.5446309819</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2">
         <f t="shared" si="4"/>
-        <v>852105.708331187</v>
+        <v>852105.70833118679</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -5307,21 +5385,21 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" si="6"/>
-        <v>279015.902416137</v>
+        <v>279015.90241613705</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="5"/>
-        <v>968583.775530304</v>
+        <v>968583.77553030418</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>906801.682852445</v>
+        <v>906801.6828524454</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
@@ -5345,26 +5423,26 @@
         <v>675.2</v>
       </c>
       <c r="I30" s="6">
-        <v>4729.6</v>
+        <v>4729.6000000000004</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="6"/>
-        <v>186896.366380333</v>
+        <v>186896.36638033306</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="5"/>
-        <v>1309160.32943191</v>
+        <v>1309160.3294319066</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>607413.190736082</v>
+        <v>607413.19073608238</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -5392,22 +5470,22 @@
       </c>
       <c r="K31" s="6">
         <f t="shared" si="6"/>
-        <v>283444.726264012</v>
+        <v>283444.72626401222</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="5"/>
-        <v>952640.009677954</v>
+        <v>952640.00967795355</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2">
         <f t="shared" si="4"/>
-        <v>921195.36035804</v>
+        <v>921195.36035803973</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -5435,16 +5513,16 @@
       </c>
       <c r="K32" s="6">
         <f t="shared" si="6"/>
-        <v>283444.726264012</v>
+        <v>283444.72626401222</v>
       </c>
       <c r="L32" s="6">
         <f t="shared" si="5"/>
-        <v>952640.009677954</v>
+        <v>952640.00967795355</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2">
         <f t="shared" si="4"/>
-        <v>921195.36035804</v>
+        <v>921195.36035803973</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="8"/>
@@ -5478,16 +5556,16 @@
       </c>
       <c r="K33" s="6">
         <f t="shared" si="6"/>
-        <v>250228.547404948</v>
+        <v>250228.5474049483</v>
       </c>
       <c r="L33" s="6">
         <f t="shared" si="5"/>
-        <v>979655.835149992</v>
+        <v>979655.83514999214</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2">
         <f t="shared" si="4"/>
-        <v>813242.779066082</v>
+        <v>813242.77906608197</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="8"/>
@@ -5521,16 +5599,16 @@
       </c>
       <c r="K34" s="6">
         <f t="shared" si="6"/>
-        <v>262629.254178999</v>
+        <v>262629.25417899882</v>
       </c>
       <c r="L34" s="6">
         <f t="shared" si="5"/>
-        <v>932267.419977728</v>
+        <v>932267.4199777277</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>853545.076081746</v>
+        <v>853545.07608174614</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="8"/>
@@ -5564,16 +5642,16 @@
       </c>
       <c r="K35" s="6">
         <f t="shared" si="6"/>
-        <v>265286.548487724</v>
+        <v>265286.54848772392</v>
       </c>
       <c r="L35" s="6">
         <f t="shared" si="5"/>
-        <v>922524.007512402</v>
+        <v>922524.00751240237</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2">
         <f t="shared" si="4"/>
-        <v>862181.282585103</v>
+        <v>862181.28258510272</v>
       </c>
       <c r="O35" s="6"/>
       <c r="P35" s="8"/>
@@ -5607,16 +5685,16 @@
       </c>
       <c r="K36" s="6">
         <f t="shared" si="6"/>
-        <v>232513.252013448</v>
+        <v>232513.25201344752</v>
       </c>
       <c r="L36" s="6">
         <f t="shared" si="5"/>
-        <v>1162566.26006724</v>
+        <v>1162566.2600672375</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>755668.069043704</v>
+        <v>755668.06904370442</v>
       </c>
       <c r="O36" s="6"/>
       <c r="P36" s="8"/>
@@ -5650,16 +5728,16 @@
       </c>
       <c r="K37" s="6">
         <f t="shared" si="6"/>
-        <v>260857.724639849</v>
+        <v>260857.72463984875</v>
       </c>
       <c r="L37" s="6">
         <f t="shared" si="5"/>
-        <v>1035459.01563322</v>
+        <v>1035459.0156332197</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>847787.605079508</v>
+        <v>847787.60507950839</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="8"/>
@@ -5693,16 +5771,16 @@
       </c>
       <c r="K38" s="6">
         <f t="shared" si="6"/>
-        <v>261300.607024636</v>
+        <v>261300.60702463627</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="5"/>
-        <v>1033244.60370928</v>
+        <v>1033244.6037092821</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2">
         <f t="shared" si="4"/>
-        <v>849226.972830068</v>
+        <v>849226.97283006785</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="8"/>
@@ -5732,20 +5810,20 @@
         <v>691.2</v>
       </c>
       <c r="I39" s="6">
-        <v>5102.4</v>
+        <v>5102.3999999999996</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="6"/>
-        <v>191325.190228208</v>
+        <v>191325.19022820826</v>
       </c>
       <c r="L39" s="6">
         <f t="shared" si="5"/>
-        <v>1412351.9250874</v>
+        <v>1412351.9250873984</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2">
         <f t="shared" si="4"/>
-        <v>621806.868241677</v>
+        <v>621806.86824167683</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="8"/>
@@ -5779,16 +5857,16 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="6"/>
-        <v>174938.54199107</v>
+        <v>174938.54199107003</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" si="5"/>
-        <v>1400394.10069814</v>
+        <v>1400394.1006981353</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2">
         <f t="shared" si="4"/>
-        <v>568550.261470978</v>
+        <v>568550.26147097757</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="8"/>
@@ -5822,16 +5900,16 @@
       </c>
       <c r="K41" s="6">
         <f t="shared" si="6"/>
-        <v>248014.135481011</v>
+        <v>248014.13548101069</v>
       </c>
       <c r="L41" s="6">
         <f t="shared" si="5"/>
-        <v>988513.482845743</v>
+        <v>988513.4828457426</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2">
         <f t="shared" si="4"/>
-        <v>806045.940313285</v>
+        <v>806045.94031328475</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="8"/>
@@ -5865,16 +5943,16 @@
       </c>
       <c r="K42" s="6">
         <f t="shared" si="6"/>
-        <v>251114.312174523</v>
+        <v>251114.31217452334</v>
       </c>
       <c r="L42" s="6">
         <f t="shared" si="5"/>
-        <v>975227.011302117</v>
+        <v>975227.01130211703</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2">
         <f t="shared" si="4"/>
-        <v>816121.514567201</v>
+        <v>816121.51456720079</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="8"/>
@@ -5908,16 +5986,16 @@
       </c>
       <c r="K43" s="6">
         <f t="shared" si="6"/>
-        <v>279901.667185712</v>
+        <v>279901.66718571208</v>
       </c>
       <c r="L43" s="6">
         <f t="shared" si="5"/>
-        <v>964597.834067217</v>
+        <v>964597.83406721661</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>909680.418353564</v>
+        <v>909680.41835356422</v>
       </c>
       <c r="O43" s="6"/>
       <c r="P43" s="8"/>
@@ -5951,16 +6029,16 @@
       </c>
       <c r="K44" s="6">
         <f t="shared" si="6"/>
-        <v>281673.196724862</v>
+        <v>281673.19672486215</v>
       </c>
       <c r="L44" s="6">
         <f t="shared" si="5"/>
-        <v>958397.480680191</v>
+        <v>958397.48068019131</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>915437.889355802</v>
+        <v>915437.88935580198</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="8"/>
@@ -5994,16 +6072,16 @@
       </c>
       <c r="K45" s="6">
         <f t="shared" si="6"/>
-        <v>276358.608107412</v>
+        <v>276358.60810741188</v>
       </c>
       <c r="L45" s="6">
         <f t="shared" si="5"/>
-        <v>976555.65845648</v>
+        <v>976555.65845647955</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2">
         <f t="shared" si="4"/>
-        <v>898165.476349089</v>
+        <v>898165.4763490886</v>
       </c>
       <c r="O45" s="6"/>
       <c r="P45" s="8"/>
@@ -6037,16 +6115,16 @@
       </c>
       <c r="K46" s="6">
         <f t="shared" si="6"/>
-        <v>275472.843337837</v>
+        <v>275472.84333783691</v>
       </c>
       <c r="L46" s="6">
         <f t="shared" si="5"/>
-        <v>980984.482304355</v>
+        <v>980984.48230435478</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2">
         <f t="shared" si="4"/>
-        <v>895286.74084797</v>
+        <v>895286.74084796989</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="8"/>
@@ -6080,16 +6158,16 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" si="6"/>
-        <v>272372.666644324</v>
+        <v>272372.66664432426</v>
       </c>
       <c r="L47" s="6">
         <f t="shared" si="5"/>
-        <v>991170.777154468</v>
+        <v>991170.77715446777</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2">
         <f t="shared" si="4"/>
-        <v>885211.166594054</v>
+        <v>885211.16659405385</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="8"/>
@@ -6123,16 +6201,16 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" si="6"/>
-        <v>266172.313257299</v>
+        <v>266172.31325729896</v>
       </c>
       <c r="L48" s="6">
         <f t="shared" si="5"/>
-        <v>920752.477973252</v>
+        <v>920752.47797325219</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2">
         <f t="shared" si="4"/>
-        <v>865060.018086222</v>
+        <v>865060.01808622165</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="8"/>
@@ -6174,14 +6252,14 @@
       </c>
       <c r="P49">
         <f>K49/1.1^59</f>
-        <v>838.597362995564</v>
+        <v>838.59736299556357</v>
       </c>
       <c r="Q49">
         <f>L49/1.1^59</f>
-        <v>2773.39908334646</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>2773.3990833464609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="6" t="s">
         <v>94</v>
       </c>
@@ -6208,14 +6286,14 @@
       <c r="J50" s="6"/>
       <c r="K50" s="6">
         <f>H50*1.1^59</f>
-        <v>212362.103505615</v>
+        <v>212362.10350561541</v>
       </c>
       <c r="L50" s="6">
         <f>I50*1.1^59</f>
-        <v>839372.839768546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>839372.83976854559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="6" t="s">
         <v>95</v>
       </c>
@@ -6237,19 +6315,19 @@
         <v>546</v>
       </c>
       <c r="I51" s="6">
-        <v>4264.4</v>
+        <v>4264.3999999999996</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6">
         <f>H51*1.1^59</f>
-        <v>151133.613808741</v>
+        <v>151133.61380874089</v>
       </c>
       <c r="L51" s="6">
         <f>I51*1.1^59</f>
-        <v>1180392.27605494</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>1180392.2760549351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="6" t="s">
         <v>96</v>
       </c>
@@ -6276,14 +6354,14 @@
       <c r="J52" s="6"/>
       <c r="K52" s="6">
         <f t="shared" ref="K52:L61" si="7">H52*1.1^59</f>
-        <v>207711.838465346</v>
+        <v>207711.83846534646</v>
       </c>
       <c r="L52" s="6">
         <f t="shared" si="7"/>
-        <v>858361.42201631</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>858361.42201631039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="6" t="s">
         <v>97</v>
       </c>
@@ -6310,14 +6388,14 @@
       <c r="J53" s="6"/>
       <c r="K53" s="6">
         <f t="shared" si="7"/>
-        <v>230188.119493313</v>
+        <v>230188.11949331305</v>
       </c>
       <c r="L53" s="6">
         <f t="shared" si="7"/>
-        <v>773881.607118091</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>773881.6071180912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="6" t="s">
         <v>98</v>
       </c>
@@ -6344,14 +6422,14 @@
       <c r="J54" s="6"/>
       <c r="K54" s="6">
         <f t="shared" si="7"/>
-        <v>212362.103505615</v>
+        <v>212362.10350561541</v>
       </c>
       <c r="L54" s="6">
         <f t="shared" si="7"/>
-        <v>839372.839768546</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>839372.83976854559</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="6" t="s">
         <v>99</v>
       </c>
@@ -6378,14 +6456,14 @@
       <c r="J55" s="6"/>
       <c r="K55" s="6">
         <f t="shared" si="7"/>
-        <v>215074.758112439</v>
+        <v>215074.75811243895</v>
       </c>
       <c r="L55" s="6">
         <f t="shared" si="7"/>
-        <v>828522.221341251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>828522.22134125128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="6" t="s">
         <v>100</v>
       </c>
@@ -6412,14 +6490,14 @@
       <c r="J56" s="6"/>
       <c r="K56" s="6">
         <f t="shared" si="7"/>
-        <v>203836.617598456</v>
+        <v>203836.61759845566</v>
       </c>
       <c r="L56" s="6">
         <f t="shared" si="7"/>
-        <v>874249.827570563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>874249.82757056272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="6" t="s">
         <v>101</v>
       </c>
@@ -6438,7 +6516,7 @@
         <v>93</v>
       </c>
       <c r="H57" s="6">
-        <v>534.8</v>
+        <v>534.79999999999995</v>
       </c>
       <c r="I57" s="6">
         <v>4349.8</v>
@@ -6446,14 +6524,14 @@
       <c r="J57" s="6"/>
       <c r="K57" s="6">
         <f t="shared" si="7"/>
-        <v>148033.437115228</v>
+        <v>148033.43711522824</v>
       </c>
       <c r="L57" s="6">
         <f t="shared" si="7"/>
-        <v>1204031.12334297</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>1204031.1233429692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="6" t="s">
         <v>102</v>
       </c>
@@ -6480,14 +6558,14 @@
       <c r="J58" s="6"/>
       <c r="K58" s="6">
         <f t="shared" si="7"/>
-        <v>221275.111499464</v>
+        <v>221275.11149946423</v>
       </c>
       <c r="L58" s="6">
         <f t="shared" si="7"/>
-        <v>805270.896139906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>805270.89613990649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="6" t="s">
         <v>103</v>
       </c>
@@ -6514,14 +6592,14 @@
       <c r="J59" s="6"/>
       <c r="K59" s="6">
         <f t="shared" si="7"/>
-        <v>207711.838465346</v>
+        <v>207711.83846534646</v>
       </c>
       <c r="L59" s="6">
         <f t="shared" si="7"/>
-        <v>858748.944103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>858748.94410299952</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="6" t="s">
         <v>104</v>
       </c>
@@ -6548,14 +6626,14 @@
       <c r="J60" s="6"/>
       <c r="K60" s="6">
         <f t="shared" si="7"/>
-        <v>219725.023152708</v>
+        <v>219725.0231527079</v>
       </c>
       <c r="L60" s="6">
         <f t="shared" si="7"/>
-        <v>810696.205353554</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>810696.20535355376</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="6" t="s">
         <v>105</v>
       </c>
@@ -6582,14 +6660,14 @@
       <c r="J61" s="6"/>
       <c r="K61" s="6">
         <f t="shared" si="7"/>
-        <v>148808.481288606</v>
+        <v>148808.48128860642</v>
       </c>
       <c r="L61" s="6">
         <f t="shared" si="7"/>
-        <v>1259446.78173951</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>1259446.7817395073</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" s="6" t="s">
         <v>106</v>
       </c>
@@ -6611,19 +6689,19 @@
         <v>684</v>
       </c>
       <c r="I62" s="6">
-        <v>2374.8</v>
+        <v>2374.8000000000002</v>
       </c>
       <c r="J62" s="6"/>
       <c r="K62" s="6">
         <f>H62*1.1^59</f>
-        <v>189332.219496664</v>
+        <v>189332.21949666442</v>
       </c>
       <c r="L62" s="6">
         <f>I62*1.1^59</f>
-        <v>657348.179620875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>657348.17962087528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="6" t="s">
         <v>108</v>
       </c>
@@ -6650,14 +6728,14 @@
       <c r="J63" s="6"/>
       <c r="K63" s="6">
         <f>H63*1.1^59</f>
-        <v>193982.484536933</v>
+        <v>193982.48453693336</v>
       </c>
       <c r="L63" s="6">
         <f>I63*1.1^59</f>
-        <v>641072.251979934</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>641072.25197993394</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="6" t="s">
         <v>109</v>
       </c>
@@ -6676,7 +6754,7 @@
         <v>107</v>
       </c>
       <c r="H64" s="6">
-        <v>535.2</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="I64" s="6">
         <v>3034.8</v>
@@ -6684,11 +6762,11 @@
       <c r="J64" s="6"/>
       <c r="K64" s="6">
         <f t="shared" ref="K64:L72" si="8">H64*1.1^59</f>
-        <v>148144.157711425</v>
+        <v>148144.15771142516</v>
       </c>
       <c r="L64" s="6">
         <f t="shared" si="8"/>
-        <v>840037.163345727</v>
+        <v>840037.16334572691</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6718,11 +6796,11 @@
       <c r="J65" s="6"/>
       <c r="K65" s="6">
         <f t="shared" si="8"/>
-        <v>128546.612184577</v>
+        <v>128546.61218457742</v>
       </c>
       <c r="L65" s="6">
         <f t="shared" si="8"/>
-        <v>966258.64301017</v>
+        <v>966258.64301016985</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6744,7 +6822,7 @@
         <v>107</v>
       </c>
       <c r="H66" s="6">
-        <v>655.2</v>
+        <v>655.20000000000005</v>
       </c>
       <c r="I66" s="6">
         <v>2478</v>
@@ -6752,11 +6830,11 @@
       <c r="J66" s="6"/>
       <c r="K66" s="6">
         <f t="shared" si="8"/>
-        <v>181360.336570489</v>
+        <v>181360.33657048907</v>
       </c>
       <c r="L66" s="6">
         <f t="shared" si="8"/>
-        <v>685914.09343967</v>
+        <v>685914.09343967016</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6781,16 +6859,16 @@
         <v>626.4</v>
       </c>
       <c r="I67" s="6">
-        <v>2590.8</v>
+        <v>2590.8000000000002</v>
       </c>
       <c r="J67" s="6"/>
       <c r="K67" s="6">
         <f t="shared" si="8"/>
-        <v>173388.453644314</v>
+        <v>173388.45364431373</v>
       </c>
       <c r="L67" s="6">
         <f t="shared" si="8"/>
-        <v>717137.30156719</v>
+        <v>717137.30156719033</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -6820,11 +6898,11 @@
       <c r="J68" s="6"/>
       <c r="K68" s="6">
         <f t="shared" si="8"/>
-        <v>194646.808114115</v>
+        <v>194646.80811411465</v>
       </c>
       <c r="L68" s="6">
         <f t="shared" si="8"/>
-        <v>638747.119459799</v>
+        <v>638747.11945979937</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -6854,11 +6932,11 @@
       <c r="J69" s="6"/>
       <c r="K69" s="6">
         <f t="shared" si="8"/>
-        <v>183685.469090624</v>
+        <v>183685.46909062355</v>
       </c>
       <c r="L69" s="6">
         <f t="shared" si="8"/>
-        <v>676945.725147723</v>
+        <v>676945.72514772287</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -6880,7 +6958,7 @@
         <v>107</v>
       </c>
       <c r="H70" s="6">
-        <v>634.8</v>
+        <v>634.79999999999995</v>
       </c>
       <c r="I70" s="6">
         <v>2556</v>
@@ -6888,11 +6966,11 @@
       <c r="J70" s="6"/>
       <c r="K70" s="6">
         <f t="shared" si="8"/>
-        <v>175713.586164448</v>
+        <v>175713.58616444818</v>
       </c>
       <c r="L70" s="6">
         <f t="shared" si="8"/>
-        <v>707504.609698062</v>
+        <v>707504.60969806171</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -6914,19 +6992,19 @@
         <v>107</v>
       </c>
       <c r="H71" s="6">
-        <v>628.8</v>
+        <v>628.79999999999995</v>
       </c>
       <c r="I71" s="6">
-        <v>2578.8</v>
+        <v>2578.8000000000002</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="6">
         <f t="shared" si="8"/>
-        <v>174052.777221495</v>
+        <v>174052.77722149499</v>
       </c>
       <c r="L71" s="6">
         <f t="shared" si="8"/>
-        <v>713815.683681284</v>
+        <v>713815.68368128396</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -6956,11 +7034,11 @@
       <c r="J72" s="6"/>
       <c r="K72" s="6">
         <f t="shared" si="8"/>
-        <v>176710.07153022</v>
+        <v>176710.0715302201</v>
       </c>
       <c r="L72" s="6">
         <f t="shared" si="8"/>
-        <v>704182.991812155</v>
+        <v>704182.99181215535</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -6994,7 +7072,7 @@
       </c>
       <c r="L73" s="6">
         <f>I73*1.1^59</f>
-        <v>778365.791264065</v>
+        <v>778365.79126406484</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -7024,11 +7102,11 @@
       <c r="J74" s="6"/>
       <c r="K74" s="6">
         <f t="shared" ref="K74:L93" si="9">H74*1.1^59</f>
-        <v>133695.119907732</v>
+        <v>133695.11990773233</v>
       </c>
       <c r="L74" s="6">
         <f t="shared" si="9"/>
-        <v>579345.519600173</v>
+        <v>579345.51960017346</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7058,7 +7136,7 @@
       <c r="J75" s="6"/>
       <c r="K75" s="6">
         <f t="shared" si="9"/>
-        <v>100755.742539161</v>
+        <v>100755.74253916059</v>
       </c>
       <c r="L75" s="6">
         <f t="shared" si="9"/>
@@ -7092,11 +7170,11 @@
       <c r="J76" s="6"/>
       <c r="K76" s="6">
         <f t="shared" si="9"/>
-        <v>153624.827223171</v>
+        <v>153624.82722317069</v>
       </c>
       <c r="L76" s="6">
         <f t="shared" si="9"/>
-        <v>504055.514186295</v>
+        <v>504055.51418629516</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7126,11 +7204,11 @@
       <c r="J77" s="6"/>
       <c r="K77" s="6">
         <f t="shared" si="9"/>
-        <v>151964.018280217</v>
+        <v>151964.01828021748</v>
       </c>
       <c r="L77" s="6">
         <f t="shared" si="9"/>
-        <v>510421.948467616</v>
+        <v>510421.94846761576</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -7160,11 +7238,11 @@
       <c r="J78" s="6"/>
       <c r="K78" s="6">
         <f t="shared" si="9"/>
-        <v>101862.948501129</v>
+        <v>101862.94850112939</v>
       </c>
       <c r="L78" s="6">
         <f t="shared" si="9"/>
-        <v>759820.091401087</v>
+        <v>759820.09140108747</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7194,11 +7272,11 @@
       <c r="J79" s="6"/>
       <c r="K79" s="6">
         <f t="shared" si="9"/>
-        <v>146151.186979881</v>
+        <v>146151.18697988131</v>
       </c>
       <c r="L79" s="6">
         <f t="shared" si="9"/>
-        <v>529798.05280207</v>
+        <v>529798.05280206969</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -7228,11 +7306,11 @@
       <c r="J80" s="6"/>
       <c r="K80" s="6">
         <f t="shared" si="9"/>
-        <v>137016.737793639</v>
+        <v>137016.73779363872</v>
       </c>
       <c r="L80" s="6">
         <f t="shared" si="9"/>
-        <v>566059.048056548</v>
+        <v>566059.04805654788</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -7262,11 +7340,11 @@
       <c r="J81" s="6"/>
       <c r="K81" s="6">
         <f t="shared" si="9"/>
-        <v>101032.544029653</v>
+        <v>101032.5440296528</v>
       </c>
       <c r="L81" s="6">
         <f t="shared" si="9"/>
-        <v>765909.724191916</v>
+        <v>765909.72419191583</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -7296,11 +7374,11 @@
       <c r="J82" s="6"/>
       <c r="K82" s="6">
         <f t="shared" si="9"/>
-        <v>101586.147010637</v>
+        <v>101586.14701063719</v>
       </c>
       <c r="L82" s="6">
         <f t="shared" si="9"/>
-        <v>762864.907796502</v>
+        <v>762864.90779650165</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -7330,11 +7408,11 @@
       <c r="J83" s="6"/>
       <c r="K83" s="6">
         <f t="shared" si="9"/>
-        <v>146151.186979881</v>
+        <v>146151.18697988131</v>
       </c>
       <c r="L83" s="6">
         <f t="shared" si="9"/>
-        <v>529798.05280207</v>
+        <v>529798.05280206969</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -7364,11 +7442,11 @@
       <c r="J84" s="6"/>
       <c r="K84" s="6">
         <f t="shared" si="9"/>
-        <v>99925.338067684</v>
+        <v>99925.338067684002</v>
       </c>
       <c r="L84" s="6">
         <f t="shared" si="9"/>
-        <v>775320.974868651</v>
+        <v>775320.97486865066</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -7398,11 +7476,11 @@
       <c r="J85" s="6"/>
       <c r="K85" s="6">
         <f t="shared" si="9"/>
-        <v>118471.037930661</v>
+        <v>118471.03793066136</v>
       </c>
       <c r="L85" s="6">
         <f t="shared" si="9"/>
-        <v>653805.120542575</v>
+        <v>653805.12054257502</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -7432,11 +7510,11 @@
       <c r="J86" s="6"/>
       <c r="K86" s="6">
         <f t="shared" si="9"/>
-        <v>137016.737793639</v>
+        <v>137016.73779363872</v>
       </c>
       <c r="L86" s="6">
         <f t="shared" si="9"/>
-        <v>566059.048056548</v>
+        <v>566059.04805654788</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -7466,11 +7544,11 @@
       <c r="J87" s="6"/>
       <c r="K87" s="6">
         <f t="shared" si="9"/>
-        <v>136186.333322162</v>
+        <v>136186.33332216213</v>
       </c>
       <c r="L87" s="6">
         <f t="shared" si="9"/>
-        <v>568550.261470978</v>
+        <v>568550.26147097768</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -7500,11 +7578,11 @@
       <c r="J88" s="6"/>
       <c r="K88" s="6">
         <f t="shared" si="9"/>
-        <v>103800.558934575</v>
+        <v>103800.55893457479</v>
       </c>
       <c r="L88" s="6">
         <f t="shared" si="9"/>
-        <v>747364.024328938</v>
+        <v>747364.02432893845</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -7534,11 +7612,11 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6">
         <f t="shared" si="9"/>
-        <v>140061.554189053</v>
+        <v>140061.55418905293</v>
       </c>
       <c r="L89" s="6">
         <f t="shared" si="9"/>
-        <v>553602.980984399</v>
+        <v>553602.98098439886</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -7568,11 +7646,11 @@
       <c r="J90" s="6"/>
       <c r="K90" s="6">
         <f t="shared" si="9"/>
-        <v>151133.613808741</v>
+        <v>151133.61380874089</v>
       </c>
       <c r="L90" s="6">
         <f t="shared" si="9"/>
-        <v>512359.558901061</v>
+        <v>512359.55890106113</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -7602,11 +7680,11 @@
       <c r="J91" s="6"/>
       <c r="K91" s="6">
         <f t="shared" si="9"/>
-        <v>99925.338067684</v>
+        <v>99925.338067684002</v>
       </c>
       <c r="L91" s="6">
         <f t="shared" si="9"/>
-        <v>775320.974868651</v>
+        <v>775320.97486865066</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -7636,11 +7714,11 @@
       <c r="J92" s="6"/>
       <c r="K92" s="6">
         <f t="shared" si="9"/>
-        <v>144490.378036928</v>
+        <v>144490.3780369281</v>
       </c>
       <c r="L92" s="6">
         <f t="shared" si="9"/>
-        <v>536718.090064375</v>
+        <v>536718.09006437473</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -7670,37 +7748,35 @@
       <c r="J93" s="6"/>
       <c r="K93" s="6">
         <f t="shared" si="9"/>
-        <v>144490.378036928</v>
+        <v>144490.3780369281</v>
       </c>
       <c r="L93" s="6">
         <f t="shared" si="9"/>
-        <v>536718.090064375</v>
+        <v>536718.09006437473</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G232" sqref="G232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="73.5" customWidth="1"/>
-    <col min="6" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="7" width="73.3796296296296" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="73.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8010,7 +8086,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -9215,7 +9291,7 @@
         <v>177</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>268</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -9232,13 +9308,13 @@
         <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -9255,13 +9331,13 @@
         <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F77" t="s">
         <v>148</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9278,13 +9354,13 @@
         <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
         <v>148</v>
       </c>
       <c r="G78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9304,7 +9380,7 @@
         <v>148</v>
       </c>
       <c r="G79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -9324,7 +9400,7 @@
         <v>148</v>
       </c>
       <c r="G80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -9338,13 +9414,13 @@
         <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F81" t="s">
         <v>164</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -9361,13 +9437,13 @@
         <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F82" t="s">
         <v>177</v>
       </c>
       <c r="G82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -9384,7 +9460,7 @@
         <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F83" t="s">
         <v>184</v>
@@ -9407,13 +9483,13 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F84" t="s">
         <v>188</v>
       </c>
       <c r="G84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -9430,7 +9506,7 @@
         <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F85" t="s">
         <v>188</v>
@@ -9453,7 +9529,7 @@
         <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F86" t="s">
         <v>188</v>
@@ -9493,13 +9569,13 @@
         <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F88" t="s">
         <v>201</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -9516,13 +9592,13 @@
         <v>146</v>
       </c>
       <c r="E90" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F90" t="s">
         <v>148</v>
       </c>
       <c r="G90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -9542,7 +9618,7 @@
         <v>148</v>
       </c>
       <c r="G91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -9562,7 +9638,7 @@
         <v>148</v>
       </c>
       <c r="G92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -9582,7 +9658,7 @@
         <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -9602,7 +9678,7 @@
         <v>148</v>
       </c>
       <c r="G94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -9616,7 +9692,7 @@
         <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F95" t="s">
         <v>164</v>
@@ -9639,7 +9715,7 @@
         <v>175</v>
       </c>
       <c r="E96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F96" t="s">
         <v>184</v>
@@ -9662,13 +9738,13 @@
         <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F97" t="s">
         <v>219</v>
       </c>
       <c r="G97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -9685,13 +9761,13 @@
         <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F98" t="s">
         <v>164</v>
       </c>
       <c r="G98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -9708,7 +9784,7 @@
         <v>186</v>
       </c>
       <c r="E99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F99" t="s">
         <v>188</v>
@@ -9731,7 +9807,7 @@
         <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F100" t="s">
         <v>188</v>
@@ -9751,16 +9827,16 @@
         <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F101" t="s">
         <v>194</v>
       </c>
       <c r="G101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="B102">
         <v>7013</v>
       </c>
@@ -9768,16 +9844,16 @@
         <v>196</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F102" t="s">
         <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="B103">
         <v>7014</v>
       </c>
@@ -9788,10 +9864,10 @@
         <v>225</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="B104">
         <v>7015</v>
       </c>
@@ -9802,7 +9878,7 @@
         <v>225</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -9819,7 +9895,7 @@
         <v>146</v>
       </c>
       <c r="E106" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F106" t="s">
         <v>148</v>
@@ -9919,7 +9995,7 @@
         <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F111" t="s">
         <v>164</v>
@@ -9942,7 +10018,7 @@
         <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F112" t="s">
         <v>225</v>
@@ -9965,13 +10041,13 @@
         <v>179</v>
       </c>
       <c r="E113" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F113" t="s">
         <v>184</v>
       </c>
       <c r="G113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -9988,7 +10064,7 @@
         <v>182</v>
       </c>
       <c r="E114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F114" t="s">
         <v>184</v>
@@ -10011,7 +10087,7 @@
         <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
         <v>188</v>
@@ -10034,7 +10110,7 @@
         <v>190</v>
       </c>
       <c r="E116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F116" t="s">
         <v>188</v>
@@ -10054,13 +10130,13 @@
         <v>192</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F117" t="s">
         <v>194</v>
       </c>
       <c r="G117" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -10077,7 +10153,7 @@
         <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F119" t="s">
         <v>148</v>
@@ -10143,7 +10219,7 @@
         <v>148</v>
       </c>
       <c r="G122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -10163,7 +10239,7 @@
         <v>148</v>
       </c>
       <c r="G123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -10177,13 +10253,13 @@
         <v>162</v>
       </c>
       <c r="E124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F124" t="s">
         <v>164</v>
       </c>
       <c r="G124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -10200,7 +10276,7 @@
         <v>175</v>
       </c>
       <c r="E125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F125" t="s">
         <v>177</v>
@@ -10223,13 +10299,13 @@
         <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F126" t="s">
         <v>225</v>
       </c>
       <c r="G126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -10246,13 +10322,13 @@
         <v>182</v>
       </c>
       <c r="E127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F127" t="s">
         <v>225</v>
       </c>
       <c r="G127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -10292,7 +10368,7 @@
         <v>190</v>
       </c>
       <c r="E129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F129" t="s">
         <v>188</v>
@@ -10312,7 +10388,7 @@
         <v>192</v>
       </c>
       <c r="E130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F130" t="s">
         <v>194</v>
@@ -10335,13 +10411,13 @@
         <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F132" t="s">
         <v>148</v>
       </c>
       <c r="G132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -10361,7 +10437,7 @@
         <v>148</v>
       </c>
       <c r="G133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -10381,7 +10457,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -10401,7 +10477,7 @@
         <v>148</v>
       </c>
       <c r="G135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -10421,7 +10497,7 @@
         <v>148</v>
       </c>
       <c r="G136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -10435,7 +10511,7 @@
         <v>162</v>
       </c>
       <c r="E137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F137" t="s">
         <v>164</v>
@@ -10458,13 +10534,13 @@
         <v>175</v>
       </c>
       <c r="E138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F138" t="s">
         <v>177</v>
       </c>
       <c r="G138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -10481,13 +10557,13 @@
         <v>179</v>
       </c>
       <c r="E139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F139" t="s">
         <v>164</v>
       </c>
       <c r="G139" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -10504,13 +10580,13 @@
         <v>182</v>
       </c>
       <c r="E140" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F140" t="s">
         <v>164</v>
       </c>
       <c r="G140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -10527,13 +10603,13 @@
         <v>182</v>
       </c>
       <c r="E141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F141" t="s">
         <v>225</v>
       </c>
       <c r="G141" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -10573,7 +10649,7 @@
         <v>190</v>
       </c>
       <c r="E143" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F143" t="s">
         <v>188</v>
@@ -10593,13 +10669,13 @@
         <v>192</v>
       </c>
       <c r="E144" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F144" t="s">
         <v>194</v>
       </c>
       <c r="G144" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -10616,13 +10692,13 @@
         <v>146</v>
       </c>
       <c r="E146" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F146" t="s">
         <v>148</v>
       </c>
       <c r="G146" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -10642,7 +10718,7 @@
         <v>148</v>
       </c>
       <c r="G147" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -10662,7 +10738,7 @@
         <v>148</v>
       </c>
       <c r="G148" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -10682,7 +10758,7 @@
         <v>148</v>
       </c>
       <c r="G149" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -10702,7 +10778,7 @@
         <v>148</v>
       </c>
       <c r="G150" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -10716,13 +10792,13 @@
         <v>162</v>
       </c>
       <c r="E151" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F151" t="s">
         <v>184</v>
       </c>
       <c r="G151" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -10736,13 +10812,13 @@
         <v>162</v>
       </c>
       <c r="E152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F152" t="s">
         <v>164</v>
       </c>
       <c r="G152" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -10759,13 +10835,13 @@
         <v>175</v>
       </c>
       <c r="E153" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F153" t="s">
         <v>184</v>
       </c>
       <c r="G153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -10782,13 +10858,13 @@
         <v>179</v>
       </c>
       <c r="E154" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F154" t="s">
         <v>164</v>
       </c>
       <c r="G154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -10805,13 +10881,13 @@
         <v>182</v>
       </c>
       <c r="E155" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F155" t="s">
         <v>184</v>
       </c>
       <c r="G155" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -10828,7 +10904,7 @@
         <v>186</v>
       </c>
       <c r="E156" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F156" t="s">
         <v>188</v>
@@ -10851,7 +10927,7 @@
         <v>190</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
         <v>188</v>
@@ -10871,7 +10947,7 @@
         <v>192</v>
       </c>
       <c r="E158" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F158" t="s">
         <v>194</v>
@@ -10891,13 +10967,13 @@
         <v>196</v>
       </c>
       <c r="E159" t="s">
+        <v>357</v>
+      </c>
+      <c r="F159" t="s">
         <v>358</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>359</v>
-      </c>
-      <c r="G159" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -10911,10 +10987,10 @@
         <v>196</v>
       </c>
       <c r="F160" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G160" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -10928,10 +11004,10 @@
         <v>196</v>
       </c>
       <c r="F161" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G161" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -10945,13 +11021,13 @@
         <v>196</v>
       </c>
       <c r="E162" t="s">
+        <v>362</v>
+      </c>
+      <c r="F162" t="s">
+        <v>358</v>
+      </c>
+      <c r="G162" t="s">
         <v>363</v>
-      </c>
-      <c r="F162" t="s">
-        <v>359</v>
-      </c>
-      <c r="G162" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -10968,13 +11044,13 @@
         <v>146</v>
       </c>
       <c r="E164" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F164" t="s">
         <v>148</v>
       </c>
       <c r="G164" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -10994,7 +11070,7 @@
         <v>148</v>
       </c>
       <c r="G165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -11014,7 +11090,7 @@
         <v>148</v>
       </c>
       <c r="G166" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -11034,7 +11110,7 @@
         <v>148</v>
       </c>
       <c r="G167" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -11054,7 +11130,7 @@
         <v>148</v>
       </c>
       <c r="G168" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -11068,13 +11144,13 @@
         <v>192</v>
       </c>
       <c r="E169" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F169" t="s">
         <v>194</v>
       </c>
       <c r="G169" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -11088,7 +11164,7 @@
         <v>162</v>
       </c>
       <c r="E170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G170" t="s">
         <v>165</v>
@@ -11108,13 +11184,13 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F171" t="s">
         <v>219</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -11131,7 +11207,7 @@
         <v>179</v>
       </c>
       <c r="E172" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F172" t="s">
         <v>219</v>
@@ -11154,13 +11230,13 @@
         <v>182</v>
       </c>
       <c r="E173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F173" t="s">
         <v>177</v>
       </c>
       <c r="G173" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -11177,13 +11253,13 @@
         <v>182</v>
       </c>
       <c r="E174" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F174" t="s">
         <v>184</v>
       </c>
       <c r="G174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -11200,7 +11276,7 @@
         <v>186</v>
       </c>
       <c r="E175" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F175" t="s">
         <v>188</v>
@@ -11223,7 +11299,7 @@
         <v>190</v>
       </c>
       <c r="E176" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F176" t="s">
         <v>188</v>
@@ -11232,7 +11308,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -11246,16 +11322,16 @@
         <v>146</v>
       </c>
       <c r="E178" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F178" t="s">
         <v>148</v>
       </c>
       <c r="G178" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -11269,16 +11345,16 @@
         <v>150</v>
       </c>
       <c r="E179" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F179" t="s">
         <v>148</v>
       </c>
       <c r="G179" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -11292,16 +11368,16 @@
         <v>153</v>
       </c>
       <c r="E180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F180" t="s">
         <v>148</v>
       </c>
       <c r="G180" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
         <v>92</v>
       </c>
@@ -11315,16 +11391,16 @@
         <v>156</v>
       </c>
       <c r="E181" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F181" t="s">
         <v>148</v>
       </c>
       <c r="G181" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
         <v>92</v>
       </c>
@@ -11338,16 +11414,16 @@
         <v>159</v>
       </c>
       <c r="E182" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F182" t="s">
         <v>148</v>
       </c>
       <c r="G182" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
         <v>92</v>
       </c>
@@ -11358,7 +11434,7 @@
         <v>192</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F183" t="s">
         <v>194</v>
@@ -11367,7 +11443,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
         <v>92</v>
       </c>
@@ -11378,7 +11454,7 @@
         <v>162</v>
       </c>
       <c r="E184" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F184" t="s">
         <v>219</v>
@@ -11401,19 +11477,19 @@
         <v>175</v>
       </c>
       <c r="E185" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F185" t="s">
         <v>177</v>
       </c>
       <c r="G185" t="s">
+        <v>390</v>
+      </c>
+      <c r="H185" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -11427,16 +11503,16 @@
         <v>179</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F186" t="s">
         <v>225</v>
       </c>
       <c r="G186" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>92</v>
       </c>
@@ -11450,16 +11526,16 @@
         <v>182</v>
       </c>
       <c r="E187" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F187" t="s">
         <v>225</v>
       </c>
       <c r="G187" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>92</v>
       </c>
@@ -11482,7 +11558,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
         <v>92</v>
       </c>
@@ -11496,7 +11572,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F189" t="s">
         <v>188</v>
@@ -11505,7 +11581,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
         <v>69</v>
       </c>
@@ -11519,16 +11595,16 @@
         <v>146</v>
       </c>
       <c r="E191" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F191" t="s">
         <v>148</v>
       </c>
       <c r="G191" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
         <v>69</v>
       </c>
@@ -11545,10 +11621,10 @@
         <v>148</v>
       </c>
       <c r="G192" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
         <v>69</v>
       </c>
@@ -11562,16 +11638,16 @@
         <v>153</v>
       </c>
       <c r="E193" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F193" t="s">
         <v>148</v>
       </c>
       <c r="G193" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
         <v>69</v>
       </c>
@@ -11588,10 +11664,10 @@
         <v>148</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
         <v>69</v>
       </c>
@@ -11608,10 +11684,10 @@
         <v>148</v>
       </c>
       <c r="G195" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
         <v>69</v>
       </c>
@@ -11622,7 +11698,7 @@
         <v>192</v>
       </c>
       <c r="E196" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F196" t="s">
         <v>194</v>
@@ -11631,7 +11707,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
         <v>69</v>
       </c>
@@ -11642,7 +11718,7 @@
         <v>162</v>
       </c>
       <c r="E197" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F197" t="s">
         <v>219</v>
@@ -11651,7 +11727,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>69</v>
       </c>
@@ -11665,16 +11741,16 @@
         <v>175</v>
       </c>
       <c r="E198" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F198" t="s">
         <v>225</v>
       </c>
       <c r="G198" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
         <v>69</v>
       </c>
@@ -11688,16 +11764,16 @@
         <v>179</v>
       </c>
       <c r="E199" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F199" t="s">
         <v>225</v>
       </c>
       <c r="G199" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
         <v>69</v>
       </c>
@@ -11711,16 +11787,16 @@
         <v>182</v>
       </c>
       <c r="E200" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F200" t="s">
         <v>188</v>
       </c>
       <c r="G200" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
         <v>69</v>
       </c>
@@ -11734,7 +11810,7 @@
         <v>182</v>
       </c>
       <c r="E201" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F201" t="s">
         <v>184</v>
@@ -11743,7 +11819,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
         <v>69</v>
       </c>
@@ -11757,7 +11833,7 @@
         <v>186</v>
       </c>
       <c r="E202" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F202" t="s">
         <v>188</v>
@@ -11766,7 +11842,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
         <v>69</v>
       </c>
@@ -11780,7 +11856,7 @@
         <v>190</v>
       </c>
       <c r="E203" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F203" t="s">
         <v>188</v>
@@ -11803,19 +11879,17 @@
         <v>146</v>
       </c>
       <c r="E205" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F205" t="s">
         <v>148</v>
       </c>
       <c r="G205" t="s">
-        <v>412</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>411</v>
+      </c>
+      <c r="H205" s="4"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
         <v>79</v>
       </c>
@@ -11832,10 +11906,10 @@
         <v>148</v>
       </c>
       <c r="G206" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
         <v>79</v>
       </c>
@@ -11852,10 +11926,10 @@
         <v>148</v>
       </c>
       <c r="G207" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
         <v>79</v>
       </c>
@@ -11872,10 +11946,10 @@
         <v>148</v>
       </c>
       <c r="G208" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="3" t="s">
         <v>79</v>
       </c>
@@ -11892,7 +11966,7 @@
         <v>148</v>
       </c>
       <c r="G209" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11906,19 +11980,17 @@
         <v>192</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F210" t="s">
         <v>194</v>
       </c>
       <c r="G210" t="s">
-        <v>419</v>
-      </c>
-      <c r="H210" s="4" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>417</v>
+      </c>
+      <c r="H210" s="4"/>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
         <v>79</v>
       </c>
@@ -11929,13 +12001,13 @@
         <v>162</v>
       </c>
       <c r="E211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G211" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11949,19 +12021,17 @@
         <v>162</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>421</v>
+      </c>
+      <c r="H212" s="4"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
         <v>79</v>
       </c>
@@ -11972,16 +12042,16 @@
         <v>162</v>
       </c>
       <c r="E213" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
         <v>79</v>
       </c>
@@ -11992,13 +12062,13 @@
         <v>162</v>
       </c>
       <c r="E214" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>428</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -12012,19 +12082,17 @@
         <v>196</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G215" t="s">
-        <v>165</v>
-      </c>
-      <c r="H215" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>467</v>
+      </c>
+      <c r="H215" s="4"/>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
         <v>79</v>
       </c>
@@ -12035,16 +12103,16 @@
         <v>196</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G216" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
         <v>79</v>
       </c>
@@ -12058,7 +12126,7 @@
         <v>175</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>225</v>
@@ -12067,7 +12135,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
         <v>79</v>
       </c>
@@ -12081,13 +12149,13 @@
         <v>179</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -12104,19 +12172,19 @@
         <v>182</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
         <v>79</v>
       </c>
@@ -12130,16 +12198,16 @@
         <v>186</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F220" t="s">
         <v>188</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
         <v>79</v>
       </c>
@@ -12153,7 +12221,7 @@
         <v>190</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F221" t="s">
         <v>188</v>
@@ -12162,7 +12230,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" s="3" t="s">
         <v>89</v>
       </c>
@@ -12176,16 +12244,16 @@
         <v>146</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F223" t="s">
         <v>148</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
         <v>89</v>
       </c>
@@ -12202,10 +12270,10 @@
         <v>148</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="2" t="s">
         <v>89</v>
       </c>
@@ -12222,10 +12290,10 @@
         <v>148</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="2" t="s">
         <v>89</v>
       </c>
@@ -12242,10 +12310,10 @@
         <v>148</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="3" t="s">
         <v>89</v>
       </c>
@@ -12262,10 +12330,10 @@
         <v>148</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
         <v>89</v>
       </c>
@@ -12276,7 +12344,7 @@
         <v>192</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
         <v>194</v>
@@ -12285,7 +12353,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:8">
       <c r="A229" s="2" t="s">
         <v>89</v>
       </c>
@@ -12296,7 +12364,7 @@
         <v>162</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>164</v>
@@ -12316,19 +12384,17 @@
         <v>162</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="H230" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>442</v>
+      </c>
+      <c r="H230" s="4"/>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="2" t="s">
         <v>89</v>
       </c>
@@ -12339,16 +12405,16 @@
         <v>162</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="2" t="s">
         <v>89</v>
       </c>
@@ -12359,13 +12425,13 @@
         <v>162</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
         <v>164</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -12379,17 +12445,15 @@
         <v>196</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G233" t="s">
-        <v>165</v>
-      </c>
-      <c r="H233" s="4" t="s">
-        <v>455</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="H233" s="4"/>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
@@ -12402,17 +12466,15 @@
         <v>196</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G234" t="s">
-        <v>165</v>
-      </c>
-      <c r="H234" s="4" t="s">
-        <v>457</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="H234" s="4"/>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
@@ -12428,19 +12490,17 @@
         <v>175</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G235" t="s">
-        <v>165</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>469</v>
+      </c>
+      <c r="H235" s="4"/>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
         <v>89</v>
       </c>
@@ -12454,16 +12514,16 @@
         <v>179</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
         <v>89</v>
       </c>
@@ -12477,16 +12537,16 @@
         <v>182</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
         <v>89</v>
       </c>
@@ -12500,7 +12560,7 @@
         <v>186</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F238" t="s">
         <v>188</v>
@@ -12509,7 +12569,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
         <v>89</v>
       </c>
@@ -12523,7 +12583,7 @@
         <v>190</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F239" t="s">
         <v>188</v>
@@ -12534,359 +12594,352 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="0" priority="83" operator="between" text="没做">
+    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="没做">
       <formula>NOT(ISERROR(SEARCH("没做",G84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:C152">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160">
-    <cfRule type="cellIs" dxfId="1" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="81" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161">
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="80" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162">
-    <cfRule type="cellIs" dxfId="1" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:G183">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D189">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:G196">
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="cellIs" dxfId="1" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C201:D201">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C214">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F214">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G215">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+  <conditionalFormatting sqref="G215:G216">
+    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G216">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F217">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G217">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F218">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="29" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F221">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G229">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H230">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C232">
+    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F232">
+    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G235">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F238">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F239">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G239">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D203:D204">
+    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D205:D209">
+    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D223:D227">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D235:D239">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:E92">
+    <cfRule type="cellIs" dxfId="18" priority="52" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112:E121">
+    <cfRule type="cellIs" dxfId="17" priority="53" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122:E134">
+    <cfRule type="cellIs" dxfId="16" priority="54" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E135:E149">
+    <cfRule type="cellIs" dxfId="15" priority="55" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E151:E160">
+    <cfRule type="cellIs" dxfId="14" priority="56" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E175:E185">
+    <cfRule type="cellIs" dxfId="13" priority="65" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F223:F227">
+    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:XFD19 A1:E73 A74:D92 A93:E111 A112:D149 A150:E150 A151:D151 G20:XFD159 F152:F159 A153:D160 F20:F150 H160:XFD162 A161:E162 A163:XFD163 B164:B176 F164:XFD178 F179:G182 H179:XFD183 C169:D176 A177:D177 A178:A189 E186:XFD187 F184:XFD185 A190:D190 A191:A200 G191:XFD195 H196:XFD196 A202:A204 A205:C205 G210:XFD210 B206:C209 F188:XFD190 F211:XFD213 B207:B215 F215 B210:D213 A206:A220 B217 B219 B221">
+    <cfRule type="cellIs" dxfId="11" priority="83" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 F219:XFD219 E213 B214 D214:E214 H221:XFD221 G220:XFD220 H215:XFD217 G218:XFD218 B217:E221 A222:XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B224:B234 C233:F234 A240:XFD1048576 E235:F235 B235:C239 C224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235">
+    <cfRule type="cellIs" dxfId="10" priority="84" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164:D168">
+    <cfRule type="cellIs" dxfId="9" priority="69" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E165:E172 E174">
+    <cfRule type="cellIs" dxfId="8" priority="63" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B178:B189 C183:D188 C189">
+    <cfRule type="cellIs" dxfId="7" priority="68" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178:D182">
+    <cfRule type="cellIs" dxfId="6" priority="67" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C191:D195">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F191 F192:F195">
+    <cfRule type="cellIs" dxfId="4" priority="43" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C196:D200 C203:C204 C202:D202">
+    <cfRule type="cellIs" dxfId="3" priority="50" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E217 E213:E215 E219">
+    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G234">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F232">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G233">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G234">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G235">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F238">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F239">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G239">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D203:D204">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D205:D209">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D223:D227">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D235:D239">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E92">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E112:E121">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122:E134">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E135:E149">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E151:E160">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E175:E185">
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F223:F227">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:XFD19 A1:E73 A74:D92 A93:E111 A112:D149 A150:E150 A151:D151 G20:XFD159 F152:F159 A153:D160 F20:F150 H160:XFD162 A161:E162 $A163:$XFD163 B164:B176 F164:XFD178 F179:G182 H179:XFD183 C169:D176 A177:D177 A178:A189 E186:XFD187 F184:XFD185 A190:D190 A191:A200 G191:XFD195 H196:XFD196 A202:A204 A205:C205 G210:XFD210 B206:C209 F188:XFD190 F211:XFD213 B207:B215 F215 B210:D213 A206:A220 B217 B219 B221">
-    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 F219:XFD219 E213 B214 D214:E214 H221:XFD221 G220:XFD220 H215:XFD217 G218:XFD218 B217:E221 $A222:$XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B224:B234 C233:F234 $A240:$XFD1048576 E235:F235 B235:C239 C224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235">
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164:D168">
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E165:E172 E174">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178:B189 C183:D188 C189">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C178:D182">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C191:D195">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F191 F192:F195">
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C196:D200 C203:C204 C202:D202">
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E217 E213:E215 E219">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -12900,10 +12953,10 @@
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -12917,10 +12970,10 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -12934,10 +12987,10 @@
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -12951,10 +13004,10 @@
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -12968,10 +13021,10 @@
         <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -12982,10 +13035,10 @@
         <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -12999,10 +13052,10 @@
         <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -13016,10 +13069,10 @@
         <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -13033,10 +13086,10 @@
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -13053,7 +13106,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -13169,7 +13222,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -13180,7 +13233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -13194,7 +13247,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -13208,7 +13261,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -13222,7 +13275,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -13236,7 +13289,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -13250,7 +13303,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -13261,7 +13314,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -13275,7 +13328,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -13289,7 +13342,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -13303,7 +13356,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -13317,7 +13370,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -13331,7 +13384,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -13412,7 +13465,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -13493,7 +13546,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -13574,7 +13627,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -13587,6 +13640,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seanzou/Documents/GitHub_Repository/fumaSim/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5280D5-75EE-CB4E-ACF4-F7479658E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE8DC1D-631D-454B-ADC5-C338E6BA0547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="1420" windowWidth="22360" windowHeight="13120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="3020" windowWidth="25900" windowHeight="13120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="544">
   <si>
     <t>角色名</t>
   </si>
@@ -2768,6 +2768,225 @@
   <si>
     <t>目标受到暗属性伤害+1%(最多20层)</t>
   </si>
+  <si>
+    <t>以自身攻击力475/550/625/700/775%对目标造成伤害，CD: 5</t>
+  </si>
+  <si>
+    <t>对目标475%技能伤害</t>
+  </si>
+  <si>
+    <t>对目标550%技能伤害</t>
+  </si>
+  <si>
+    <t>对目标625%技能伤害</t>
+  </si>
+  <si>
+    <t>对目标700%技能伤害</t>
+  </si>
+  <si>
+    <t>对目标775%技能伤害</t>
+  </si>
+  <si>
+    <t>以自身攻击力125%对目标造成伤害</t>
+  </si>
+  <si>
+    <t>使自身最大HP增加50%</t>
+  </si>
+  <si>
+    <t>使我方全体暗属性队员攻击力增加20%</t>
+  </si>
+  <si>
+    <t>自身生命值+50%</t>
+  </si>
+  <si>
+    <t>队伍中暗属性攻击力+20%</t>
+  </si>
+  <si>
+    <t>圣诞矮人王兰儿在我方队伍时使她《屈服恐惧》，再使暗黑圣诞艾可发动《越发癫狂》</t>
+  </si>
+  <si>
+    <t>圣诞驯鹿希依在我方队伍时使她《屈服恐惧》，再使暗黑圣诞艾可发动《越发癫狂》</t>
+  </si>
+  <si>
+    <t>《屈服恐惧》：第1回合时，触发'以自身攻击力100%使暗黑圣诞艾可攻击力增加(50回合)</t>
+  </si>
+  <si>
+    <t>《屈服恐惧》：必杀技CD停止倒数5回合、必杀技最大CD增加2回合</t>
+  </si>
+  <si>
+    <t>自身普攻时触发'使目标受到必杀伤害增加2.5%(最多4层)</t>
+  </si>
+  <si>
+    <t>目标受到必杀伤害+2.5%(最多4层)</t>
+  </si>
+  <si>
+    <t>当'圣诞驯鹿希依'在我方队伍中，发动'《杀死驯鹿》</t>
+  </si>
+  <si>
+    <t>《杀死驯鹿》：使自身攻击时，触发'对除了自身以外队员造成其最大HP10%的真实伤害'</t>
+  </si>
+  <si>
+    <t>《杀死驯鹿》：使自身普攻时，触发'使敌方目标受到暗属性伤害增加5%(最多4层)'</t>
+  </si>
+  <si>
+    <t>目标受到暗属性伤害+5%(最多4层)</t>
+  </si>
+  <si>
+    <t>自身普攻时，触发'使敌方目标受到普攻伤害增加5%(最多4层)'</t>
+  </si>
+  <si>
+    <t>目标受到普攻伤害+2.5%(最多4层)</t>
+  </si>
+  <si>
+    <t>当'圣诞矮人王兰儿'在我方队伍中，发动'《摧毁圣诞》'</t>
+  </si>
+  <si>
+    <t>《摧毁圣诞》：使自身攻击时，触发'对除了自身以外队员造成其最大HP10%的真实伤害'</t>
+  </si>
+  <si>
+    <t>《摧毁圣诞》：使自身普攻时，触发'使目标受到暗黑圣诞艾可伤害增加6%(最多5层)'</t>
+  </si>
+  <si>
+    <t>目标受到暗黑圣诞艾可伤害+6%(最多5层)</t>
+  </si>
+  <si>
+    <t>自身普攻伤害增加50%</t>
+  </si>
+  <si>
+    <t>自身免疫沉默</t>
+  </si>
+  <si>
+    <t>自身攻击力增加10%</t>
+  </si>
+  <si>
+    <t>自身普攻伤害+50%</t>
+  </si>
+  <si>
+    <t>我方全体获得'每回合以攻击力69/73/76/80/88%进行治疗(5回合)'、 '最大HP50/55/55/60/60%的护盾(1回合)'、'攻击力增加10/15/15/20/20%(3回合) [5绊(4回合)]'，CD: 5 [3绊CD: 4]</t>
+  </si>
+  <si>
+    <t>友方攻击力+15%(3回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(4回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+10%(3回合)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(3回合)</t>
+  </si>
+  <si>
+    <t>以自身攻击力75%对我方全体进行治疗</t>
+  </si>
+  <si>
+    <t>自身攻击力增加100%</t>
+  </si>
+  <si>
+    <t>自身必杀技伤害+15%(最多2层)</t>
+  </si>
+  <si>
+    <t>自身普攻伤害+50%(最多1层)</t>
+  </si>
+  <si>
+    <t>第一回合时，触发'给予我方全体攻击者"《凯萨的特别菜单》(50回合)"'</t>
+  </si>
+  <si>
+    <t>自身攻击力+100%</t>
+  </si>
+  <si>
+    <t>队伍中攻击者获得技能37009,队伍中攻击者获得技能37010</t>
+  </si>
+  <si>
+    <t>《凯萨的特别菜单》：普攻时，触发'必杀技伤害增加15%(最多2层)'</t>
+  </si>
+  <si>
+    <t>《凯萨的特别菜单》：必杀时，触发'普攻伤害增加50%(最多1层)'</t>
+  </si>
+  <si>
+    <t>攻击时，触发'以自身攻击力25%使我方全体攻击力增加(1回合)'</t>
+  </si>
+  <si>
+    <t>第1回合时，触发'使我方站位1角色获得造成治疗量增加20%(最多1层)、造成持续型治疗增加20%(最多1层)、造成护盾量增加20%(最多1层)'</t>
+  </si>
+  <si>
+    <t>第1回合时，触发'使我方站位5角色获得攻击力增加20%(最多1层)、必杀技伤害增加10%(最多1层)、普攻伤害增加20%(最多1层)'</t>
+  </si>
+  <si>
+    <t>a{5}攻击力+20%(最多1层),a{5}必杀技伤害+10%(最多1层),a{5}普攻伤害+20%(最多1层)</t>
+  </si>
+  <si>
+    <t>第1回合时，触发'使我方攻击者和治疗者获得"必杀技伤害增加25%" (50回合)'</t>
+  </si>
+  <si>
+    <t>队伍中攻击者必杀技伤害+25%,队伍中治疗者必杀技伤害+25%</t>
+  </si>
+  <si>
+    <t>回复自身最大HP30/40/40/50/50%获得嘲讽效果(2回合)并变为防御状态，再使我方全体受到伤害减少0/0/0/5/10%(1回合)，CD: 4 [3绊CD: 3]</t>
+  </si>
+  <si>
+    <t>友方受到伤害-5%(1回合)</t>
+  </si>
+  <si>
+    <t>友方受到伤害-10%(1回合)</t>
+  </si>
+  <si>
+    <t>以自身攻击力50%对目标造成伤害，再使自身变为防御状态</t>
+  </si>
+  <si>
+    <t>对目标50%普攻伤害</t>
+  </si>
+  <si>
+    <t>自身受到伤害-20%(1回合)</t>
+  </si>
+  <si>
+    <t>必杀时，自身触发'受到伤害减少20%(1回合)'</t>
+  </si>
+  <si>
+    <t>第一回合时，触发'使我方全体每回合以攻击力70%进行治疗(50回合)'</t>
+  </si>
+  <si>
+    <t>必杀时，触发'《圣诞极道》 '：使我方站位1、2角色获得'受到控场机率减少75%(1回合)'、'攻击力增加30%(2回合)'</t>
+  </si>
+  <si>
+    <t>a{1_2}攻击力+30%(2回合)</t>
+  </si>
+  <si>
+    <t>必杀时，触发'使我方站位2和站位5角色获得"受到伤害减少20%(1回合)"'</t>
+  </si>
+  <si>
+    <t>a{2_5}受到伤害-20%(1回合)</t>
+  </si>
+  <si>
+    <t>HP增加10%</t>
+  </si>
+  <si>
+    <t>被攻击时,触发'以自身基础攻击力100%对我方全体进行治疗'</t>
+  </si>
+  <si>
+    <t>自身生命值+10%</t>
+  </si>
+  <si>
+    <t>如果{圣诞驯鹿 希依}数量大于1则{暗黑圣诞 艾可}获得技能36015,{暗黑圣诞 艾可}获得技能36016</t>
+  </si>
+  <si>
+    <t>如果{圣诞矮人王 兰儿}数量大于1则{暗黑圣诞 艾可}获得技能36019,{暗黑圣诞 艾可}获得技能36020</t>
+  </si>
+  <si>
+    <t>如果{圣诞矮人王 兰儿}数量大于1则{暗黑圣诞 艾可}造成伤害+50%,队伍中暗属性攻击力+25%,{圣诞矮人王 兰儿}获得技能36011</t>
+  </si>
+  <si>
+    <t>如果{圣诞驯鹿 希依}数量大于1则{暗黑圣诞 艾可}造成伤害+50%,队伍中暗属性攻击力+25%,{圣诞驯鹿 希依}获得技能36011</t>
+  </si>
+  <si>
+    <t>50N+1回合触发:{暗黑圣诞 艾可}攻击力数值+100%</t>
+  </si>
+  <si>
+    <t>第一回合时，触发'使我方站位1、2、5角色获得"《奇迹使者》"'《奇迹使者》：'攻击力增加40%(最多1层)'、'必杀技伤害增加20%(最多1层)'、'普攻伤害增加40%(最多1层)'</t>
+  </si>
+  <si>
+    <t>a{1_2_5}攻击力+40%(最多1层),a{1_2_5}必杀技伤害+20%(最多1层),a{1_2_5}普攻伤害+40%(最多1层)</t>
+  </si>
 </sst>
 </file>
 
@@ -2776,7 +2995,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2846,6 +3065,21 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2872,7 +3106,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2906,12 +3140,248 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="92">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4056,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5787,7 +6257,7 @@
       <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B39" s="2"/>
@@ -7764,10 +8234,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G232" sqref="G232"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G285" sqref="G285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8036,7 +8506,7 @@
       <c r="F12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -12064,8 +12534,8 @@
       <c r="E214" t="s">
         <v>424</v>
       </c>
-      <c r="F214" s="3" t="s">
-        <v>219</v>
+      <c r="F214" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G214" s="3" t="s">
         <v>465</v>
@@ -12174,8 +12644,8 @@
       <c r="E219" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="F219" s="3" t="s">
-        <v>219</v>
+      <c r="F219" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G219" s="3" t="s">
         <v>466</v>
@@ -12231,7 +12701,7 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B223">
@@ -12592,334 +13062,1608 @@
         <v>165</v>
       </c>
     </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B241">
+        <v>36001</v>
+      </c>
+      <c r="C241" t="s">
+        <v>145</v>
+      </c>
+      <c r="D241" t="s">
+        <v>146</v>
+      </c>
+      <c r="E241" t="s">
+        <v>471</v>
+      </c>
+      <c r="F241" t="s">
+        <v>148</v>
+      </c>
+      <c r="G241" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B242">
+        <v>36002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>145</v>
+      </c>
+      <c r="D242" t="s">
+        <v>150</v>
+      </c>
+      <c r="F242" t="s">
+        <v>148</v>
+      </c>
+      <c r="G242" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B243">
+        <v>36003</v>
+      </c>
+      <c r="C243" t="s">
+        <v>145</v>
+      </c>
+      <c r="D243" t="s">
+        <v>153</v>
+      </c>
+      <c r="F243" t="s">
+        <v>148</v>
+      </c>
+      <c r="G243" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B244">
+        <v>36004</v>
+      </c>
+      <c r="C244" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" t="s">
+        <v>156</v>
+      </c>
+      <c r="F244" t="s">
+        <v>148</v>
+      </c>
+      <c r="G244" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B245">
+        <v>36005</v>
+      </c>
+      <c r="C245" t="s">
+        <v>145</v>
+      </c>
+      <c r="D245" t="s">
+        <v>159</v>
+      </c>
+      <c r="F245" t="s">
+        <v>148</v>
+      </c>
+      <c r="G245" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B246">
+        <v>36006</v>
+      </c>
+      <c r="C246" t="s">
+        <v>192</v>
+      </c>
+      <c r="E246" t="s">
+        <v>477</v>
+      </c>
+      <c r="F246" t="s">
+        <v>194</v>
+      </c>
+      <c r="G246" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B247">
+        <v>36007</v>
+      </c>
+      <c r="C247" t="s">
+        <v>162</v>
+      </c>
+      <c r="E247" t="s">
+        <v>478</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G247" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B248">
+        <v>36008</v>
+      </c>
+      <c r="C248" t="s">
+        <v>162</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G248" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B249">
+        <v>36009</v>
+      </c>
+      <c r="C249" t="s">
+        <v>162</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G249" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B250">
+        <v>36010</v>
+      </c>
+      <c r="C250" t="s">
+        <v>162</v>
+      </c>
+      <c r="E250" t="s">
+        <v>483</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G250" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B251">
+        <v>36011</v>
+      </c>
+      <c r="C251" t="s">
+        <v>196</v>
+      </c>
+      <c r="E251" t="s">
+        <v>484</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G251" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="H251" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B252">
+        <v>36012</v>
+      </c>
+      <c r="C252" t="s">
+        <v>196</v>
+      </c>
+      <c r="E252" t="s">
+        <v>485</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G252" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B253">
+        <v>36013</v>
+      </c>
+      <c r="C253" t="s">
+        <v>174</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="F253" t="s">
+        <v>177</v>
+      </c>
+      <c r="G253" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B254">
+        <v>36014</v>
+      </c>
+      <c r="C254" t="s">
+        <v>174</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B255">
+        <v>36015</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E255" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B256">
+        <v>36016</v>
+      </c>
+      <c r="C256" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B257">
+        <v>36017</v>
+      </c>
+      <c r="C257" t="s">
+        <v>174</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="F257" t="s">
+        <v>177</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B258">
+        <v>36018</v>
+      </c>
+      <c r="C258" t="s">
+        <v>174</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B259">
+        <v>36019</v>
+      </c>
+      <c r="C259" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E259" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F259" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B260">
+        <v>36020</v>
+      </c>
+      <c r="C260" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E260" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B261">
+        <v>36021</v>
+      </c>
+      <c r="C261" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E261" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G261" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B262">
+        <v>36022</v>
+      </c>
+      <c r="C262" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E262" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G262" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B263">
+        <v>36023</v>
+      </c>
+      <c r="C263" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E263" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G263" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B265">
+        <v>37001</v>
+      </c>
+      <c r="C265" t="s">
+        <v>145</v>
+      </c>
+      <c r="D265" t="s">
+        <v>146</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F265" t="s">
+        <v>148</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B266">
+        <v>37002</v>
+      </c>
+      <c r="C266" t="s">
+        <v>145</v>
+      </c>
+      <c r="D266" t="s">
+        <v>150</v>
+      </c>
+      <c r="F266" t="s">
+        <v>148</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B267">
+        <v>37003</v>
+      </c>
+      <c r="C267" t="s">
+        <v>145</v>
+      </c>
+      <c r="D267" t="s">
+        <v>153</v>
+      </c>
+      <c r="F267" t="s">
+        <v>148</v>
+      </c>
+      <c r="G267" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B268">
+        <v>37004</v>
+      </c>
+      <c r="C268" t="s">
+        <v>145</v>
+      </c>
+      <c r="D268" t="s">
+        <v>156</v>
+      </c>
+      <c r="F268" t="s">
+        <v>148</v>
+      </c>
+      <c r="G268" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B269">
+        <v>37005</v>
+      </c>
+      <c r="C269" t="s">
+        <v>145</v>
+      </c>
+      <c r="D269" t="s">
+        <v>159</v>
+      </c>
+      <c r="F269" t="s">
+        <v>148</v>
+      </c>
+      <c r="G269" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B270">
+        <v>37006</v>
+      </c>
+      <c r="C270" t="s">
+        <v>192</v>
+      </c>
+      <c r="E270" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="F270" t="s">
+        <v>194</v>
+      </c>
+      <c r="G270" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B271">
+        <v>37007</v>
+      </c>
+      <c r="C271" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E271" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G271" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B272">
+        <v>37008</v>
+      </c>
+      <c r="C272" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E272" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G272" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B273">
+        <v>37009</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E273" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="F273" t="s">
+        <v>177</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B274">
+        <v>37010</v>
+      </c>
+      <c r="C274" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G274" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B275">
+        <v>37011</v>
+      </c>
+      <c r="C275" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="F275" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B276">
+        <v>37012</v>
+      </c>
+      <c r="C276" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D276" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G276" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B277">
+        <v>37013</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G277" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B278">
+        <v>37014</v>
+      </c>
+      <c r="C278" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D278" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E278" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G278" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B279">
+        <v>37015</v>
+      </c>
+      <c r="C279" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D279" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E279" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G279" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B280">
+        <v>37016</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D280" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G280" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B282">
+        <v>38001</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D282" t="s">
+        <v>146</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="F282" t="s">
+        <v>148</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B283">
+        <v>38002</v>
+      </c>
+      <c r="C283" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D283" t="s">
+        <v>150</v>
+      </c>
+      <c r="F283" t="s">
+        <v>148</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B284">
+        <v>38003</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D284" t="s">
+        <v>153</v>
+      </c>
+      <c r="F284" t="s">
+        <v>148</v>
+      </c>
+      <c r="G284" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B285">
+        <v>38004</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D285" t="s">
+        <v>156</v>
+      </c>
+      <c r="F285" t="s">
+        <v>148</v>
+      </c>
+      <c r="G285" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B286">
+        <v>38005</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D286" t="s">
+        <v>159</v>
+      </c>
+      <c r="F286" t="s">
+        <v>148</v>
+      </c>
+      <c r="G286" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B287">
+        <v>38006</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E287" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="F287" t="s">
+        <v>194</v>
+      </c>
+      <c r="G287" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B288">
+        <v>38007</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E288" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G288" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B289">
+        <v>38008</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="F289" t="s">
+        <v>219</v>
+      </c>
+      <c r="G289" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B290">
+        <v>38009</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G290" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B291">
+        <v>38010</v>
+      </c>
+      <c r="C291" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D291" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G291" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B292">
+        <v>38011</v>
+      </c>
+      <c r="C292" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D292" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G292" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B293">
+        <v>38012</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D293" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G293" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B294">
+        <v>38013</v>
+      </c>
+      <c r="C294" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G294" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B295">
+        <v>38014</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F295" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G295" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B296">
+        <v>38015</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G296" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="没做">
+    <cfRule type="containsText" dxfId="91" priority="111" operator="containsText" text="没做">
       <formula>NOT(ISERROR(SEARCH("没做",G84)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A152:C152">
-    <cfRule type="cellIs" dxfId="67" priority="82" operator="equal">
+  <conditionalFormatting sqref="A152:C152 B271:XFD272 B273:E274 B275:C275 E275 G273:XFD275 B275:B279 A281:XFD281 B276:XFD280 A282:C282 E282:E286 B287:E288 B291:E292 G291:XFD292 A297:XFD1048576 B293:XFD296 G282:XFD289 A248:XFD250 B251:B263 A252:XFD252 A251:E251 G251:XFD251 A283:A296 B283:C286 D290:XFD290 B284:B296 D289:E289 C289:C290">
+    <cfRule type="cellIs" dxfId="90" priority="108" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="98" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160">
-    <cfRule type="cellIs" dxfId="65" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="64" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="97" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161">
-    <cfRule type="cellIs" dxfId="63" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="96" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162">
-    <cfRule type="cellIs" dxfId="61" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="105" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="60" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="85" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:G183">
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="92" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D189">
-    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:G196">
-    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="73" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="71" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C201:D201">
-    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="70" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C214">
-    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
-      <formula>"没做"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F214">
-    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="57" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G215:G216">
-    <cfRule type="cellIs" dxfId="49" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="60" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216">
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="61" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="62" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F217">
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="53" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G217">
-    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F218">
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="51" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="cellIs" dxfId="42" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="55" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="50" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F221">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="54" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221">
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="47" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228">
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228">
-    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G229">
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H230">
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C232">
-    <cfRule type="cellIs" dxfId="30" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="30" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232">
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G235">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="40" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F238">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G239">
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="35" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:D204">
-    <cfRule type="cellIs" dxfId="22" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="74" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D205:D209">
-    <cfRule type="cellIs" dxfId="21" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="67" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D223:D227">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D235:D239">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E92">
-    <cfRule type="cellIs" dxfId="18" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="78" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:E121">
-    <cfRule type="cellIs" dxfId="17" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="79" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:E134">
-    <cfRule type="cellIs" dxfId="16" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="80" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E149">
-    <cfRule type="cellIs" dxfId="15" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="81" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:E160">
-    <cfRule type="cellIs" dxfId="14" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="82" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175:E185">
-    <cfRule type="cellIs" dxfId="13" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="91" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223:F227">
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:XFD19 A1:E73 A74:D92 A93:E111 A112:D149 A150:E150 A151:D151 G20:XFD159 F152:F159 A153:D160 F20:F150 H160:XFD162 A161:E162 A163:XFD163 B164:B176 F164:XFD178 F179:G182 H179:XFD183 C169:D176 A177:D177 A178:A189 E186:XFD187 F184:XFD185 A190:D190 A191:A200 G191:XFD195 H196:XFD196 A202:A204 A205:C205 G210:XFD210 B206:C209 F188:XFD190 F211:XFD213 B207:B215 F215 B210:D213 A206:A220 B217 B219 B221">
-    <cfRule type="cellIs" dxfId="11" priority="83" operator="equal">
+  <conditionalFormatting sqref="F1:XFD19 A1:E73 A74:D92 A93:E111 A112:D149 A150:E150 A151:D151 G20:XFD159 F152:F159 A153:D160 F20:F150 H160:XFD162 A161:E162 A163:XFD163 B164:B176 F164:XFD178 F179:G182 H179:XFD183 C169:D176 A177:D177 A178:A189 E186:XFD187 F184:XFD185 A190:D190 A191:A200 G191:XFD195 H196:XFD196 A202:A204 A205:C205 G210:XFD210 B206:C209 F188:XFD190 F211:XFD213 B207:B215 B210:D213 A206:A220 B217 B219 B221 F214:F215">
+    <cfRule type="cellIs" dxfId="37" priority="109" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 F219:XFD219 E213 B214 D214:E214 H221:XFD221 G220:XFD220 H215:XFD217 G218:XFD218 B217:E221 A222:XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B224:B234 C233:F234 A240:XFD1048576 E235:F235 B235:C239 C224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235">
-    <cfRule type="cellIs" dxfId="10" priority="84" operator="equal">
+  <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 E213 B214 D214:E214 H221:XFD221 H215:XFD217 G218:XFD220 B217:E221 A222:XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B224:B234 C233:F234 A240:XFD240 E235:F235 B235:C239 C224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235 E241:E245 B246:E246 G241:XFD246 A241:C241 B243:B247 B242:C245 A242:A247 B247:XFD247 B253:C254 E253 G253:XFD253 E254:XFD254 B257:E257 G257:XFD257 A253:B261 B259:E259 G259:XFD259 B258:XFD258 B260:XFD261 A262:XFD264 E265:E269 A265:C265 H265:XFD270 B270:E270 B267:B279 B266:C269 A266:A280 B255:XFD256">
+    <cfRule type="cellIs" dxfId="36" priority="110" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:D168">
-    <cfRule type="cellIs" dxfId="9" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="95" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165:E172 E174">
-    <cfRule type="cellIs" dxfId="8" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="89" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B189 C183:D188 C189">
-    <cfRule type="cellIs" dxfId="7" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="94" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178:D182">
-    <cfRule type="cellIs" dxfId="6" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="93" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191:D195">
-    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="75" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191 F192:F195">
-    <cfRule type="cellIs" dxfId="4" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="69" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:D200 C203:C204 C202:D202">
-    <cfRule type="cellIs" dxfId="3" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="76" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217 E213:E215 E219">
-    <cfRule type="cellIs" dxfId="2" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="65" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G234">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G233">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F219">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D241:D245">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F241:F245">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F246">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D253">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D254">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F253">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F257">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F259">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F265:F269">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G265:G268">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G269">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D265:D269">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F270">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G270">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F273">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F274">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D275">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F275">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D282:D286">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F282:F286">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F287">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F288">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F289">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F291:F292">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G233">
+  <conditionalFormatting sqref="F251">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"没做"</formula>
     </cfRule>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -7886,7 +7886,7 @@
   <dimension ref="A1:H296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+      <selection activeCell="F251" sqref="F251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -519,7 +519,7 @@
     <t>队伍中有5名风属性角色时 发动 受到治疗回复量增加25% 攻击力增加100%效果</t>
   </si>
   <si>
-    <t>如果队伍中风属性数量为5则友方攻击力+100%</t>
+    <t>如果队伍中风属性数量为5则友方受到治疗回复量+25%,友方攻击力+100%</t>
   </si>
   <si>
     <t>第一回合时，触发 以激灵古怪赛鲁西亚攻击力40%使我方全体风属性角色攻击力增加50回合效果</t>
@@ -2709,7 +2709,7 @@
     <t>攻击时，触发'使目标受到暗属性伤害增加4%(最多5层)'</t>
   </si>
   <si>
-    <t>目标受到暗属性伤害+6%(最多5层)</t>
+    <t>目标受到暗属性伤害+4%(最多5层)</t>
   </si>
   <si>
     <t>防御时，触发'使自身攻击力增加100%(2回合)'</t>
@@ -7885,8 +7885,8 @@
   <sheetPr/>
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="F251" sqref="F251"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -2802,7 +2802,7 @@
     <t>自身普攻时，触发'使敌方目标受到普攻伤害增加5%(最多4层)'</t>
   </si>
   <si>
-    <t>目标受到普攻伤害+2.5%(最多4层)</t>
+    <t>目标受到普攻伤害+5%(最多4层)</t>
   </si>
   <si>
     <t>当'圣诞矮人王兰儿'在我方队伍中，发动'《摧毁圣诞》'</t>
@@ -2975,11 +2975,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3014,7 +3014,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3022,13 +3029,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3049,15 +3049,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3071,6 +3072,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3079,9 +3096,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3113,7 +3129,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3134,24 +3150,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3190,7 +3190,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,13 +3220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,7 +3244,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3244,61 +3316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,43 +3340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3370,7 +3370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,6 +3381,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3432,21 +3452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3462,22 +3467,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3489,10 +3489,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3501,16 +3501,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3519,91 +3519,91 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3612,25 +3612,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7885,8 +7885,8 @@
   <sheetPr/>
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="G257" sqref="G257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="548">
   <si>
     <t>角色名</t>
   </si>
@@ -2724,22 +2724,34 @@
     <t>友方造成伤害+3%(最多10层)</t>
   </si>
   <si>
-    <t>以自身攻击力475/550/625/700/775%对目标造成伤害，CD: 5</t>
-  </si>
-  <si>
-    <t>对目标475%技能伤害</t>
-  </si>
-  <si>
-    <t>对目标550%技能伤害</t>
-  </si>
-  <si>
-    <t>对目标625%技能伤害</t>
-  </si>
-  <si>
-    <t>对目标700%技能伤害</t>
-  </si>
-  <si>
-    <t>对目标775%技能伤害</t>
+    <t>以自身攻击力475%对目标造成伤害，CD: 5</t>
+  </si>
+  <si>
+    <t>对目标475%技能伤害(CD5)</t>
+  </si>
+  <si>
+    <t>以自身攻击力550%对目标造成伤害，CD: 5</t>
+  </si>
+  <si>
+    <t>对目标550%技能伤害(CD5)</t>
+  </si>
+  <si>
+    <t>以自身攻击力625%对目标造成伤害，CD: 5</t>
+  </si>
+  <si>
+    <t>对目标625%技能伤害(CD5)</t>
+  </si>
+  <si>
+    <t>以自身攻击力700%对目标造成伤害，CD: 5</t>
+  </si>
+  <si>
+    <t>对目标700%技能伤害(CD5)</t>
+  </si>
+  <si>
+    <t>以自身攻击力775%对目标造成伤害，CD: 5</t>
+  </si>
+  <si>
+    <t>对目标775%技能伤害(CD5)</t>
   </si>
   <si>
     <t>以自身攻击力125%对目标造成伤害</t>
@@ -7886,7 +7898,7 @@
   <dimension ref="A1:H296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G257" sqref="G257"/>
+      <selection activeCell="G254" sqref="G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -12747,11 +12759,14 @@
       <c r="D242" t="s">
         <v>150</v>
       </c>
+      <c r="E242" t="s">
+        <v>464</v>
+      </c>
       <c r="F242" t="s">
         <v>148</v>
       </c>
       <c r="G242" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -12767,11 +12782,14 @@
       <c r="D243" t="s">
         <v>153</v>
       </c>
+      <c r="E243" t="s">
+        <v>466</v>
+      </c>
       <c r="F243" t="s">
         <v>148</v>
       </c>
       <c r="G243" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -12787,11 +12805,14 @@
       <c r="D244" t="s">
         <v>156</v>
       </c>
+      <c r="E244" t="s">
+        <v>468</v>
+      </c>
       <c r="F244" t="s">
         <v>148</v>
       </c>
       <c r="G244" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -12807,11 +12828,14 @@
       <c r="D245" t="s">
         <v>159</v>
       </c>
+      <c r="E245" t="s">
+        <v>470</v>
+      </c>
       <c r="F245" t="s">
         <v>148</v>
       </c>
       <c r="G245" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -12825,7 +12849,7 @@
         <v>192</v>
       </c>
       <c r="E246" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
         <v>194</v>
@@ -12845,13 +12869,13 @@
         <v>162</v>
       </c>
       <c r="E247" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -12865,13 +12889,13 @@
         <v>162</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -12885,13 +12909,13 @@
         <v>162</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -12905,13 +12929,13 @@
         <v>162</v>
       </c>
       <c r="E250" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12925,13 +12949,13 @@
         <v>196</v>
       </c>
       <c r="E251" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>219</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H251" s="3" t="s">
         <v>196</v>
@@ -12948,7 +12972,7 @@
         <v>196</v>
       </c>
       <c r="E252" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>164</v>
@@ -12971,13 +12995,13 @@
         <v>175</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
         <v>177</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -12994,13 +13018,13 @@
         <v>175</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -13014,7 +13038,7 @@
         <v>196</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>225</v>
@@ -13034,13 +13058,13 @@
         <v>196</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -13057,13 +13081,13 @@
         <v>179</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="F257" t="s">
         <v>177</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -13080,13 +13104,13 @@
         <v>179</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -13100,7 +13124,7 @@
         <v>196</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>225</v>
@@ -13120,13 +13144,13 @@
         <v>196</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -13143,13 +13167,13 @@
         <v>182</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -13166,7 +13190,7 @@
         <v>186</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>188</v>
@@ -13189,7 +13213,7 @@
         <v>190</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>188</v>
@@ -13212,13 +13236,13 @@
         <v>146</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F265" t="s">
         <v>148</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -13238,7 +13262,7 @@
         <v>148</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -13258,7 +13282,7 @@
         <v>148</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -13278,7 +13302,7 @@
         <v>148</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -13298,7 +13322,7 @@
         <v>148</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -13312,7 +13336,7 @@
         <v>192</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
         <v>194</v>
@@ -13332,13 +13356,13 @@
         <v>162</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -13352,13 +13376,13 @@
         <v>162</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -13372,13 +13396,13 @@
         <v>196</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F273" t="s">
         <v>177</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -13392,13 +13416,13 @@
         <v>196</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -13415,7 +13439,7 @@
         <v>175</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>225</v>
@@ -13438,7 +13462,7 @@
         <v>179</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>164</v>
@@ -13461,13 +13485,13 @@
         <v>179</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -13484,13 +13508,13 @@
         <v>182</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -13553,7 +13577,7 @@
         <v>146</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F282" t="s">
         <v>148</v>
@@ -13619,7 +13643,7 @@
         <v>148</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -13639,7 +13663,7 @@
         <v>148</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13653,13 +13677,13 @@
         <v>192</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F287" t="s">
         <v>194</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -13673,13 +13697,13 @@
         <v>162</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -13693,7 +13717,7 @@
         <v>162</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F289" t="s">
         <v>219</v>
@@ -13713,13 +13737,13 @@
         <v>162</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -13736,13 +13760,13 @@
         <v>175</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -13759,13 +13783,13 @@
         <v>179</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -13782,13 +13806,13 @@
         <v>182</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -13805,7 +13829,7 @@
         <v>182</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>164</v>
@@ -14348,7 +14372,7 @@
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14365,7 +14389,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14382,7 +14406,7 @@
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14399,7 +14423,7 @@
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14416,7 +14440,7 @@
         <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14430,7 +14454,7 @@
         <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14447,7 +14471,7 @@
         <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14464,7 +14488,7 @@
         <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14481,7 +14505,7 @@
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="553">
   <si>
     <t>角色名</t>
   </si>
@@ -108,7 +108,7 @@
     <t>沃沃</t>
   </si>
   <si>
-    <t>测试 角色</t>
+    <t>测试角色</t>
   </si>
   <si>
     <t>木桩</t>
@@ -465,7 +465,7 @@
     <t>释放必杀</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,自身攻击力+20%(3回合)</t>
+    <t>对目标330%技能伤害,自身攻击力+20%(3回合)(CD4)</t>
   </si>
   <si>
     <t>2绊</t>
@@ -474,7 +474,7 @@
     <t>以自身攻击力376%对目标造成伤害，再使自身攻击力增加20%（3回合）</t>
   </si>
   <si>
-    <t>对目标376%技能伤害,自身攻击力+20%(3回合)</t>
+    <t>对目标376%技能伤害,自身攻击力+20%(3回合)(CD4)</t>
   </si>
   <si>
     <t>3绊</t>
@@ -483,7 +483,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），再以自身攻击力422%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%(3回合),对目标422%技能伤害</t>
+    <t>自身攻击力+30%(3回合),对目标422%技能伤害(CD4)</t>
   </si>
   <si>
     <t>4绊</t>
@@ -492,7 +492,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），再以自身攻击力468%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%(3回合),对目标468%技能伤害</t>
+    <t>自身攻击力+30%(3回合),对目标468%技能伤害(CD4)</t>
   </si>
   <si>
     <t>5绊</t>
@@ -501,7 +501,7 @@
     <t>以自身攻击力自身攻击力增加30%（3回合），使目标受到自身伤害增加15%（3回合），再以自身攻击力514%对目标造成伤害</t>
   </si>
   <si>
-    <t>自身攻击力+30%(3回合),目标受到自身伤害+15%(3回合),对目标514%技能伤害</t>
+    <t>自身攻击力+30%(3回合),目标受到自身伤害+15%(3回合),对目标514%技能伤害(CD4)</t>
   </si>
   <si>
     <t>队长技</t>
@@ -627,31 +627,31 @@
     <t>以攻击力475%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
-    <t>对目标475%技能伤害,友方攻击力+15%(3回合)</t>
+    <t>对目标475%技能伤害,友方攻击力+15%(3回合)(CD6)</t>
   </si>
   <si>
     <t>以攻击力550%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
-    <t>对目标550%技能伤害,友方攻击力+15%(3回合)</t>
+    <t>对目标550%技能伤害,友方攻击力+15%(3回合)(CD6)</t>
   </si>
   <si>
     <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加15%（3回合）</t>
   </si>
   <si>
-    <t>对目标625%技能伤害,友方攻击力+15%(3回合)</t>
+    <t>对目标625%技能伤害,友方攻击力+15%(3回合)(CD6)</t>
   </si>
   <si>
     <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加20%（3回合）</t>
   </si>
   <si>
-    <t>对目标625%技能伤害,友方攻击力+20%(3回合)</t>
+    <t>对目标625%技能伤害,友方攻击力+20%(3回合)(CD6)</t>
   </si>
   <si>
     <t>以攻击力625%对目标造成伤害，并使我方全体攻击力增加25%（3回合）</t>
   </si>
   <si>
-    <t>对目标625%技能伤害,友方攻击力+25%(3回合)</t>
+    <t>对目标625%技能伤害,友方攻击力+25%(3回合)(CD6)</t>
   </si>
   <si>
     <t>使我方全体普攻伤害增加50%</t>
@@ -678,7 +678,7 @@
     <t>回合开始</t>
   </si>
   <si>
-    <t>3N+1回合触发:友方攻击力+20%(1回合)</t>
+    <t>3N+4回合触发:友方攻击力+20%(1回合)</t>
   </si>
   <si>
     <t>使自身普攻伤害增加10%</t>
@@ -807,6 +807,9 @@
     <t>第一回合时，使自己必杀技CD-6  必杀时触发免疫CD变动效果</t>
   </si>
   <si>
+    <t>自身必杀CD-6,自身免疫CD变动</t>
+  </si>
+  <si>
     <t>必杀时，触发"普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
   </si>
   <si>
@@ -819,7 +822,7 @@
     <t>自身造成伤害+20%(最多2层)</t>
   </si>
   <si>
-    <t>普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害(6回合)"效果(若该站位无角色则随机选择目标)</t>
+    <t>普攻时，追加以自身攻击力30%对敌方站位1、2、5目标造成伤害"效果(若该站位无角色则随机选择目标)</t>
   </si>
   <si>
     <t>对e{1_2_5}30%普攻伤害</t>
@@ -1161,7 +1164,7 @@
     <t>每经过4回合，触发"使目标受到伤害增加35%(1回合)"效果</t>
   </si>
   <si>
-    <t>3N+1回合触发:目标受到伤害+35%(1回合)</t>
+    <t>3N+4回合触发:目标受到伤害+35%(1回合)</t>
   </si>
   <si>
     <t>第1回合时，触发"使我方治疗者与辅助者必杀技伤害增加40%(50回合)"效果</t>
@@ -2402,7 +2405,7 @@
     <t>每经过1回合，触发&lt;使我方全体攻击力增加2.5%(最多8层)&gt;</t>
   </si>
   <si>
-    <t>1N+1回合触发:友方攻击力+2.5%(最多8层)</t>
+    <t>1N+2回合触发:友方攻击力+2.5%(最多8层)</t>
   </si>
   <si>
     <t>第1回合时，触发&lt;使我方全体被治疗时回复量增加30%(50回合)&gt;
@@ -2574,19 +2577,19 @@
     <t>以自身攻击力330/376/422/468/514%及自身最大HP89/107/125/143/161%对目标造成伤害，CD: 4</t>
   </si>
   <si>
-    <t>对目标330%技能伤害,对目标89%自身生命技能伤害</t>
-  </si>
-  <si>
-    <t>对目标376%技能伤害,对目标107%自身生命技能伤害</t>
-  </si>
-  <si>
-    <t>对目标422%技能伤害,对目标125%自身生命技能伤害</t>
-  </si>
-  <si>
-    <t>对目标468%技能伤害,对目标143%自身生命技能伤害</t>
-  </si>
-  <si>
-    <t>对目标514%技能伤害,对目标161%自身生命技能伤害</t>
+    <t>对目标330%技能伤害,对目标89%自身生命技能伤害(CD4)</t>
+  </si>
+  <si>
+    <t>对目标376%技能伤害,对目标107%自身生命技能伤害(CD4)</t>
+  </si>
+  <si>
+    <t>对目标422%技能伤害,对目标125%自身生命技能伤害(CD4)</t>
+  </si>
+  <si>
+    <t>对目标468%技能伤害,对目标143%自身生命技能伤害(CD4)</t>
+  </si>
+  <si>
+    <t>对目标514%技能伤害,对目标161%自身生命技能伤害(CD4)</t>
   </si>
   <si>
     <t>以自身攻击力100%及自身最大HP50%对目标造成伤害</t>
@@ -2631,9 +2634,6 @@
     <t>必杀时，触发'使自身造成伤害增加20%(最多2层)'</t>
   </si>
   <si>
-    <t>自身造成伤害+10%(最多2层)</t>
-  </si>
-  <si>
     <t>第1回合，触发'使敌方全体受到伤害增加20%(50回合)、 使敌方全体造成伤害减少10%(50回合)'</t>
   </si>
   <si>
@@ -2685,7 +2685,7 @@
     <t>每经过5回合，触发'使我方全体攻击力增加50%(3回合)'</t>
   </si>
   <si>
-    <t>5N+1回合触发:友方攻击力+50%(3回合)</t>
+    <t>5N+6回合触发:友方攻击力+50%(3回合)</t>
   </si>
   <si>
     <t>第1回合时，触发'除自身以外我方角色获得《绝对服从》'</t>
@@ -2847,16 +2847,19 @@
     <t>我方全体获得'每回合以攻击力69/73/76/80/88%进行治疗(5回合)'、 '最大HP50/55/55/60/60%的护盾(1回合)'、'攻击力增加10/15/15/20/20%(3回合) [5绊(4回合)]'，CD: 5 [3绊CD: 4]</t>
   </si>
   <si>
-    <t>友方攻击力+10%(3回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+15%(3回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+20%(3回合)</t>
-  </si>
-  <si>
-    <t>友方攻击力+20%(4回合)</t>
+    <t>友方攻击力+10%(3回合)(CD5)</t>
+  </si>
+  <si>
+    <t>友方攻击力+15%(3回合)(CD5)</t>
+  </si>
+  <si>
+    <t>友方攻击力+15%(3回合)(CD4)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(3回合)(CD4)</t>
+  </si>
+  <si>
+    <t>友方攻击力+20%(4回合)(CD4)</t>
   </si>
   <si>
     <t>以自身攻击力75%对我方全体进行治疗</t>
@@ -2907,10 +2910,16 @@
     <t>回复自身最大HP30/40/40/50/50%获得嘲讽效果(2回合)并变为防御状态，再使我方全体受到伤害减少0/0/0/5/10%(1回合)，CD: 4 [3绊CD: 3]</t>
   </si>
   <si>
-    <t>友方受到伤害-5%(1回合)</t>
-  </si>
-  <si>
-    <t>友方受到伤害-10%(1回合)</t>
+    <t>友方受到伤害-0%(1回合)(CD4)</t>
+  </si>
+  <si>
+    <t>友方受到伤害-0%(1回合)</t>
+  </si>
+  <si>
+    <t>友方受到伤害-5%(1回合)(CD3)</t>
+  </si>
+  <si>
+    <t>友方受到伤害-10%(1回合)(CD3)</t>
   </si>
   <si>
     <t>以自身攻击力50%对目标造成伤害，再使自身变为防御状态</t>
@@ -2953,6 +2962,12 @@
   </si>
   <si>
     <t>被攻击时,触发'以自身基础攻击力100%对我方全体进行治疗'</t>
+  </si>
+  <si>
+    <t>使自身受到伤害-5%</t>
+  </si>
+  <si>
+    <t>自身受到伤害-5%</t>
   </si>
   <si>
     <t>以攻击力475%对目标造成伤害，并使得我方全体攻击力增加15%（3回合）</t>
@@ -2989,9 +3004,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3025,22 +3040,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3053,24 +3076,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3092,9 +3099,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3108,18 +3114,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3141,7 +3148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3149,7 +3156,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3157,13 +3179,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3202,7 +3217,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,103 +3331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3346,31 +3355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3382,7 +3385,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3396,22 +3411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3464,6 +3474,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3479,17 +3500,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3501,10 +3516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3513,31 +3528,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3546,103 +3567,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4185,8 +4200,8 @@
   <sheetPr/>
   <dimension ref="A1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -4281,7 +4296,7 @@
       </c>
       <c r="L2">
         <f>I2*1.1^59</f>
-        <v>960611.892604129</v>
+        <v>960611.89260413</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
@@ -4336,11 +4351,11 @@
       </c>
       <c r="N3">
         <f>K3*3.25</f>
-        <v>791652.26280769</v>
+        <v>791652.262807691</v>
       </c>
       <c r="O3">
         <f t="shared" si="0"/>
-        <v>4414828.7645159</v>
+        <v>4414828.76451591</v>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:15">
@@ -4377,7 +4392,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>984084.658997867</v>
+        <v>984084.658997868</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -4388,7 +4403,7 @@
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>4317671.44135314</v>
+        <v>4317671.44135315</v>
       </c>
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:15">
@@ -4432,7 +4447,7 @@
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>834833.295324473</v>
+        <v>834833.295324474</v>
       </c>
       <c r="O5">
         <f t="shared" si="0"/>
@@ -4480,7 +4495,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>879453.695591816</v>
+        <v>879453.695591817</v>
       </c>
       <c r="O6">
         <f t="shared" si="0"/>
@@ -4566,7 +4581,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>974784.128917329</v>
+        <v>974784.12891733</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
@@ -4574,7 +4589,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>4276865.36562478</v>
+        <v>4276865.36562479</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -4656,7 +4671,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>979655.835149992</v>
+        <v>979655.835149993</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
@@ -4712,7 +4727,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>5738111.50599272</v>
+        <v>5738111.50599273</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4749,7 +4764,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="2"/>
-        <v>962383.422143279</v>
+        <v>962383.42214328</v>
       </c>
       <c r="M12" t="s">
         <v>43</v>
@@ -4801,18 +4816,18 @@
       </c>
       <c r="L13">
         <f t="shared" si="2"/>
-        <v>993385.189078405</v>
+        <v>993385.189078406</v>
       </c>
       <c r="M13" t="s">
         <v>18</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>883771.798843494</v>
+        <v>883771.798843495</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>4358477.5170815</v>
+        <v>4358477.51708151</v>
       </c>
       <c r="P13">
         <f>I13/1.1^59</f>
@@ -4853,14 +4868,14 @@
       </c>
       <c r="L14">
         <f t="shared" si="2"/>
-        <v>995599.601002343</v>
+        <v>995599.601002344</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>880893.063342375</v>
+        <v>880893.063342376</v>
       </c>
       <c r="O14">
         <f t="shared" si="0"/>
@@ -4899,16 +4914,16 @@
       </c>
       <c r="K15" s="5">
         <f t="shared" si="1"/>
-        <v>254657.371252823</v>
+        <v>254657.371252824</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="2"/>
-        <v>962383.422143279</v>
+        <v>962383.42214328</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2">
         <f t="shared" ref="N15:N48" si="4">K15*3.25</f>
-        <v>827636.456571676</v>
+        <v>827636.456571677</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>51</v>
@@ -4989,16 +5004,16 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="1"/>
-        <v>276801.490492199</v>
+        <v>276801.4904922</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" ref="L17:L48" si="5">I17*1.1^59</f>
-        <v>885764.769575038</v>
+        <v>885764.769575039</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2">
         <f t="shared" si="4"/>
-        <v>899604.844099648</v>
+        <v>899604.844099649</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>57</v>
@@ -5038,12 +5053,12 @@
       </c>
       <c r="L18" s="5">
         <f t="shared" si="5"/>
-        <v>1041659.36902024</v>
+        <v>1041659.36902025</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2">
         <f t="shared" si="4"/>
-        <v>764304.275547061</v>
+        <v>764304.275547062</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>59</v>
@@ -5125,7 +5140,7 @@
       </c>
       <c r="L20" s="5">
         <f t="shared" si="5"/>
-        <v>938024.890979965</v>
+        <v>938024.890979966</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2">
@@ -5167,7 +5182,7 @@
       </c>
       <c r="L21" s="5">
         <f t="shared" si="5"/>
-        <v>942010.832443053</v>
+        <v>942010.832443054</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2">
@@ -5293,12 +5308,12 @@
       </c>
       <c r="L24" s="5">
         <f t="shared" si="5"/>
-        <v>914995.006971014</v>
+        <v>914995.006971015</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2">
         <f t="shared" si="4"/>
-        <v>870817.489088459</v>
+        <v>870817.48908846</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
@@ -5340,7 +5355,7 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2">
         <f t="shared" si="4"/>
-        <v>653472.958753984</v>
+        <v>653472.958753985</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -5373,7 +5388,7 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="6"/>
-        <v>160766.305677869</v>
+        <v>160766.30567787</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="5"/>
@@ -5472,7 +5487,7 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="6"/>
-        <v>262186.371794211</v>
+        <v>262186.371794212</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="5"/>
@@ -5518,12 +5533,12 @@
       </c>
       <c r="L29" s="5">
         <f t="shared" si="5"/>
-        <v>968583.775530304</v>
+        <v>968583.775530305</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2">
         <f t="shared" si="4"/>
-        <v>906801.682852445</v>
+        <v>906801.682852446</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -5565,7 +5580,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2">
         <f t="shared" si="4"/>
-        <v>607413.190736082</v>
+        <v>607413.190736083</v>
       </c>
       <c r="O30" s="5"/>
       <c r="P30" s="6"/>
@@ -5689,7 +5704,7 @@
       </c>
       <c r="L33" s="5">
         <f t="shared" si="5"/>
-        <v>979655.835149992</v>
+        <v>979655.835149993</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2">
@@ -5737,7 +5752,7 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2">
         <f t="shared" si="4"/>
-        <v>853545.076081746</v>
+        <v>853545.076081747</v>
       </c>
       <c r="O34" s="5"/>
       <c r="P34" s="6"/>
@@ -5775,7 +5790,7 @@
       </c>
       <c r="L35" s="5">
         <f t="shared" si="5"/>
-        <v>922524.007512402</v>
+        <v>922524.007512403</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2">
@@ -5823,7 +5838,7 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2">
         <f t="shared" si="4"/>
-        <v>755668.069043704</v>
+        <v>755668.069043705</v>
       </c>
       <c r="O36" s="5"/>
       <c r="P36" s="6"/>
@@ -5866,7 +5881,7 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2">
         <f t="shared" si="4"/>
-        <v>847787.605079508</v>
+        <v>847787.605079509</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="6"/>
@@ -6076,7 +6091,7 @@
       </c>
       <c r="L42" s="5">
         <f t="shared" si="5"/>
-        <v>975227.011302117</v>
+        <v>975227.011302118</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2">
@@ -6124,7 +6139,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2">
         <f t="shared" si="4"/>
-        <v>909680.418353564</v>
+        <v>909680.418353565</v>
       </c>
       <c r="O43" s="5"/>
       <c r="P43" s="6"/>
@@ -6162,12 +6177,12 @@
       </c>
       <c r="L44" s="5">
         <f t="shared" si="5"/>
-        <v>958397.480680191</v>
+        <v>958397.480680192</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2">
         <f t="shared" si="4"/>
-        <v>915437.889355802</v>
+        <v>915437.889355803</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="6"/>
@@ -6334,7 +6349,7 @@
       </c>
       <c r="L48" s="5">
         <f t="shared" si="5"/>
-        <v>920752.477973252</v>
+        <v>920752.477973253</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2">
@@ -6381,7 +6396,7 @@
       </c>
       <c r="P49">
         <f>K49/1.1^59</f>
-        <v>838.597362995564</v>
+        <v>838.597362995563</v>
       </c>
       <c r="Q49">
         <f>L49/1.1^59</f>
@@ -6415,7 +6430,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5">
         <f>H50*1.1^59</f>
-        <v>212362.103505615</v>
+        <v>212362.103505616</v>
       </c>
       <c r="L50" s="5">
         <f>I50*1.1^59</f>
@@ -6483,11 +6498,11 @@
       <c r="J52" s="5"/>
       <c r="K52" s="5">
         <f t="shared" ref="K52:L61" si="7">H52*1.1^59</f>
-        <v>207711.838465346</v>
+        <v>207711.838465347</v>
       </c>
       <c r="L52" s="5">
         <f t="shared" si="7"/>
-        <v>858361.42201631</v>
+        <v>858361.422016311</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -6521,7 +6536,7 @@
       </c>
       <c r="L53" s="5">
         <f t="shared" si="7"/>
-        <v>773881.607118091</v>
+        <v>773881.607118092</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -6551,7 +6566,7 @@
       <c r="J54" s="5"/>
       <c r="K54" s="5">
         <f t="shared" si="7"/>
-        <v>212362.103505615</v>
+        <v>212362.103505616</v>
       </c>
       <c r="L54" s="5">
         <f t="shared" si="7"/>
@@ -6589,7 +6604,7 @@
       </c>
       <c r="L55" s="5">
         <f t="shared" si="7"/>
-        <v>828522.221341251</v>
+        <v>828522.221341252</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -6691,7 +6706,7 @@
       </c>
       <c r="L58" s="5">
         <f t="shared" si="7"/>
-        <v>805270.896139906</v>
+        <v>805270.896139907</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -6721,7 +6736,7 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5">
         <f t="shared" si="7"/>
-        <v>207711.838465346</v>
+        <v>207711.838465347</v>
       </c>
       <c r="L59" s="5">
         <f t="shared" si="7"/>
@@ -6789,7 +6804,7 @@
       <c r="J61" s="5"/>
       <c r="K61" s="5">
         <f t="shared" si="7"/>
-        <v>148808.481288606</v>
+        <v>148808.481288607</v>
       </c>
       <c r="L61" s="5">
         <f t="shared" si="7"/>
@@ -6823,11 +6838,11 @@
       <c r="J62" s="5"/>
       <c r="K62" s="5">
         <f>H62*1.1^59</f>
-        <v>189332.219496664</v>
+        <v>189332.219496665</v>
       </c>
       <c r="L62" s="5">
         <f>I62*1.1^59</f>
-        <v>657348.179620875</v>
+        <v>657348.179620876</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -6963,7 +6978,7 @@
       </c>
       <c r="L66" s="5">
         <f t="shared" si="8"/>
-        <v>685914.09343967</v>
+        <v>685914.093439671</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6997,7 +7012,7 @@
       </c>
       <c r="L67" s="5">
         <f t="shared" si="8"/>
-        <v>717137.30156719</v>
+        <v>717137.301567191</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -7031,7 +7046,7 @@
       </c>
       <c r="L68" s="5">
         <f t="shared" si="8"/>
-        <v>638747.119459799</v>
+        <v>638747.1194598</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -7167,7 +7182,7 @@
       </c>
       <c r="L72" s="5">
         <f t="shared" si="8"/>
-        <v>704182.991812155</v>
+        <v>704182.991812156</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -7197,7 +7212,7 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5">
         <f>H73*1.1^59</f>
-        <v>99648.5365771918</v>
+        <v>99648.5365771919</v>
       </c>
       <c r="L73" s="5">
         <f>I73*1.1^59</f>
@@ -7235,7 +7250,7 @@
       </c>
       <c r="L74" s="5">
         <f t="shared" si="9"/>
-        <v>579345.519600173</v>
+        <v>579345.519600174</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -7303,7 +7318,7 @@
       </c>
       <c r="L76" s="5">
         <f t="shared" si="9"/>
-        <v>504055.514186295</v>
+        <v>504055.514186296</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -7333,7 +7348,7 @@
       <c r="J77" s="5"/>
       <c r="K77" s="5">
         <f t="shared" si="9"/>
-        <v>151964.018280217</v>
+        <v>151964.018280218</v>
       </c>
       <c r="L77" s="5">
         <f t="shared" si="9"/>
@@ -7371,7 +7386,7 @@
       </c>
       <c r="L78" s="5">
         <f t="shared" si="9"/>
-        <v>759820.091401087</v>
+        <v>759820.091401088</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -7571,7 +7586,7 @@
       <c r="J84" s="5"/>
       <c r="K84" s="5">
         <f t="shared" si="9"/>
-        <v>99925.338067684</v>
+        <v>99925.3380676841</v>
       </c>
       <c r="L84" s="5">
         <f t="shared" si="9"/>
@@ -7711,7 +7726,7 @@
       </c>
       <c r="L88" s="5">
         <f t="shared" si="9"/>
-        <v>747364.024328938</v>
+        <v>747364.024328939</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -7809,7 +7824,7 @@
       <c r="J91" s="5"/>
       <c r="K91" s="5">
         <f t="shared" si="9"/>
-        <v>99925.338067684</v>
+        <v>99925.3380676841</v>
       </c>
       <c r="L91" s="5">
         <f t="shared" si="9"/>
@@ -7897,8 +7912,8 @@
   <sheetPr/>
   <dimension ref="A1:H296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="G254" sqref="G254"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -9270,7 +9285,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -9291,6 +9306,9 @@
       </c>
       <c r="G68" t="s">
         <v>165</v>
+      </c>
+      <c r="H68" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -9307,13 +9325,13 @@
         <v>179</v>
       </c>
       <c r="E69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s">
         <v>184</v>
       </c>
       <c r="G69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -9330,13 +9348,13 @@
         <v>182</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F70" t="s">
         <v>184</v>
       </c>
       <c r="G70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -9416,13 +9434,13 @@
         <v>196</v>
       </c>
       <c r="E74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
         <v>177</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -9439,13 +9457,13 @@
         <v>146</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -9462,13 +9480,13 @@
         <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F77" t="s">
         <v>148</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9485,13 +9503,13 @@
         <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F78" t="s">
         <v>148</v>
       </c>
       <c r="G78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9511,7 +9529,7 @@
         <v>148</v>
       </c>
       <c r="G79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -9531,7 +9549,7 @@
         <v>148</v>
       </c>
       <c r="G80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -9545,13 +9563,13 @@
         <v>162</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F81" t="s">
         <v>164</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -9568,13 +9586,13 @@
         <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F82" t="s">
         <v>177</v>
       </c>
       <c r="G82" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -9591,7 +9609,7 @@
         <v>179</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F83" t="s">
         <v>184</v>
@@ -9614,13 +9632,13 @@
         <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F84" t="s">
         <v>188</v>
       </c>
       <c r="G84" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -9637,7 +9655,7 @@
         <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F85" t="s">
         <v>188</v>
@@ -9660,7 +9678,7 @@
         <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F86" t="s">
         <v>188</v>
@@ -9700,13 +9718,13 @@
         <v>196</v>
       </c>
       <c r="E88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F88" t="s">
         <v>201</v>
       </c>
       <c r="G88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -9723,13 +9741,13 @@
         <v>146</v>
       </c>
       <c r="E90" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F90" t="s">
         <v>148</v>
       </c>
       <c r="G90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -9749,7 +9767,7 @@
         <v>148</v>
       </c>
       <c r="G91" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -9769,7 +9787,7 @@
         <v>148</v>
       </c>
       <c r="G92" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -9789,7 +9807,7 @@
         <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -9809,7 +9827,7 @@
         <v>148</v>
       </c>
       <c r="G94" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -9823,7 +9841,7 @@
         <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F95" t="s">
         <v>164</v>
@@ -9846,7 +9864,7 @@
         <v>175</v>
       </c>
       <c r="E96" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F96" t="s">
         <v>184</v>
@@ -9869,13 +9887,13 @@
         <v>179</v>
       </c>
       <c r="E97" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F97" t="s">
         <v>219</v>
       </c>
       <c r="G97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -9892,13 +9910,13 @@
         <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F98" t="s">
         <v>164</v>
       </c>
       <c r="G98" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -9915,7 +9933,7 @@
         <v>186</v>
       </c>
       <c r="E99" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F99" t="s">
         <v>188</v>
@@ -9938,7 +9956,7 @@
         <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F100" t="s">
         <v>188</v>
@@ -9958,13 +9976,13 @@
         <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F101" t="s">
         <v>194</v>
       </c>
       <c r="G101" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -9975,13 +9993,13 @@
         <v>196</v>
       </c>
       <c r="E102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F102" t="s">
         <v>225</v>
       </c>
       <c r="G102" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -9995,7 +10013,7 @@
         <v>225</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -10009,7 +10027,7 @@
         <v>225</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -10026,7 +10044,7 @@
         <v>146</v>
       </c>
       <c r="E106" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F106" t="s">
         <v>148</v>
@@ -10126,7 +10144,7 @@
         <v>162</v>
       </c>
       <c r="E111" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F111" t="s">
         <v>164</v>
@@ -10149,7 +10167,7 @@
         <v>175</v>
       </c>
       <c r="E112" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F112" t="s">
         <v>225</v>
@@ -10172,13 +10190,13 @@
         <v>179</v>
       </c>
       <c r="E113" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F113" t="s">
         <v>184</v>
       </c>
       <c r="G113" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -10195,7 +10213,7 @@
         <v>182</v>
       </c>
       <c r="E114" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F114" t="s">
         <v>184</v>
@@ -10218,7 +10236,7 @@
         <v>186</v>
       </c>
       <c r="E115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F115" t="s">
         <v>188</v>
@@ -10241,7 +10259,7 @@
         <v>190</v>
       </c>
       <c r="E116" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F116" t="s">
         <v>188</v>
@@ -10261,13 +10279,13 @@
         <v>192</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F117" t="s">
         <v>194</v>
       </c>
       <c r="G117" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -10284,7 +10302,7 @@
         <v>146</v>
       </c>
       <c r="E119" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F119" t="s">
         <v>148</v>
@@ -10350,7 +10368,7 @@
         <v>148</v>
       </c>
       <c r="G122" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -10370,7 +10388,7 @@
         <v>148</v>
       </c>
       <c r="G123" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -10384,13 +10402,13 @@
         <v>162</v>
       </c>
       <c r="E124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F124" t="s">
         <v>164</v>
       </c>
       <c r="G124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -10407,7 +10425,7 @@
         <v>175</v>
       </c>
       <c r="E125" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F125" t="s">
         <v>177</v>
@@ -10430,13 +10448,13 @@
         <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F126" t="s">
         <v>225</v>
       </c>
       <c r="G126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -10453,13 +10471,13 @@
         <v>182</v>
       </c>
       <c r="E127" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F127" t="s">
         <v>225</v>
       </c>
       <c r="G127" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -10499,7 +10517,7 @@
         <v>190</v>
       </c>
       <c r="E129" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F129" t="s">
         <v>188</v>
@@ -10519,7 +10537,7 @@
         <v>192</v>
       </c>
       <c r="E130" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F130" t="s">
         <v>194</v>
@@ -10542,13 +10560,13 @@
         <v>146</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F132" t="s">
         <v>148</v>
       </c>
       <c r="G132" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -10568,7 +10586,7 @@
         <v>148</v>
       </c>
       <c r="G133" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -10588,7 +10606,7 @@
         <v>148</v>
       </c>
       <c r="G134" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -10608,7 +10626,7 @@
         <v>148</v>
       </c>
       <c r="G135" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -10628,7 +10646,7 @@
         <v>148</v>
       </c>
       <c r="G136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -10642,7 +10660,7 @@
         <v>162</v>
       </c>
       <c r="E137" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F137" t="s">
         <v>164</v>
@@ -10665,13 +10683,13 @@
         <v>175</v>
       </c>
       <c r="E138" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F138" t="s">
         <v>177</v>
       </c>
       <c r="G138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -10688,13 +10706,13 @@
         <v>179</v>
       </c>
       <c r="E139" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F139" t="s">
         <v>164</v>
       </c>
       <c r="G139" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -10711,13 +10729,13 @@
         <v>182</v>
       </c>
       <c r="E140" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F140" t="s">
         <v>164</v>
       </c>
       <c r="G140" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -10734,13 +10752,13 @@
         <v>182</v>
       </c>
       <c r="E141" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F141" t="s">
         <v>225</v>
       </c>
       <c r="G141" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -10780,7 +10798,7 @@
         <v>190</v>
       </c>
       <c r="E143" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F143" t="s">
         <v>188</v>
@@ -10800,13 +10818,13 @@
         <v>192</v>
       </c>
       <c r="E144" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F144" t="s">
         <v>194</v>
       </c>
       <c r="G144" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -10823,13 +10841,13 @@
         <v>146</v>
       </c>
       <c r="E146" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F146" t="s">
         <v>148</v>
       </c>
       <c r="G146" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -10849,7 +10867,7 @@
         <v>148</v>
       </c>
       <c r="G147" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -10869,7 +10887,7 @@
         <v>148</v>
       </c>
       <c r="G148" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -10889,7 +10907,7 @@
         <v>148</v>
       </c>
       <c r="G149" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -10909,7 +10927,7 @@
         <v>148</v>
       </c>
       <c r="G150" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -10923,13 +10941,13 @@
         <v>162</v>
       </c>
       <c r="E151" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F151" t="s">
         <v>184</v>
       </c>
       <c r="G151" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -10943,13 +10961,13 @@
         <v>162</v>
       </c>
       <c r="E152" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F152" t="s">
         <v>164</v>
       </c>
       <c r="G152" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -10966,13 +10984,13 @@
         <v>175</v>
       </c>
       <c r="E153" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F153" t="s">
         <v>184</v>
       </c>
       <c r="G153" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -10989,13 +11007,13 @@
         <v>179</v>
       </c>
       <c r="E154" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F154" t="s">
         <v>164</v>
       </c>
       <c r="G154" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -11012,13 +11030,13 @@
         <v>182</v>
       </c>
       <c r="E155" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F155" t="s">
         <v>184</v>
       </c>
       <c r="G155" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -11035,7 +11053,7 @@
         <v>186</v>
       </c>
       <c r="E156" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F156" t="s">
         <v>188</v>
@@ -11058,7 +11076,7 @@
         <v>190</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F157" t="s">
         <v>188</v>
@@ -11078,7 +11096,7 @@
         <v>192</v>
       </c>
       <c r="E158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F158" t="s">
         <v>194</v>
@@ -11098,13 +11116,13 @@
         <v>196</v>
       </c>
       <c r="E159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F159" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G159" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -11118,10 +11136,10 @@
         <v>196</v>
       </c>
       <c r="F160" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G160" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -11135,10 +11153,10 @@
         <v>196</v>
       </c>
       <c r="F161" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G161" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -11152,13 +11170,13 @@
         <v>196</v>
       </c>
       <c r="E162" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F162" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -11175,13 +11193,13 @@
         <v>146</v>
       </c>
       <c r="E164" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F164" t="s">
         <v>148</v>
       </c>
       <c r="G164" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -11201,7 +11219,7 @@
         <v>148</v>
       </c>
       <c r="G165" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -11221,7 +11239,7 @@
         <v>148</v>
       </c>
       <c r="G166" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -11241,7 +11259,7 @@
         <v>148</v>
       </c>
       <c r="G167" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -11261,7 +11279,7 @@
         <v>148</v>
       </c>
       <c r="G168" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -11275,13 +11293,13 @@
         <v>192</v>
       </c>
       <c r="E169" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F169" t="s">
         <v>194</v>
       </c>
       <c r="G169" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -11295,7 +11313,7 @@
         <v>162</v>
       </c>
       <c r="E170" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G170" t="s">
         <v>165</v>
@@ -11315,13 +11333,13 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F171" t="s">
         <v>219</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -11338,7 +11356,7 @@
         <v>179</v>
       </c>
       <c r="E172" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F172" t="s">
         <v>219</v>
@@ -11361,13 +11379,13 @@
         <v>182</v>
       </c>
       <c r="E173" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F173" t="s">
         <v>177</v>
       </c>
       <c r="G173" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -11384,13 +11402,13 @@
         <v>182</v>
       </c>
       <c r="E174" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F174" t="s">
         <v>184</v>
       </c>
       <c r="G174" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -11407,7 +11425,7 @@
         <v>186</v>
       </c>
       <c r="E175" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F175" t="s">
         <v>188</v>
@@ -11430,7 +11448,7 @@
         <v>190</v>
       </c>
       <c r="E176" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
         <v>188</v>
@@ -11453,13 +11471,13 @@
         <v>146</v>
       </c>
       <c r="E178" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F178" t="s">
         <v>148</v>
       </c>
       <c r="G178" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -11476,13 +11494,13 @@
         <v>150</v>
       </c>
       <c r="E179" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F179" t="s">
         <v>148</v>
       </c>
       <c r="G179" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -11499,13 +11517,13 @@
         <v>153</v>
       </c>
       <c r="E180" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F180" t="s">
         <v>148</v>
       </c>
       <c r="G180" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -11522,13 +11540,13 @@
         <v>156</v>
       </c>
       <c r="E181" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F181" t="s">
         <v>148</v>
       </c>
       <c r="G181" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -11545,13 +11563,13 @@
         <v>159</v>
       </c>
       <c r="E182" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F182" t="s">
         <v>148</v>
       </c>
       <c r="G182" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -11565,7 +11583,7 @@
         <v>192</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
         <v>194</v>
@@ -11585,7 +11603,7 @@
         <v>162</v>
       </c>
       <c r="E184" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F184" t="s">
         <v>219</v>
@@ -11608,16 +11626,16 @@
         <v>175</v>
       </c>
       <c r="E185" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F185" t="s">
         <v>177</v>
       </c>
       <c r="G185" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -11634,13 +11652,13 @@
         <v>179</v>
       </c>
       <c r="E186" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F186" t="s">
         <v>225</v>
       </c>
       <c r="G186" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -11657,13 +11675,13 @@
         <v>182</v>
       </c>
       <c r="E187" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F187" t="s">
         <v>225</v>
       </c>
       <c r="G187" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -11703,7 +11721,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F189" t="s">
         <v>188</v>
@@ -11726,13 +11744,13 @@
         <v>146</v>
       </c>
       <c r="E191" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F191" t="s">
         <v>148</v>
       </c>
       <c r="G191" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -11752,7 +11770,7 @@
         <v>148</v>
       </c>
       <c r="G192" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -11769,13 +11787,13 @@
         <v>153</v>
       </c>
       <c r="E193" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F193" t="s">
         <v>148</v>
       </c>
       <c r="G193" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -11795,7 +11813,7 @@
         <v>148</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -11815,7 +11833,7 @@
         <v>148</v>
       </c>
       <c r="G195" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -11829,7 +11847,7 @@
         <v>192</v>
       </c>
       <c r="E196" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F196" t="s">
         <v>194</v>
@@ -11849,7 +11867,7 @@
         <v>162</v>
       </c>
       <c r="E197" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F197" t="s">
         <v>219</v>
@@ -11872,13 +11890,13 @@
         <v>175</v>
       </c>
       <c r="E198" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F198" t="s">
         <v>225</v>
       </c>
       <c r="G198" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -11895,13 +11913,13 @@
         <v>179</v>
       </c>
       <c r="E199" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F199" t="s">
         <v>225</v>
       </c>
       <c r="G199" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -11918,13 +11936,13 @@
         <v>182</v>
       </c>
       <c r="E200" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F200" t="s">
         <v>188</v>
       </c>
       <c r="G200" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -11941,7 +11959,7 @@
         <v>182</v>
       </c>
       <c r="E201" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F201" t="s">
         <v>184</v>
@@ -11964,7 +11982,7 @@
         <v>186</v>
       </c>
       <c r="E202" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F202" t="s">
         <v>188</v>
@@ -11987,7 +12005,7 @@
         <v>190</v>
       </c>
       <c r="E203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F203" t="s">
         <v>188</v>
@@ -12010,13 +12028,13 @@
         <v>146</v>
       </c>
       <c r="E205" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F205" t="s">
         <v>148</v>
       </c>
       <c r="G205" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H205" s="3"/>
     </row>
@@ -12037,7 +12055,7 @@
         <v>148</v>
       </c>
       <c r="G206" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -12057,7 +12075,7 @@
         <v>148</v>
       </c>
       <c r="G207" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -12077,7 +12095,7 @@
         <v>148</v>
       </c>
       <c r="G208" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -12097,7 +12115,7 @@
         <v>148</v>
       </c>
       <c r="G209" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -12111,13 +12129,13 @@
         <v>192</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F210" t="s">
         <v>194</v>
       </c>
       <c r="G210" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H210" s="3"/>
     </row>
@@ -12132,13 +12150,13 @@
         <v>162</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G211" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -12152,13 +12170,13 @@
         <v>162</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H212" s="3"/>
     </row>
@@ -12173,13 +12191,13 @@
         <v>162</v>
       </c>
       <c r="E213" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -12193,13 +12211,13 @@
         <v>162</v>
       </c>
       <c r="E214" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -12213,13 +12231,13 @@
         <v>196</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G215" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H215" s="3"/>
     </row>
@@ -12234,13 +12252,13 @@
         <v>196</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G216" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -12257,7 +12275,7 @@
         <v>175</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>225</v>
@@ -12280,13 +12298,13 @@
         <v>179</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>431</v>
+        <v>267</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -12691,7 +12709,7 @@
         <v>186</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F238" t="s">
         <v>188</v>
@@ -12714,7 +12732,7 @@
         <v>190</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F239" t="s">
         <v>188</v>
@@ -12855,7 +12873,7 @@
         <v>194</v>
       </c>
       <c r="G246" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -13282,7 +13300,7 @@
         <v>148</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -13302,7 +13320,7 @@
         <v>148</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -13322,7 +13340,7 @@
         <v>148</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -13336,7 +13354,7 @@
         <v>192</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F270" t="s">
         <v>194</v>
@@ -13356,13 +13374,13 @@
         <v>162</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -13376,13 +13394,13 @@
         <v>162</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -13396,13 +13414,13 @@
         <v>196</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
         <v>177</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -13416,13 +13434,13 @@
         <v>196</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -13439,13 +13457,13 @@
         <v>175</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -13462,7 +13480,7 @@
         <v>179</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>164</v>
@@ -13485,13 +13503,13 @@
         <v>179</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -13508,13 +13526,13 @@
         <v>182</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -13554,7 +13572,7 @@
         <v>190</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>188</v>
@@ -13577,13 +13595,13 @@
         <v>146</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F282" t="s">
         <v>148</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>165</v>
+        <v>524</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -13603,7 +13621,7 @@
         <v>148</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>165</v>
+        <v>524</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -13623,7 +13641,7 @@
         <v>148</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>165</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -13643,7 +13661,7 @@
         <v>148</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -13663,7 +13681,7 @@
         <v>148</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -13677,13 +13695,13 @@
         <v>192</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F287" t="s">
         <v>194</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -13697,13 +13715,13 @@
         <v>162</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -13717,7 +13735,7 @@
         <v>162</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
         <v>219</v>
@@ -13737,13 +13755,13 @@
         <v>162</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -13760,13 +13778,13 @@
         <v>175</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -13783,13 +13801,13 @@
         <v>179</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -13806,13 +13824,13 @@
         <v>182</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>164</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -13829,7 +13847,7 @@
         <v>182</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>164</v>
@@ -13852,13 +13870,13 @@
         <v>186</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>187</v>
+        <v>542</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>188</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>189</v>
+        <v>543</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -13875,7 +13893,7 @@
         <v>190</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>188</v>
@@ -13885,459 +13903,464 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"没做"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G84">
-    <cfRule type="containsText" dxfId="0" priority="111" operator="between" text="没做">
+    <cfRule type="containsText" dxfId="1" priority="113" operator="between" text="没做">
       <formula>NOT(ISERROR(SEARCH("没做",G84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F160">
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="100" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G160">
-    <cfRule type="cellIs" dxfId="1" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F161">
-    <cfRule type="cellIs" dxfId="1" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G161">
-    <cfRule type="cellIs" dxfId="1" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="108" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F162">
-    <cfRule type="cellIs" dxfId="1" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G162">
-    <cfRule type="cellIs" dxfId="1" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="1" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E173">
-    <cfRule type="cellIs" dxfId="1" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F183:G183">
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="94" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D189">
-    <cfRule type="cellIs" dxfId="1" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F196:G196">
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A201">
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C201:D201">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C214">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E216">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F217">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G217">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F218">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F219">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A221">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F221">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G221">
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="58" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F228">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G228">
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G229">
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="46" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C230">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="34" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H230">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C232">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F232">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G233">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G234">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G235">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="42" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F238">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="38" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G239">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F246">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F251">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D253">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F253">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D254">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F257">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F259">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G269">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F270">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G270">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F273">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F274">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D275">
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F275">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F288">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F289">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B$1:B$1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D203:D204">
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D205:D209">
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D223:D227">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D235:D239">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D241:D245">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D265:D269">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D282:D286">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E92">
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:E121">
-    <cfRule type="cellIs" dxfId="1" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122:E134">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="82" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135:E149">
-    <cfRule type="cellIs" dxfId="1" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151:E160">
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175:E185">
-    <cfRule type="cellIs" dxfId="1" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F223:F227">
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="50" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F241:F245">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F265:F269">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F282:F286">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F291:F292">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G215:G216">
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="62" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G265:G268">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:XFD19 A1:E73 A74:D92 A93:E111 A112:D149 A150:E150 A151:D151 G20:XFD159 F152:F159 A153:D160 F20:F150 H160:XFD162 A161:E162 $A163:$XFD163 B164:B176 F164:XFD178 F179:G182 H179:XFD183 C169:D176 A177:D177 A178:A189 E186:XFD187 F184:XFD185 A190:D190 A191:A200 G191:XFD195 H196:XFD196 A202:A204 A205:C205 G210:XFD210 B206:C209 F188:XFD190 F211:XFD213 B207:B215 B210:D213 A206:A220 B217 B219 B221 F214:F215">
-    <cfRule type="cellIs" dxfId="1" priority="109" operator="equal">
+  <conditionalFormatting sqref="F1:XFD19 A1:E73 A74:D92 A93:E111 A112:D149 A150:E150 A151:D151 I20:XFD159 G20:H67 G69:H159 B221 F214:F215 F152:F159 A153:D160 F20:F150 H160:XFD162 A161:E162 $A163:$XFD163 B164:B176 F164:XFD178 F179:G182 H179:XFD183 C169:D176 A177:D177 A178:A189 E186:XFD187 F184:XFD185 A190:D190 A191:A200 G191:XFD195 H196:XFD196 A202:A204 A205:C205 G210:XFD210 B206:C209 F188:XFD190 F211:XFD213 B210:B215 C210:D213 A206:A220 B217 B219 H68">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54 B215:E215 G214:XFD214 F216 B216:D216 E213 B214 D214:E214 H221:XFD221 H215:XFD217 G218:XFD220 B217:E221 $A222:$XFD222 A223:C223 E223:E227 D228:E228 G223:XFD227 H228:XFD229 I230:XFD230 G232:XFD232 B224:B234 C233:F234 $A240:$XFD240 E235:F235 B235:C239 C224:C227 A224:A239 E236:XFD237 E238:E239 G238:XFD238 H239:XFD239 D229:F229 D230:G230 D231:XFD231 D232:E232 F197:XFD209 E189:E211 H233:XFD235 E241:E245 B246:E246 G241:XFD246 A241:C241 B243:B247 B242:C245 A242:A247 B247:XFD247 B253:C254 E253 G253:XFD253 E254:XFD254 B257:E257 G257:XFD257 A253:B261 B259:E259 G259:XFD259 B258:XFD258 B260:XFD261 $A262:$XFD264 E265:E269 A265:C265 H265:XFD270 B270:E270 B267:B279 B266:C269 A266:A280 B255:XFD256">
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="112" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A152:C152 B271:XFD272 B273:E274 B275:C275 E275 G273:XFD275 B275:B279 $A281:$XFD281 B276:XFD280 A282:C282 E282:E286 B287:E288 B291:E292 G291:XFD292 $A297:$XFD1048576 B293:XFD296 G282:XFD289 $A248:$XFD250 B251:B263 $A252:$XFD252 A251:E251 G251:XFD251 A283:A296 B283:C286 D290:XFD290 B284:B296 D289:E289 C289:C290">
-    <cfRule type="cellIs" dxfId="1" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164:D168">
-    <cfRule type="cellIs" dxfId="1" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165:E172 E174">
-    <cfRule type="cellIs" dxfId="1" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178:B189 C183:D188 C189">
-    <cfRule type="cellIs" dxfId="1" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="96" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C178:D182">
-    <cfRule type="cellIs" dxfId="1" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C191:D195">
-    <cfRule type="cellIs" dxfId="1" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F191 F192:F195">
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C196:D200 C203:C204 C202:D202">
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217 E213:E215 E219">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="equal">
       <formula>"没做"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14372,7 +14395,7 @@
         <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -14389,7 +14412,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14406,7 +14429,7 @@
         <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -14423,7 +14446,7 @@
         <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -14440,7 +14463,7 @@
         <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14454,7 +14477,7 @@
         <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14471,7 +14494,7 @@
         <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -14488,7 +14511,7 @@
         <v>179</v>
       </c>
       <c r="E9" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14505,7 +14528,7 @@
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:5">

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -531,7 +531,7 @@
     <t>使精灵王赛鲁西亚获得必杀技最大CD减少2回合</t>
   </si>
   <si>
-    <t>{精灵王 塞露西亚}必杀技能CD-2</t>
+    <t>{精灵王 塞露西亚}必杀技CD-2</t>
   </si>
   <si>
     <t>使精灵王赛鲁西亚获得必杀后 触发目标受到伤害增加20% 3回合 效果</t>
@@ -8175,8 +8175,8 @@
   <sheetPr/>
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="G300" sqref="G300"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>

--- a/src/main/resources/角色技能资料.xlsx
+++ b/src/main/resources/角色技能资料.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="572">
   <si>
     <t>角色名</t>
   </si>
@@ -720,31 +720,31 @@
     <t>使目标受到风属性伤害增加12%（最多2层） 再以攻击力330%对目标造成伤害 CD4</t>
   </si>
   <si>
-    <t>目标受到风属性伤害+12%(最多2层),对目标330%技能伤害</t>
+    <t>目标受到风属性伤害+12%(最多2层),对目标330%技能伤害(CD4)</t>
   </si>
   <si>
     <t>使目标受到风属性伤害增加12%（最多2层） 再以攻击力376%对目标造成伤害 CD4</t>
   </si>
   <si>
-    <t>目标受到风属性伤害+12%(最多2层),对目标376%技能伤害</t>
+    <t>目标受到风属性伤害+12%(最多2层),对目标376%技能伤害(CD4)</t>
   </si>
   <si>
     <t>使目标受到风属性伤害增加12%（最多2层） 再以攻击力422%对目标造成伤害 CD4</t>
   </si>
   <si>
-    <t>目标受到风属性伤害+12%(最多2层),对目标422%技能伤害</t>
+    <t>目标受到风属性伤害+12%(最多2层),对目标422%技能伤害(CD4)</t>
   </si>
   <si>
     <t>使目标受到风属性伤害增加15%（最多2层） 再以攻击力422%对目标造成伤害 CD4</t>
   </si>
   <si>
-    <t>目标受到风属性伤害+15%(最多2层),对目标422%技能伤害</t>
+    <t>目标受到风属性伤害+15%(最多2层),对目标422%技能伤害(CD4)</t>
   </si>
   <si>
     <t>使目标受到风属性伤害增加18%（最多2层） 再以攻击力422%对目标造成伤害 CD4</t>
   </si>
   <si>
-    <t>目标受到风属性伤害+18%(最多2层),对目标422%技能伤害</t>
+    <t>目标受到风属性伤害+18%(最多2层),对目标422%技能伤害(CD4)</t>
   </si>
   <si>
     <t>使自身攻击力增加90%，必杀技伤害+30%</t>
@@ -756,6 +756,9 @@
     <t>使自身受到伤害-15% 受到火属性伤害+30%</t>
   </si>
   <si>
+    <t>自身受到伤害-15%,自身受到火属性伤害+30%</t>
+  </si>
+  <si>
     <t>防御时，触发“使自身当前必杀技CD-1"</t>
   </si>
   <si>
@@ -841,6 +844,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使目标受到小恶魔布兰妮伤害增加</t>
     </r>
     <r>
@@ -969,6 +979,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使我方全体攻击力增加</t>
     </r>
     <r>
@@ -1202,6 +1219,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>使我方全体攻击力增加</t>
     </r>
     <r>
@@ -1420,6 +1443,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我方全体获得最大</t>
     </r>
     <r>
@@ -1479,6 +1509,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以自身攻击力</t>
     </r>
     <r>
@@ -1547,6 +1584,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -1684,6 +1728,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我方全体攻击力增加</t>
     </r>
     <r>
@@ -1900,6 +1951,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身造成伤害增加</t>
     </r>
     <r>
@@ -2010,6 +2068,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>以自身攻击力</t>
     </r>
     <r>
@@ -2205,6 +2269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -2346,6 +2416,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>普攻时，触发</t>
     </r>
     <r>
@@ -2897,6 +2974,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -2968,6 +3052,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加25(3回合)，再以攻击力</t>
     </r>
     <r>
@@ -3003,6 +3094,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -3074,6 +3172,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -3145,6 +3250,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使自身攻击力增加</t>
     </r>
     <r>
@@ -3271,11 +3383,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -3315,30 +3427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3352,7 +3442,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3366,26 +3478,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3421,9 +3526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3431,7 +3535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3446,14 +3550,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3474,25 +3586,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3510,7 +3658,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3522,91 +3748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3618,43 +3760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3669,6 +3781,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3679,21 +3806,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3731,17 +3843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3765,6 +3866,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3773,10 +3885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3785,16 +3897,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3803,122 +3915,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3926,9 +4038,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4512,7 +4621,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -4526,7 +4635,7 @@
       </c>
     </row>
     <row r="2" ht="75" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
@@ -4574,7 +4683,7 @@
       </c>
     </row>
     <row r="3" ht="75" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
@@ -4622,7 +4731,7 @@
       </c>
     </row>
     <row r="4" ht="75" customHeight="1" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -4670,7 +4779,7 @@
       </c>
     </row>
     <row r="5" ht="75" customHeight="1" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
@@ -4718,7 +4827,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
@@ -4811,7 +4920,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B8" t="s">
@@ -4856,7 +4965,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
@@ -4901,7 +5010,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B10" t="s">
@@ -4946,7 +5055,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
@@ -4994,7 +5103,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
@@ -5046,7 +5155,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B13" t="s">
@@ -5098,7 +5207,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B14" t="s">
@@ -5150,1496 +5259,1496 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="1"/>
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>920</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>3476.8</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="6">
         <f t="shared" si="1"/>
         <v>254657.371252824</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f t="shared" si="2"/>
         <v>962383.42214328</v>
       </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
         <f t="shared" ref="N15:N48" si="4">K15*3.25</f>
         <v>827636.456571677</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="1"/>
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>640</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>5000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="6">
         <f t="shared" si="1"/>
         <v>177152.953915008</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="6">
         <f t="shared" si="2"/>
         <v>1384007.452461</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
         <f t="shared" si="4"/>
         <v>575747.100223775</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="1"/>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>1000</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>3200</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <f t="shared" si="1"/>
         <v>276801.4904922</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <f t="shared" ref="L17:L48" si="5">I17*1.1^59</f>
         <v>885764.769575039</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1">
         <f t="shared" si="4"/>
         <v>899604.844099649</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="1"/>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>849.6</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>3763.2</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="6">
         <f t="shared" ref="K18:K48" si="6">H18*1.1^59</f>
         <v>235170.546322173</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="5"/>
         <v>1041659.36902025</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
         <f t="shared" si="4"/>
         <v>764304.275547062</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="1"/>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>940.8</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>3395.2</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="6">
         <f t="shared" si="6"/>
         <v>260414.842255061</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" si="5"/>
         <v>939796.420519116</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
         <f t="shared" si="4"/>
         <v>846348.237328949</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="1"/>
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>944</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>3388.8</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="6">
         <f t="shared" si="6"/>
         <v>261300.607024636</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="5"/>
         <v>938024.890979966</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
         <f t="shared" si="4"/>
         <v>849226.972830068</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="1"/>
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>939.2</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>3403.2</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <f t="shared" si="6"/>
         <v>259971.959870274</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="5"/>
         <v>942010.832443054</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
         <f t="shared" si="4"/>
         <v>844908.86957839</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="1"/>
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>676.8</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>5720</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="6">
         <f t="shared" si="6"/>
         <v>187339.248765121</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
         <v>1583304.52561538</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1">
         <f t="shared" si="4"/>
         <v>608852.558486642</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="1"/>
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <v>936</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>3417.6</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="6"/>
         <v>259086.195100699</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="5"/>
         <v>945996.773906141</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1">
         <f t="shared" si="4"/>
         <v>842030.134077271</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="1"/>
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>968</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>3305.6</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="6"/>
         <v>267943.842796449</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="5"/>
         <v>914995.006971015</v>
       </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
         <f t="shared" si="4"/>
         <v>870817.48908846</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="1"/>
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <v>726.4</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>4400</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="6"/>
         <v>201068.602693534</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="5"/>
         <v>1217926.55816568</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
         <f t="shared" si="4"/>
         <v>653472.958753985</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="1"/>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>580.8</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>5499.2</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="6"/>
         <v>160766.30567787</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="5"/>
         <v>1522186.7565147</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
         <f t="shared" si="4"/>
         <v>522490.493453076</v>
       </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="1"/>
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <v>995.2</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>3544</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="6"/>
         <v>275472.843337837</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="5"/>
         <v>980984.482304355</v>
       </c>
       <c r="M27" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="1">
         <f t="shared" si="4"/>
         <v>895286.74084797</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="8">
         <v>995.196953275666</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="8">
         <v>3543.99825758036</v>
       </c>
-      <c r="R27" s="10">
+      <c r="R27" s="9">
         <v>275472</v>
       </c>
-      <c r="S27" s="10">
+      <c r="S27" s="9">
         <v>980984</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="1"/>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <v>947.2</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>3720</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="6"/>
         <v>262186.371794212</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f t="shared" si="5"/>
         <v>1029701.54463098</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1">
         <f t="shared" si="4"/>
         <v>852105.708331187</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="1"/>
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <v>1008</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>3499.2</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="6"/>
         <v>279015.902416137</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <f t="shared" si="5"/>
         <v>968583.775530305</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1">
         <f t="shared" si="4"/>
         <v>906801.682852446</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="1"/>
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>675.2</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>4729.6</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="6">
         <f t="shared" si="6"/>
         <v>186896.366380333</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <f t="shared" si="5"/>
         <v>1309160.32943191</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1">
         <f t="shared" si="4"/>
         <v>607413.190736083</v>
       </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="1"/>
       <c r="C31">
         <v>30</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <v>1024</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>3441.6</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f t="shared" si="6"/>
         <v>283444.726264012</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="5"/>
         <v>952640.009677954</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1">
         <f t="shared" si="4"/>
         <v>921195.36035804</v>
       </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="1"/>
       <c r="C32">
         <v>31</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>1024</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>3441.6</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="6">
         <f t="shared" si="6"/>
         <v>283444.726264012</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" si="5"/>
         <v>952640.009677954</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
         <f t="shared" si="4"/>
         <v>921195.36035804</v>
       </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="1"/>
       <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>904</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>3539.2</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="6">
         <f t="shared" si="6"/>
         <v>250228.547404948</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="5"/>
         <v>979655.835149993</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1">
         <f t="shared" si="4"/>
         <v>813242.779066082</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="1"/>
       <c r="C34">
         <v>33</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>948.8</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>3368</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="6"/>
         <v>262629.254178999</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <f t="shared" si="5"/>
         <v>932267.419977728</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1">
         <f t="shared" si="4"/>
         <v>853545.076081747</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="1"/>
       <c r="C35">
         <v>34</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <v>958.4</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>3332.8</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="6"/>
         <v>265286.548487724</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="5"/>
         <v>922524.007512403</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
         <f t="shared" si="4"/>
         <v>862181.282585103</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="1"/>
       <c r="C36">
         <v>35</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <v>840</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>4200</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="6">
         <f t="shared" si="6"/>
         <v>232513.252013448</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <f t="shared" si="5"/>
         <v>1162566.26006724</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3">
+      <c r="M36" s="1"/>
+      <c r="N36" s="1">
         <f t="shared" si="4"/>
         <v>755668.069043705</v>
       </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="1"/>
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>942.4</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>3740.8</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="6"/>
         <v>260857.724639849</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <f t="shared" si="5"/>
         <v>1035459.01563322</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3">
+      <c r="M37" s="1"/>
+      <c r="N37" s="1">
         <f t="shared" si="4"/>
         <v>847787.605079509</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="1"/>
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="6">
         <v>944</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>3732.8</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="6">
         <f t="shared" si="6"/>
         <v>261300.607024636</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <f t="shared" si="5"/>
         <v>1033244.60370928</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1">
         <f t="shared" si="4"/>
         <v>849226.972830068</v>
       </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="1"/>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <v>691.2</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>5102.4</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="6">
         <f t="shared" si="6"/>
         <v>191325.190228208</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <f t="shared" si="5"/>
         <v>1412351.9250874</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1">
         <f t="shared" si="4"/>
         <v>621806.868241677</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="1"/>
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <v>632</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>5059.2</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="6">
         <f t="shared" si="6"/>
         <v>174938.54199107</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <f t="shared" si="5"/>
         <v>1400394.10069814</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3">
+      <c r="M40" s="1"/>
+      <c r="N40" s="1">
         <f t="shared" si="4"/>
         <v>568550.261470978</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="1"/>
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <v>896</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>3571.2</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="6">
         <f t="shared" si="6"/>
         <v>248014.135481011</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <f t="shared" si="5"/>
         <v>988513.482845743</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3">
+      <c r="M41" s="1"/>
+      <c r="N41" s="1">
         <f t="shared" si="4"/>
         <v>806045.940313285</v>
       </c>
-      <c r="O41" s="7"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="1"/>
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>907.2</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>3523.2</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="6">
         <f t="shared" si="6"/>
         <v>251114.312174523</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <f t="shared" si="5"/>
         <v>975227.011302118</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3">
+      <c r="M42" s="1"/>
+      <c r="N42" s="1">
         <f t="shared" si="4"/>
         <v>816121.514567201</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="1"/>
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <v>1011.2</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>3484.8</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="6">
         <f t="shared" si="6"/>
         <v>279901.667185712</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <f t="shared" si="5"/>
         <v>964597.834067217</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3">
+      <c r="M43" s="1"/>
+      <c r="N43" s="1">
         <f t="shared" si="4"/>
         <v>909680.418353565</v>
       </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="1"/>
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>1017.6</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>3462.4</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="6">
         <f t="shared" si="6"/>
         <v>281673.196724862</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <f t="shared" si="5"/>
         <v>958397.480680192</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3">
+      <c r="M44" s="1"/>
+      <c r="N44" s="1">
         <f t="shared" si="4"/>
         <v>915437.889355803</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="3"/>
+      <c r="B45" s="1"/>
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <v>998.4</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>3528</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="6">
         <f t="shared" si="6"/>
         <v>276358.608107412</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <f t="shared" si="5"/>
         <v>976555.65845648</v>
       </c>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3">
+      <c r="M45" s="1"/>
+      <c r="N45" s="1">
         <f t="shared" si="4"/>
         <v>898165.476349089</v>
       </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="3"/>
+      <c r="B46" s="1"/>
       <c r="C46">
         <v>45</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>995.2</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>3544</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="6">
         <f t="shared" si="6"/>
         <v>275472.843337837</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <f t="shared" si="5"/>
         <v>980984.482304355</v>
       </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3">
+      <c r="M46" s="1"/>
+      <c r="N46" s="1">
         <f t="shared" si="4"/>
         <v>895286.74084797</v>
       </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="3"/>
+      <c r="B47" s="1"/>
       <c r="C47">
         <v>46</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>984</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>3580.8</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="6">
         <f t="shared" si="6"/>
         <v>272372.666644324</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <f t="shared" si="5"/>
         <v>991170.777154468</v>
       </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3">
+      <c r="M47" s="1"/>
+      <c r="N47" s="1">
         <f t="shared" si="4"/>
         <v>885211.166594054</v>
       </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="1"/>
       <c r="C48">
         <v>47</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>961.6</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>3326.4</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="6">
         <f t="shared" si="6"/>
         <v>266172.313257299</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <f t="shared" si="5"/>
         <v>920752.477973253</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3">
+      <c r="M48" s="1"/>
+      <c r="N48" s="1">
         <f t="shared" si="4"/>
         <v>865060.018086222</v>
       </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H49">
@@ -6667,1497 +6776,1497 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="6">
         <v>767.2</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>3032.4</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6">
         <f>H50*1.1^59</f>
         <v>212362.103505616</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <f>I50*1.1^59</f>
         <v>839372.839768546</v>
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="6">
         <v>546</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>4264.4</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6">
         <f>H51*1.1^59</f>
         <v>151133.613808741</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <f>I51*1.1^59</f>
         <v>1180392.27605494</v>
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7" t="s">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="6">
         <v>750.4</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>3101</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7">
+      <c r="J52" s="6"/>
+      <c r="K52" s="6">
         <f t="shared" ref="K52:L61" si="7">H52*1.1^59</f>
         <v>207711.838465347</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="6">
         <f t="shared" si="7"/>
         <v>858361.422016311</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="6">
         <v>831.6</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>2795.8</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6">
         <f t="shared" si="7"/>
         <v>230188.119493313</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <f t="shared" si="7"/>
         <v>773881.607118092</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7" t="s">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="6">
         <v>767.2</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>3032.4</v>
       </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7">
+      <c r="J54" s="6"/>
+      <c r="K54" s="6">
         <f t="shared" si="7"/>
         <v>212362.103505616</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <f t="shared" si="7"/>
         <v>839372.839768546</v>
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="6">
         <v>777</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>2993.2</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6">
         <f t="shared" si="7"/>
         <v>215074.758112439</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <f t="shared" si="7"/>
         <v>828522.221341252</v>
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="6">
         <v>736.4</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>3158.4</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7">
+      <c r="J56" s="6"/>
+      <c r="K56" s="6">
         <f t="shared" si="7"/>
         <v>203836.617598456</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <f t="shared" si="7"/>
         <v>874249.827570563</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7" t="s">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="6">
         <v>534.8</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>4349.8</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7">
+      <c r="J57" s="6"/>
+      <c r="K57" s="6">
         <f t="shared" si="7"/>
         <v>148033.437115228</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <f t="shared" si="7"/>
         <v>1204031.12334297</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="6">
         <v>799.4</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>2909.2</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7">
+      <c r="J58" s="6"/>
+      <c r="K58" s="6">
         <f t="shared" si="7"/>
         <v>221275.111499464</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <f t="shared" si="7"/>
         <v>805270.896139907</v>
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="6">
         <v>750.4</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>3102.4</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7">
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
         <f t="shared" si="7"/>
         <v>207711.838465347</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <f t="shared" si="7"/>
         <v>858748.944103</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7" t="s">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <v>793.8</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>2928.8</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7">
+      <c r="J60" s="6"/>
+      <c r="K60" s="6">
         <f t="shared" si="7"/>
         <v>219725.023152708</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <f t="shared" si="7"/>
         <v>810696.205353554</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7" t="s">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="6">
         <v>537.6</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>4550</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6">
         <f t="shared" si="7"/>
         <v>148808.481288607</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="6">
         <f t="shared" si="7"/>
         <v>1259446.78173951</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7" t="s">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62" s="6">
         <v>684</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>2374.8</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7">
+      <c r="J62" s="6"/>
+      <c r="K62" s="6">
         <f>H62*1.1^59</f>
         <v>189332.219496665</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="6">
         <f>I62*1.1^59</f>
         <v>657348.179620876</v>
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="6">
         <v>700.8</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>2316</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6">
         <f>H63*1.1^59</f>
         <v>193982.484536933</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="6">
         <f>I63*1.1^59</f>
         <v>641072.251979934</v>
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="6">
         <v>535.2</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>3034.8</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7">
+      <c r="J64" s="6"/>
+      <c r="K64" s="6">
         <f t="shared" ref="K64:L72" si="8">H64*1.1^59</f>
         <v>148144.157711425</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <f t="shared" si="8"/>
         <v>840037.163345727</v>
       </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7" t="s">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="6">
         <v>464.4</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>3490.8</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7">
+      <c r="J65" s="6"/>
+      <c r="K65" s="6">
         <f t="shared" si="8"/>
         <v>128546.612184577</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="6">
         <f t="shared" si="8"/>
         <v>966258.64301017</v>
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7" t="s">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="6">
         <v>655.2</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>2478</v>
       </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7">
+      <c r="J66" s="6"/>
+      <c r="K66" s="6">
         <f t="shared" si="8"/>
         <v>181360.336570489</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="6">
         <f t="shared" si="8"/>
         <v>685914.093439671</v>
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7" t="s">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="6">
         <v>626.4</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>2590.8</v>
       </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6">
         <f t="shared" si="8"/>
         <v>173388.453644314</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="6">
         <f t="shared" si="8"/>
         <v>717137.301567191</v>
       </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7" t="s">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="6">
         <v>703.2</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>2307.6</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7">
+      <c r="J68" s="6"/>
+      <c r="K68" s="6">
         <f t="shared" si="8"/>
         <v>194646.808114115</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="6">
         <f t="shared" si="8"/>
         <v>638747.1194598</v>
       </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7" t="s">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="6">
         <v>663.6</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>2445.6</v>
       </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7">
+      <c r="J69" s="6"/>
+      <c r="K69" s="6">
         <f t="shared" si="8"/>
         <v>183685.469090624</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="6">
         <f t="shared" si="8"/>
         <v>676945.725147723</v>
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7" t="s">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="6">
         <v>634.8</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>2556</v>
       </c>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7">
+      <c r="J70" s="6"/>
+      <c r="K70" s="6">
         <f t="shared" si="8"/>
         <v>175713.586164448</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="6">
         <f t="shared" si="8"/>
         <v>707504.609698062</v>
       </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7" t="s">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="6">
         <v>628.8</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <v>2578.8</v>
       </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6">
         <f t="shared" si="8"/>
         <v>174052.777221495</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="6">
         <f t="shared" si="8"/>
         <v>713815.683681284</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7" t="s">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="6">
         <v>638.4</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>2544</v>
       </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7">
+      <c r="J72" s="6"/>
+      <c r="K72" s="6">
         <f t="shared" si="8"/>
         <v>176710.07153022</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="6">
         <f t="shared" si="8"/>
         <v>704182.991812156</v>
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7" t="s">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="6">
         <v>360</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <v>2812</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6">
         <f>H73*1.1^59</f>
         <v>99648.5365771919</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="6">
         <f>I73*1.1^59</f>
         <v>778365.791264065</v>
       </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7" t="s">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="6">
         <v>483</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>2093</v>
       </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7">
+      <c r="J74" s="6"/>
+      <c r="K74" s="6">
         <f t="shared" ref="K74:L93" si="9">H74*1.1^59</f>
         <v>133695.119907732</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="6">
         <f t="shared" si="9"/>
         <v>579345.519600174</v>
       </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H75" s="7">
+      <c r="H75" s="6">
         <v>364</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <v>2778</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6">
         <f t="shared" si="9"/>
         <v>100755.742539161</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="6">
         <f t="shared" si="9"/>
         <v>768954.54058733</v>
       </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7" t="s">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="6">
         <v>555</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>1821</v>
       </c>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7">
+      <c r="J76" s="6"/>
+      <c r="K76" s="6">
         <f t="shared" si="9"/>
         <v>153624.827223171</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="6">
         <f t="shared" si="9"/>
         <v>504055.514186296</v>
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7" t="s">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="6">
         <v>549</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>1844</v>
       </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7">
+      <c r="J77" s="6"/>
+      <c r="K77" s="6">
         <f t="shared" si="9"/>
         <v>151964.018280218</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="6">
         <f t="shared" si="9"/>
         <v>510421.948467616</v>
       </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7" t="s">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="6">
         <v>368</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>2745</v>
       </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7">
+      <c r="J78" s="6"/>
+      <c r="K78" s="6">
         <f t="shared" si="9"/>
         <v>101862.948501129</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="6">
         <f t="shared" si="9"/>
         <v>759820.091401088</v>
       </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7" t="s">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="6">
         <v>528</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <v>1914</v>
       </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7">
+      <c r="J79" s="6"/>
+      <c r="K79" s="6">
         <f t="shared" si="9"/>
         <v>146151.186979881</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="6">
         <f t="shared" si="9"/>
         <v>529798.05280207</v>
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7" t="s">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E80" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="6">
         <v>495</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="6">
         <v>2045</v>
       </c>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7">
+      <c r="J80" s="6"/>
+      <c r="K80" s="6">
         <f t="shared" si="9"/>
         <v>137016.737793639</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="6">
         <f t="shared" si="9"/>
         <v>566059.048056548</v>
       </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="6">
         <v>365</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="6">
         <v>2767</v>
       </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7">
+      <c r="J81" s="6"/>
+      <c r="K81" s="6">
         <f t="shared" si="9"/>
         <v>101032.544029653</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="6">
         <f t="shared" si="9"/>
         <v>765909.724191916</v>
       </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7" t="s">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H82" s="7">
+      <c r="H82" s="6">
         <v>367</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="6">
         <v>2756</v>
       </c>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7">
+      <c r="J82" s="6"/>
+      <c r="K82" s="6">
         <f t="shared" si="9"/>
         <v>101586.147010637</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="6">
         <f t="shared" si="9"/>
         <v>762864.907796502</v>
       </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7" t="s">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="6">
         <v>528</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="6">
         <v>1914</v>
       </c>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7">
+      <c r="J83" s="6"/>
+      <c r="K83" s="6">
         <f t="shared" si="9"/>
         <v>146151.186979881</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="6">
         <f t="shared" si="9"/>
         <v>529798.05280207</v>
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7" t="s">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="6">
         <v>361</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <v>2801</v>
       </c>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7">
+      <c r="J84" s="6"/>
+      <c r="K84" s="6">
         <f t="shared" si="9"/>
         <v>99925.3380676841</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="6">
         <f t="shared" si="9"/>
         <v>775320.974868651</v>
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7" t="s">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="6">
         <v>428</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <v>2362</v>
       </c>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7">
+      <c r="J85" s="6"/>
+      <c r="K85" s="6">
         <f t="shared" si="9"/>
         <v>118471.037930661</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="6">
         <f t="shared" si="9"/>
         <v>653805.120542575</v>
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7" t="s">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E86" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="6">
         <v>495</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <v>2045</v>
       </c>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7">
+      <c r="J86" s="6"/>
+      <c r="K86" s="6">
         <f t="shared" si="9"/>
         <v>137016.737793639</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="6">
         <f t="shared" si="9"/>
         <v>566059.048056548</v>
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="6">
         <v>492</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="6">
         <v>2054</v>
       </c>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7">
+      <c r="J87" s="6"/>
+      <c r="K87" s="6">
         <f t="shared" si="9"/>
         <v>136186.333322162</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="6">
         <f t="shared" si="9"/>
         <v>568550.261470978</v>
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7" t="s">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E88" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="6">
         <v>375</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>2700</v>
       </c>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7">
+      <c r="J88" s="6"/>
+      <c r="K88" s="6">
         <f t="shared" si="9"/>
         <v>103800.558934575</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="6">
         <f t="shared" si="9"/>
         <v>747364.024328939</v>
       </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7" t="s">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="6">
         <v>506</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="6">
         <v>2000</v>
       </c>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7">
+      <c r="J89" s="6"/>
+      <c r="K89" s="6">
         <f t="shared" si="9"/>
         <v>140061.554189053</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="6">
         <f t="shared" si="9"/>
         <v>553602.980984399</v>
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7" t="s">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="6">
         <v>546</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <v>1851</v>
       </c>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7">
+      <c r="J90" s="6"/>
+      <c r="K90" s="6">
         <f t="shared" si="9"/>
         <v>151133.613808741</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="6">
         <f t="shared" si="9"/>
         <v>512359.558901061</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7" t="s">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="6">
         <v>361</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="6">
         <v>2801</v>
       </c>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7">
+      <c r="J91" s="6"/>
+      <c r="K91" s="6">
         <f t="shared" si="9"/>
         <v>99925.3380676841</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="6">
         <f t="shared" si="9"/>
         <v>775320.974868651</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7" t="s">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="6">
         <v>522</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="6">
         <v>1939</v>
       </c>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7">
+      <c r="J92" s="6"/>
+      <c r="K92" s="6">
         <f t="shared" si="9"/>
         <v>144490.378036928</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="6">
         <f t="shared" si="9"/>
         <v>536718.090064375</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7" t="s">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="6">
         <v>522</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="6">
         <v>1939</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7">
+      <c r="J93" s="6"/>
+      <c r="K93" s="6">
         <f t="shared" si="9"/>
         <v>144490.378036928</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="6">
         <f t="shared" si="9"/>
         <v>536718.090064375</v>
       </c>
@@ -8175,8 +8284,8 @@
   <sheetPr/>
   <dimension ref="A1:H309"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8376,7 +8485,7 @@
       <c r="C9" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F9" t="s">
@@ -8445,7 +8554,7 @@
       <c r="F12" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -9298,7 +9407,7 @@
         <v>188</v>
       </c>
       <c r="G55" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -9315,7 +9424,7 @@
         <v>179</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F56" t="s">
         <v>188</v>
@@ -9338,13 +9447,13 @@
         <v>182</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F57" t="s">
         <v>184</v>
       </c>
       <c r="G57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -9361,13 +9470,13 @@
         <v>186</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F58" t="s">
         <v>188</v>
       </c>
       <c r="G58" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -9427,13 +9536,13 @@
         <v>146</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
         <v>148</v>
       </c>
       <c r="G62" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -9450,13 +9559,13 @@
         <v>150</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F63" t="s">
         <v>148</v>
       </c>
       <c r="G63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -9473,13 +9582,13 @@
         <v>153</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
         <v>148</v>
       </c>
       <c r="G64" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -9496,13 +9605,13 @@
         <v>156</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F65" t="s">
         <v>148</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -9519,13 +9628,13 @@
         <v>159</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F66" t="s">
         <v>148</v>
       </c>
       <c r="G66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -9539,13 +9648,13 @@
         <v>162</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F67" t="s">
         <v>164</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -9562,7 +9671,7 @@
         <v>175</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F68" t="s">
         <v>188</v>
@@ -9571,7 +9680,7 @@
         <v>165</v>
       </c>
       <c r="H68" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -9588,13 +9697,13 @@
         <v>179</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F69" t="s">
         <v>184</v>
       </c>
       <c r="G69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -9611,13 +9720,13 @@
         <v>182</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F70" t="s">
         <v>184</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -9697,13 +9806,13 @@
         <v>196</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F74" t="s">
         <v>177</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>269</v>
+      <c r="G74" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -9720,13 +9829,13 @@
         <v>146</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F76" t="s">
         <v>148</v>
       </c>
       <c r="G76" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -9743,13 +9852,13 @@
         <v>150</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F77" t="s">
         <v>148</v>
       </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -9765,14 +9874,14 @@
       <c r="D78" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>274</v>
+      <c r="E78" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="F78" t="s">
         <v>148</v>
       </c>
       <c r="G78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -9792,7 +9901,7 @@
         <v>148</v>
       </c>
       <c r="G79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -9812,7 +9921,7 @@
         <v>148</v>
       </c>
       <c r="G80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -9826,13 +9935,13 @@
         <v>162</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F81" t="s">
         <v>164</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>279</v>
+      <c r="G81" s="1" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -9849,13 +9958,13 @@
         <v>175</v>
       </c>
       <c r="E82" s